--- a/Lims-CRMC V1.xlsx
+++ b/Lims-CRMC V1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -71,6 +71,9 @@
     <sheet name="Setup" sheetId="61" state="visible" r:id="rId62"/>
     <sheet name="Constants" sheetId="62" state="visible" r:id="rId63"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="36" name="_xlnm._FilterDatabase" vbProcedure="false">'AnalysisService Instruments'!$A$3:$B$14</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -193,7 +196,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2081" uniqueCount="1160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="1202">
   <si>
     <t>Instructions</t>
   </si>
@@ -2217,6 +2220,132 @@
     <t>ppm</t>
   </si>
   <si>
+    <t>Aluminium</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>Analyse de l'Aluminium</t>
+  </si>
+  <si>
+    <t>Cobalt</t>
+  </si>
+  <si>
+    <t>Co</t>
+  </si>
+  <si>
+    <t>Analyse du Cobalt</t>
+  </si>
+  <si>
+    <t>Cuivre</t>
+  </si>
+  <si>
+    <t>Cu</t>
+  </si>
+  <si>
+    <t>Analyse du Cuivre</t>
+  </si>
+  <si>
+    <t>Manganèse</t>
+  </si>
+  <si>
+    <t>Mn</t>
+  </si>
+  <si>
+    <t>Analyse du Manganèse</t>
+  </si>
+  <si>
+    <t>Molybdène</t>
+  </si>
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
+    <t>Analyse du Molybdène</t>
+  </si>
+  <si>
+    <t>Niobium</t>
+  </si>
+  <si>
+    <t>Nb</t>
+  </si>
+  <si>
+    <t>Analyse du Niobium</t>
+  </si>
+  <si>
+    <t>Phosphore</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Analyse du Phosphore</t>
+  </si>
+  <si>
+    <t>Silicium</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Analyse du Silicium</t>
+  </si>
+  <si>
+    <t>Etain</t>
+  </si>
+  <si>
+    <t>Sn</t>
+  </si>
+  <si>
+    <t>Analyse de l'Etain</t>
+  </si>
+  <si>
+    <t>Titane</t>
+  </si>
+  <si>
+    <t>Ti</t>
+  </si>
+  <si>
+    <t>Analyse du Titane</t>
+  </si>
+  <si>
+    <t>Vanadium</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Analyse du Vanadium</t>
+  </si>
+  <si>
+    <t>Tungstène</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Analyse du Tungstène</t>
+  </si>
+  <si>
+    <t>Arsenic</t>
+  </si>
+  <si>
+    <t>As</t>
+  </si>
+  <si>
+    <t>Analyse de l'Arsenic</t>
+  </si>
+  <si>
+    <t>Antimoine</t>
+  </si>
+  <si>
+    <t>Sb</t>
+  </si>
+  <si>
+    <t>Analayse de l'antimoine</t>
+  </si>
+  <si>
     <t>Service_title</t>
   </si>
   <si>
@@ -2391,6 +2520,9 @@
     <t>Routine de base avec analyse des éléments courant par ICP-SEO + C/S sur copeaux</t>
   </si>
   <si>
+    <t>Analyse acier inox Massif + C/S</t>
+  </si>
+  <si>
     <t>ARTemplate</t>
   </si>
   <si>
@@ -3004,9 +3136,6 @@
   </si>
   <si>
     <t>register</t>
-  </si>
-  <si>
-    <t>W</t>
   </si>
   <si>
     <t>Special</t>
@@ -4784,6 +4913,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -4792,14 +4925,13 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A10:A356 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.8163265306122"/>
-    <col collapsed="false" hidden="false" max="1023" min="2" style="0" width="34.3877551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="25.25"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="27.9081632653061"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4863,14 +4995,14 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="1" sqref="A10:A356 A7"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="93.484693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="106.183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="33.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="103.540816326531"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="117.423469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="37.0255102040816"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="19.8" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4922,14 +5054,14 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="A10:A356 B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="124.040816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="140.168367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="33.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="137.260204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="155.112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="37.0255102040816"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5000,17 +5132,17 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="1" sqref="A10:A356 B7"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="141.229591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="104.071428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="85.6938775510204"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="91.3826530612245"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="92.0357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="33.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="156.438775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="115.311224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="94.9438775510204"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="101.163265306122"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="101.821428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="37.0255102040816"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="19.8" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5341,24 +5473,24 @@
   </sheetPr>
   <dimension ref="A1:U9"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10:A356"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="94.9438775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.7857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.3469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="136.331632653061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="55.5459183673469"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="67.4438775510204"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="94.015306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="45.2244897959184"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="51.0459183673469"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="50.6479591836735"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="122.183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="105.132653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.1479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.6479591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="151.020408163265"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="61.3571428571429"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="74.7142857142857"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="104.071428571429"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.1173469387755"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="56.4642857142857"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="56.0663265306122"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="135.142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="40.8673469387755"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5556,16 +5688,15 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H39" activeCellId="1" sqref="A10:A356 H39"/>
+      <selection pane="topLeft" activeCell="H39" activeCellId="0" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="77.8877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="40.9948979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="49.0663265306123"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="49.5867346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="12.6989795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="86.2244897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="45.3571428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="54.3469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="54.8775510204082"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5630,16 +5761,16 @@
   <dimension ref="A1:F65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E35" activeCellId="1" sqref="A10:A356 E35"/>
+      <selection pane="topLeft" activeCell="E35" activeCellId="0" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="137.530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="92.0357142857143"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="73.6581632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="81.4642857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="33.4489795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="152.209183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="101.821428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="81.4642857142857"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="90.1836734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="37.0255102040816"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5796,14 +5927,14 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A10:A356"/>
+      <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="231.683673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.4642857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="33.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.015306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="90.1836734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="37.0255102040816"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5882,21 +6013,20 @@
   <dimension ref="A1:H65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="1" sqref="A10:A356 A5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="88.7244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="109.484693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="78.5459183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55.015306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="56.734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="54.8775510204082"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="75.1071428571429"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="56.9948979591837"/>
-    <col collapsed="false" hidden="false" max="1023" min="9" style="0" width="12.6989795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="22.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.1428571428571"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.5969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.6734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.2244897959184"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.8010204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.4234693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.0408163265306"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.0051020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="24.7295918367347"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="true" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6218,20 +6348,20 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="1" sqref="A10:A356 B4"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.3061224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.7857142857143"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="102.484693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="67.8367346938776"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="71.1428571428571"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="68.765306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="55.5459183673469"/>
-    <col collapsed="false" hidden="false" max="1018" min="9" style="0" width="33.4489795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="22.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.734693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.9234693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="113.454081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="75.1071428571429"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="78.6836734693878"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="76.0357142857143"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="61.3571428571429"/>
+    <col collapsed="false" hidden="false" max="1018" min="9" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="24.7295918367347"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6439,16 +6569,16 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C25" activeCellId="1" sqref="A10:A356 C25"/>
+      <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="105.132653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="88.7244897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="66.515306122449"/>
-    <col collapsed="false" hidden="false" max="1018" min="4" style="0" width="33.4489795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.3775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7091836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.6581632653061"/>
+    <col collapsed="false" hidden="false" max="1018" min="4" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="21.2908163265306"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6536,17 +6666,17 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="1" sqref="A10:A356 H9"/>
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="63.0765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.0765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="22.3469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.6479591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="69.8163265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.3877551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.7295918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="12.6989795918367"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6773,17 +6903,17 @@
   <dimension ref="1:9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="1" sqref="A10:A356 B18"/>
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="62.8061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="233.132653061224"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="102.484693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="83" width="66.515306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="105.663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="33.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="69.4234693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="258.132653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="113.454081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="83" width="73.6581632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="116.892857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="37.0255102040816"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6836,7 +6966,7 @@
       </c>
       <c r="AMJ3" s="0"/>
     </row>
-    <row r="4" customFormat="false" ht="47.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="30" t="s">
         <v>357</v>
       </c>
@@ -6920,14 +7050,14 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="1" sqref="A10:A356 A8"/>
+      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="102.484693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="68.765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="33.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="113.454081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.0357142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="37.0255102040816"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7013,15 +7143,16 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="1" sqref="A10:A356 B1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.3877551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="37.9489795918367"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="62.5459183673469"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="0" width="37.9489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.2295918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="42.0561224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="69.1581632653061"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="0" width="42.0561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="9.52040816326531"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7245,18 +7376,18 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="1" sqref="A10:A356 B1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.8265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="30.8163265306122"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.5459183673469"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.4591836734694"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="37.4183673469388"/>
-    <col collapsed="false" hidden="false" max="21" min="10" style="0" width="30.8163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="33.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.9183673469388"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="34.1173469387755"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="51.4387755102041"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="44.8265306122449"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="41.3877551020408"/>
+    <col collapsed="false" hidden="false" max="21" min="10" style="0" width="34.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="37.0255102040816"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7509,14 +7640,14 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="1" sqref="A10:A356 B23"/>
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="90.1836734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="117.683673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="30.280612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="99.7040816326531"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="130.260204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="33.4489795918367"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.4" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7611,36 +7742,36 @@
   </sheetPr>
   <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="0" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="A2" activeCellId="1" sqref="A10:A356 A2"/>
+      <selection pane="topRight" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.3214285714286"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="110.413265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="69.4234693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.1785714285714"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.6887755102041"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="45.2244897959184"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.1479591836735"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="36.2295918367347"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="87.0051020408163"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="81.7244897959184"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="60.6989795918367"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="78.5459183673469"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="33.4489795918367"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="85.0255102040816"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="91.6428571428571"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="64.265306122449"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="85.6938775510204"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="91.6428571428571"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="75.1071428571429"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="90.9744897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="33.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.9489795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1785714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="122.183673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="76.8265306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.8265306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.0663265306122"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="50.1173469387755"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="51.0459183673469"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="40.0663265306122"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="96.265306122449"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="90.4540816326531"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="67.1785714285714"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="86.8826530612245"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="94.015306122449"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="101.423469387755"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="71.1428571428571"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="94.9438775510204"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="101.423469387755"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="83.1836734693878"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="100.765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="37.0255102040816"/>
   </cols>
   <sheetData>
     <row r="1" s="90" customFormat="true" ht="26.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8464,24 +8595,24 @@
   <dimension ref="A1:L65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I49" activeCellId="1" sqref="A10:A356 I49"/>
+      <selection pane="topLeft" activeCell="I49" activeCellId="0" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="88.7244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="101.423469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="68.765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="67.1785714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="55.4081632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="69.8163265306122"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="169.397959183673"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="138.188775510204"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="134.219387755102"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="82.515306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="103.142857142857"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="160.137755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="30.280612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="98.2448979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="112.270408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="76.0357142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="74.3163265306122"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="61.2244897959184"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="77.3571428571429"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="187.510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="153"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="148.632653061224"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="91.3826530612245"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="114.122448979592"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="177.331632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="33.4489795918367"/>
   </cols>
   <sheetData>
     <row r="1" s="90" customFormat="true" ht="20.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8663,23 +8794,23 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E21" activeCellId="1" sqref="A10:A356 E21"/>
+      <selection pane="topRight" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.1683673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.7295918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.1989795918367"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.7704081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="55.4081632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="105.663265306122"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="113.454081632653"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="119.673469387755"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="110.413265306122"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="96.0051020408163"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="147.571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="30.280612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.8775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.0969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6785714285714"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="61.2244897959184"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="116.892857142857"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="125.622448979592"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="132.362244897959"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="122.183673469388"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="106.321428571429"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="163.448979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="33.4489795918367"/>
   </cols>
   <sheetData>
     <row r="1" s="90" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8874,18 +9005,18 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="A10:A356 C18"/>
+      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="76.4336734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.3469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="76.8265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="101.954081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="69.8163265306122"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="56.4642857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="84.4948979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.1683673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="85.0255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="112.923469387755"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="77.3571428571429"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="62.5459183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" s="90" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8985,22 +9116,22 @@
   <dimension ref="A1:K65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="1" sqref="A10:A356 D9"/>
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="36.8877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.3877551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="60.8265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="50.1173469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="46.1479591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="62.8061224489796"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="69.2857142857143"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="93.0969387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="123.372448979592"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="67.1785714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="30.280612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.7295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.9489795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.3061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55.4081632653061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.0459183673469"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="69.4234693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="76.7040816326531"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="103.142857142857"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="136.602040816327"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="74.3163265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="33.4489795918367"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9496,15 +9627,14 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F29" activeCellId="1" sqref="A10:A356 F29"/>
+      <selection pane="topLeft" activeCell="F29" activeCellId="0" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="136.602040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="131.581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="12.6989795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="151.280612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="145.729591836735"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9891,22 +10021,22 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="1" sqref="A10:A356 J4"/>
+      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.9948979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="100.234693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="75.1071428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.8673469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="45.3571428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.280612244898"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="82.2448979591837"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="57.5255102040816"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="62.5459183673469"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="21.2908163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="30.280612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="63.0765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="110.94387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="83.1836734693878"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="45.2244897959184"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="50.2551020408163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.4489795918367"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="90.9744897959184"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="63.6071428571429"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="69.1581632653061"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.4081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="33.4489795918367"/>
   </cols>
   <sheetData>
     <row r="1" s="90" customFormat="true" ht="14.9" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10076,21 +10206,21 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A10:A356 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="71.1428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="90.4540816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="82.2448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.8673469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="45.3571428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="60.9642857142857"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="57.5255102040816"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.1479591836735"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="114.515306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="30.280612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="78.6836734693878"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="100.234693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="90.9744897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="45.2244897959184"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="50.2551020408163"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="67.4438775510204"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="63.6071428571429"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="51.0459183673469"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="126.821428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="33.4489795918367"/>
   </cols>
   <sheetData>
     <row r="1" s="90" customFormat="true" ht="14.9" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10178,15 +10308,15 @@
   <dimension ref="1:6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="A10:A356 A6"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="120.341836734694"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="135.142857142857"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="85.6938775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="33.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="133.301020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="149.561224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="94.9438775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="37.0255102040816"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10281,15 +10411,15 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="A10:A356 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="69.8163265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="194.255102040816"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="196.377551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="77.3571428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="215.147959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="217.397959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="12.6989795918367"/>
   </cols>
   <sheetData>
     <row r="1" s="140" customFormat="true" ht="14.15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10353,15 +10483,15 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E23" activeCellId="1" sqref="A10:A356 E23"/>
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="102.484693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="28.4285714285714"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="12.4285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="33.4489795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="113.454081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="31.3469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.6275510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="37.0255102040816"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10475,42 +10605,42 @@
   <dimension ref="A1:AE65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="X1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" ySplit="0" topLeftCell="W1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AB4" activeCellId="1" sqref="A10:A356 AB4"/>
+      <selection pane="topRight" activeCell="X33" activeCellId="0" sqref="X33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8367346938776"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.0204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.3265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.0765306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.3367346938775"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="71.1428571428571"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="40.8673469387755"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.7295918367347"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.7602040816327"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.4081632653061"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="30.280612244898"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="83" width="37.0255102040816"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="83" width="26.969387755102"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="83" width="41.7857142857143"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="83" width="49.719387755102"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="17.0561224489796"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="19.3061224489796"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="42.1785714285714"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="14.4183673469388"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="24.7295918367347"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="12.4285714285714"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="0" width="55.1377551020408"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="38.3469387755102"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="54.8775510204082"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="61.2244897959184"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="37.0255102040816"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="33.4489795918367"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="0" width="42.4489795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="31" style="0" width="30.280612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.9489795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.1479591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.8877551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.6683673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.969387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.0357142857143"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.6938775510204"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="36.7908163265306"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.8775510204082"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.7857142857143"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="33.4489795918367"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="83" width="40.8673469387755"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="83" width="29.8877551020408"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="83" width="46.1479591836735"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="83" width="55.015306122449"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.7704081632653"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="21.2908163265306"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="46.5459183673469"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.8673469387755"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="27.3775510204082"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="13.6275510204082"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="0" width="60.9642857142857"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="42.4489795918367"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="60.6989795918367"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="67.8367346938776"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="40.8673469387755"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="0" width="46.9387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="31" style="0" width="33.4489795918367"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="true" ht="24.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -11314,442 +11444,1180 @@
       <c r="AD10" s="155"/>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="55"/>
-      <c r="B11" s="55"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="151"/>
-      <c r="G11" s="151"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="151"/>
-      <c r="J11" s="152"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="153"/>
-      <c r="M11" s="153"/>
-      <c r="N11" s="153"/>
-      <c r="O11" s="153"/>
-      <c r="P11" s="154"/>
-      <c r="Q11" s="154"/>
-      <c r="R11" s="154"/>
-      <c r="S11" s="55"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="55"/>
-      <c r="V11" s="55"/>
-      <c r="W11" s="151"/>
+      <c r="A11" s="55" t="s">
+        <v>674</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>675</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="D11" s="151" t="s">
+        <v>675</v>
+      </c>
+      <c r="E11" s="151" t="s">
+        <v>653</v>
+      </c>
+      <c r="F11" s="151" t="s">
+        <v>584</v>
+      </c>
+      <c r="G11" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="H11" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" s="151" t="s">
+        <v>654</v>
+      </c>
+      <c r="J11" s="152" t="s">
+        <v>655</v>
+      </c>
+      <c r="K11" s="55" t="n">
+        <v>4</v>
+      </c>
+      <c r="L11" s="153" t="n">
+        <v>7</v>
+      </c>
+      <c r="M11" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" s="55" t="n">
+        <v>20</v>
+      </c>
+      <c r="T11" s="55" t="n">
+        <v>15</v>
+      </c>
+      <c r="U11" s="55" t="n">
+        <v>9</v>
+      </c>
+      <c r="V11" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="W11" s="151" t="s">
+        <v>360</v>
+      </c>
       <c r="X11" s="155"/>
       <c r="Y11" s="155"/>
-      <c r="Z11" s="153"/>
-      <c r="AA11" s="80"/>
-      <c r="AB11" s="80"/>
+      <c r="Z11" s="153" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA11" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="80" t="n">
+        <v>0</v>
+      </c>
       <c r="AC11" s="155"/>
       <c r="AD11" s="155"/>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="55"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="151"/>
-      <c r="F12" s="151"/>
-      <c r="G12" s="151"/>
-      <c r="H12" s="138"/>
-      <c r="I12" s="151"/>
-      <c r="J12" s="152"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="153"/>
-      <c r="M12" s="153"/>
-      <c r="N12" s="153"/>
-      <c r="O12" s="153"/>
-      <c r="P12" s="154"/>
-      <c r="Q12" s="154"/>
-      <c r="R12" s="154"/>
-      <c r="S12" s="55"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="55"/>
-      <c r="V12" s="55"/>
-      <c r="W12" s="151"/>
+      <c r="A12" s="55" t="s">
+        <v>677</v>
+      </c>
+      <c r="B12" s="55" t="s">
+        <v>678</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>679</v>
+      </c>
+      <c r="D12" s="151" t="s">
+        <v>678</v>
+      </c>
+      <c r="E12" s="151" t="s">
+        <v>653</v>
+      </c>
+      <c r="F12" s="151" t="s">
+        <v>584</v>
+      </c>
+      <c r="G12" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="H12" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="151" t="s">
+        <v>654</v>
+      </c>
+      <c r="J12" s="152" t="s">
+        <v>655</v>
+      </c>
+      <c r="K12" s="55" t="n">
+        <v>4</v>
+      </c>
+      <c r="L12" s="153" t="n">
+        <v>7</v>
+      </c>
+      <c r="M12" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" s="55" t="n">
+        <v>20</v>
+      </c>
+      <c r="T12" s="55" t="n">
+        <v>15</v>
+      </c>
+      <c r="U12" s="55" t="n">
+        <v>9</v>
+      </c>
+      <c r="V12" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="W12" s="151" t="s">
+        <v>360</v>
+      </c>
       <c r="X12" s="155"/>
       <c r="Y12" s="155"/>
-      <c r="Z12" s="153"/>
-      <c r="AA12" s="80"/>
-      <c r="AB12" s="80"/>
+      <c r="Z12" s="153" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA12" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="80" t="n">
+        <v>0</v>
+      </c>
       <c r="AC12" s="155"/>
       <c r="AD12" s="155"/>
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="55"/>
-      <c r="B13" s="55"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="151"/>
-      <c r="F13" s="151"/>
-      <c r="G13" s="151"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="151"/>
-      <c r="J13" s="152"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="153"/>
-      <c r="M13" s="153"/>
-      <c r="N13" s="153"/>
-      <c r="O13" s="153"/>
-      <c r="P13" s="154"/>
-      <c r="Q13" s="154"/>
-      <c r="R13" s="154"/>
-      <c r="S13" s="55"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="55"/>
-      <c r="V13" s="55"/>
-      <c r="W13" s="151"/>
+      <c r="A13" s="55" t="s">
+        <v>680</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>681</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="D13" s="151" t="s">
+        <v>681</v>
+      </c>
+      <c r="E13" s="151" t="s">
+        <v>653</v>
+      </c>
+      <c r="F13" s="151" t="s">
+        <v>584</v>
+      </c>
+      <c r="G13" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="151" t="s">
+        <v>654</v>
+      </c>
+      <c r="J13" s="152" t="s">
+        <v>655</v>
+      </c>
+      <c r="K13" s="55" t="n">
+        <v>4</v>
+      </c>
+      <c r="L13" s="153" t="n">
+        <v>7</v>
+      </c>
+      <c r="M13" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" s="55" t="n">
+        <v>20</v>
+      </c>
+      <c r="T13" s="55" t="n">
+        <v>15</v>
+      </c>
+      <c r="U13" s="55" t="n">
+        <v>9</v>
+      </c>
+      <c r="V13" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="W13" s="151" t="s">
+        <v>360</v>
+      </c>
       <c r="X13" s="155"/>
       <c r="Y13" s="155"/>
-      <c r="Z13" s="153"/>
-      <c r="AA13" s="80"/>
-      <c r="AB13" s="80"/>
+      <c r="Z13" s="153" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA13" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="80" t="n">
+        <v>0</v>
+      </c>
       <c r="AC13" s="155"/>
       <c r="AD13" s="155"/>
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="55"/>
-      <c r="B14" s="55"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="151"/>
-      <c r="G14" s="151"/>
-      <c r="H14" s="138"/>
-      <c r="I14" s="151"/>
-      <c r="J14" s="152"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="153"/>
-      <c r="M14" s="153"/>
-      <c r="N14" s="153"/>
-      <c r="O14" s="153"/>
-      <c r="P14" s="154"/>
-      <c r="Q14" s="154"/>
-      <c r="R14" s="154"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="55"/>
-      <c r="V14" s="55"/>
-      <c r="W14" s="151"/>
+      <c r="A14" s="55" t="s">
+        <v>683</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>684</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="D14" s="151" t="s">
+        <v>684</v>
+      </c>
+      <c r="E14" s="151" t="s">
+        <v>653</v>
+      </c>
+      <c r="F14" s="151" t="s">
+        <v>584</v>
+      </c>
+      <c r="G14" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="H14" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" s="151" t="s">
+        <v>654</v>
+      </c>
+      <c r="J14" s="152" t="s">
+        <v>655</v>
+      </c>
+      <c r="K14" s="55" t="n">
+        <v>4</v>
+      </c>
+      <c r="L14" s="153" t="n">
+        <v>7</v>
+      </c>
+      <c r="M14" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" s="55" t="n">
+        <v>20</v>
+      </c>
+      <c r="T14" s="55" t="n">
+        <v>15</v>
+      </c>
+      <c r="U14" s="55" t="n">
+        <v>9</v>
+      </c>
+      <c r="V14" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="W14" s="151" t="s">
+        <v>360</v>
+      </c>
       <c r="X14" s="155"/>
       <c r="Y14" s="155"/>
-      <c r="Z14" s="153"/>
-      <c r="AA14" s="80"/>
-      <c r="AB14" s="80"/>
+      <c r="Z14" s="153" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA14" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="80" t="n">
+        <v>0</v>
+      </c>
       <c r="AC14" s="155"/>
       <c r="AD14" s="155"/>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="55"/>
-      <c r="B15" s="55"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="151"/>
-      <c r="G15" s="151"/>
-      <c r="H15" s="138"/>
-      <c r="I15" s="151"/>
-      <c r="J15" s="152"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="153"/>
-      <c r="M15" s="153"/>
-      <c r="N15" s="153"/>
-      <c r="O15" s="153"/>
-      <c r="P15" s="154"/>
-      <c r="Q15" s="154"/>
-      <c r="R15" s="154"/>
-      <c r="S15" s="55"/>
-      <c r="T15" s="55"/>
-      <c r="U15" s="55"/>
-      <c r="V15" s="55"/>
-      <c r="W15" s="151"/>
+      <c r="A15" s="55" t="s">
+        <v>686</v>
+      </c>
+      <c r="B15" s="55" t="s">
+        <v>687</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="D15" s="151" t="s">
+        <v>687</v>
+      </c>
+      <c r="E15" s="151" t="s">
+        <v>653</v>
+      </c>
+      <c r="F15" s="151" t="s">
+        <v>584</v>
+      </c>
+      <c r="G15" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="H15" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" s="151" t="s">
+        <v>654</v>
+      </c>
+      <c r="J15" s="152" t="s">
+        <v>655</v>
+      </c>
+      <c r="K15" s="55" t="n">
+        <v>4</v>
+      </c>
+      <c r="L15" s="153" t="n">
+        <v>7</v>
+      </c>
+      <c r="M15" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" s="55" t="n">
+        <v>20</v>
+      </c>
+      <c r="T15" s="55" t="n">
+        <v>15</v>
+      </c>
+      <c r="U15" s="55" t="n">
+        <v>9</v>
+      </c>
+      <c r="V15" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="W15" s="151" t="s">
+        <v>360</v>
+      </c>
       <c r="X15" s="155"/>
       <c r="Y15" s="155"/>
-      <c r="Z15" s="153"/>
-      <c r="AA15" s="80"/>
-      <c r="AB15" s="80"/>
+      <c r="Z15" s="153" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA15" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="80" t="n">
+        <v>0</v>
+      </c>
       <c r="AC15" s="155"/>
       <c r="AD15" s="155"/>
     </row>
     <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="55"/>
-      <c r="B16" s="55"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="151"/>
-      <c r="G16" s="151"/>
-      <c r="H16" s="138"/>
-      <c r="I16" s="151"/>
-      <c r="J16" s="152"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="153"/>
-      <c r="M16" s="153"/>
-      <c r="N16" s="153"/>
-      <c r="O16" s="153"/>
-      <c r="P16" s="154"/>
-      <c r="Q16" s="154"/>
-      <c r="R16" s="154"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="55"/>
-      <c r="W16" s="151"/>
+      <c r="A16" s="55" t="s">
+        <v>689</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>690</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>691</v>
+      </c>
+      <c r="D16" s="151" t="s">
+        <v>690</v>
+      </c>
+      <c r="E16" s="151" t="s">
+        <v>653</v>
+      </c>
+      <c r="F16" s="151" t="s">
+        <v>584</v>
+      </c>
+      <c r="G16" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="H16" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="151" t="s">
+        <v>654</v>
+      </c>
+      <c r="J16" s="152" t="s">
+        <v>655</v>
+      </c>
+      <c r="K16" s="55" t="n">
+        <v>4</v>
+      </c>
+      <c r="L16" s="153" t="n">
+        <v>7</v>
+      </c>
+      <c r="M16" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" s="55" t="n">
+        <v>20</v>
+      </c>
+      <c r="T16" s="55" t="n">
+        <v>15</v>
+      </c>
+      <c r="U16" s="55" t="n">
+        <v>9</v>
+      </c>
+      <c r="V16" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="W16" s="151" t="s">
+        <v>360</v>
+      </c>
       <c r="X16" s="155"/>
       <c r="Y16" s="155"/>
-      <c r="Z16" s="153"/>
-      <c r="AA16" s="80"/>
-      <c r="AB16" s="80"/>
+      <c r="Z16" s="153" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA16" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="80" t="n">
+        <v>0</v>
+      </c>
       <c r="AC16" s="155"/>
       <c r="AD16" s="155"/>
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="55"/>
-      <c r="B17" s="55"/>
-      <c r="D17" s="151"/>
-      <c r="E17" s="151"/>
-      <c r="F17" s="151"/>
-      <c r="G17" s="151"/>
-      <c r="H17" s="138"/>
-      <c r="I17" s="151"/>
-      <c r="J17" s="152"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="153"/>
-      <c r="M17" s="153"/>
-      <c r="N17" s="153"/>
-      <c r="O17" s="153"/>
-      <c r="P17" s="154"/>
-      <c r="Q17" s="154"/>
-      <c r="R17" s="154"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
-      <c r="V17" s="55"/>
-      <c r="W17" s="151"/>
+      <c r="A17" s="55" t="s">
+        <v>692</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>693</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="D17" s="151" t="s">
+        <v>693</v>
+      </c>
+      <c r="E17" s="151" t="s">
+        <v>653</v>
+      </c>
+      <c r="F17" s="151" t="s">
+        <v>584</v>
+      </c>
+      <c r="G17" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="H17" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="151" t="s">
+        <v>654</v>
+      </c>
+      <c r="J17" s="152" t="s">
+        <v>655</v>
+      </c>
+      <c r="K17" s="55" t="n">
+        <v>4</v>
+      </c>
+      <c r="L17" s="153" t="n">
+        <v>7</v>
+      </c>
+      <c r="M17" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" s="55" t="n">
+        <v>20</v>
+      </c>
+      <c r="T17" s="55" t="n">
+        <v>15</v>
+      </c>
+      <c r="U17" s="55" t="n">
+        <v>9</v>
+      </c>
+      <c r="V17" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="W17" s="151" t="s">
+        <v>360</v>
+      </c>
       <c r="X17" s="155"/>
       <c r="Y17" s="155"/>
-      <c r="Z17" s="153"/>
-      <c r="AA17" s="80"/>
-      <c r="AB17" s="80"/>
+      <c r="Z17" s="153" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA17" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="80" t="n">
+        <v>0</v>
+      </c>
       <c r="AC17" s="155"/>
       <c r="AD17" s="155"/>
     </row>
     <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="55"/>
-      <c r="B18" s="55"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="151"/>
-      <c r="H18" s="138"/>
-      <c r="I18" s="151"/>
-      <c r="J18" s="152"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="153"/>
-      <c r="M18" s="153"/>
-      <c r="N18" s="153"/>
-      <c r="O18" s="153"/>
-      <c r="P18" s="154"/>
-      <c r="Q18" s="154"/>
-      <c r="R18" s="154"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="55"/>
-      <c r="U18" s="55"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="151"/>
+      <c r="A18" s="55" t="s">
+        <v>695</v>
+      </c>
+      <c r="B18" s="55" t="s">
+        <v>696</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>697</v>
+      </c>
+      <c r="D18" s="151" t="s">
+        <v>696</v>
+      </c>
+      <c r="E18" s="151" t="s">
+        <v>653</v>
+      </c>
+      <c r="F18" s="151" t="s">
+        <v>584</v>
+      </c>
+      <c r="G18" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="H18" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="151" t="s">
+        <v>654</v>
+      </c>
+      <c r="J18" s="152" t="s">
+        <v>655</v>
+      </c>
+      <c r="K18" s="55" t="n">
+        <v>4</v>
+      </c>
+      <c r="L18" s="153" t="n">
+        <v>7</v>
+      </c>
+      <c r="M18" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" s="55" t="n">
+        <v>20</v>
+      </c>
+      <c r="T18" s="55" t="n">
+        <v>15</v>
+      </c>
+      <c r="U18" s="55" t="n">
+        <v>9</v>
+      </c>
+      <c r="V18" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="W18" s="151" t="s">
+        <v>360</v>
+      </c>
       <c r="X18" s="155"/>
       <c r="Y18" s="155"/>
-      <c r="Z18" s="153"/>
-      <c r="AA18" s="80"/>
-      <c r="AB18" s="80"/>
+      <c r="Z18" s="153" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA18" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="80" t="n">
+        <v>0</v>
+      </c>
       <c r="AC18" s="155"/>
       <c r="AD18" s="155"/>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="D19" s="151"/>
-      <c r="E19" s="151"/>
-      <c r="F19" s="151"/>
-      <c r="G19" s="151"/>
-      <c r="H19" s="138"/>
-      <c r="I19" s="151"/>
-      <c r="J19" s="152"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="153"/>
-      <c r="M19" s="153"/>
-      <c r="N19" s="153"/>
-      <c r="O19" s="153"/>
-      <c r="P19" s="154"/>
-      <c r="Q19" s="154"/>
-      <c r="R19" s="154"/>
-      <c r="S19" s="55"/>
-      <c r="T19" s="55"/>
-      <c r="U19" s="55"/>
-      <c r="V19" s="55"/>
-      <c r="W19" s="151"/>
+      <c r="A19" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>700</v>
+      </c>
+      <c r="D19" s="151" t="s">
+        <v>699</v>
+      </c>
+      <c r="E19" s="151" t="s">
+        <v>653</v>
+      </c>
+      <c r="F19" s="151" t="s">
+        <v>584</v>
+      </c>
+      <c r="G19" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="H19" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="151" t="s">
+        <v>654</v>
+      </c>
+      <c r="J19" s="152" t="s">
+        <v>655</v>
+      </c>
+      <c r="K19" s="55" t="n">
+        <v>4</v>
+      </c>
+      <c r="L19" s="153" t="n">
+        <v>7</v>
+      </c>
+      <c r="M19" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" s="55" t="n">
+        <v>20</v>
+      </c>
+      <c r="T19" s="55" t="n">
+        <v>15</v>
+      </c>
+      <c r="U19" s="55" t="n">
+        <v>9</v>
+      </c>
+      <c r="V19" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="W19" s="151" t="s">
+        <v>360</v>
+      </c>
       <c r="X19" s="155"/>
       <c r="Y19" s="155"/>
-      <c r="Z19" s="153"/>
-      <c r="AA19" s="80"/>
-      <c r="AB19" s="80"/>
+      <c r="Z19" s="153" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA19" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="80" t="n">
+        <v>0</v>
+      </c>
       <c r="AC19" s="155"/>
       <c r="AD19" s="155"/>
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="55"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="151"/>
-      <c r="E20" s="151"/>
-      <c r="F20" s="151"/>
-      <c r="G20" s="151"/>
-      <c r="H20" s="138"/>
-      <c r="I20" s="151"/>
-      <c r="J20" s="152"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="153"/>
-      <c r="M20" s="153"/>
-      <c r="N20" s="153"/>
-      <c r="O20" s="153"/>
-      <c r="P20" s="154"/>
-      <c r="Q20" s="154"/>
-      <c r="R20" s="154"/>
-      <c r="S20" s="55"/>
-      <c r="T20" s="55"/>
-      <c r="U20" s="55"/>
-      <c r="V20" s="55"/>
-      <c r="W20" s="151"/>
+      <c r="A20" s="55" t="s">
+        <v>701</v>
+      </c>
+      <c r="B20" s="55" t="s">
+        <v>702</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>703</v>
+      </c>
+      <c r="D20" s="151" t="s">
+        <v>702</v>
+      </c>
+      <c r="E20" s="151" t="s">
+        <v>653</v>
+      </c>
+      <c r="F20" s="151" t="s">
+        <v>584</v>
+      </c>
+      <c r="G20" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="H20" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="151" t="s">
+        <v>654</v>
+      </c>
+      <c r="J20" s="152" t="s">
+        <v>655</v>
+      </c>
+      <c r="K20" s="55" t="n">
+        <v>4</v>
+      </c>
+      <c r="L20" s="153" t="n">
+        <v>7</v>
+      </c>
+      <c r="M20" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" s="55" t="n">
+        <v>20</v>
+      </c>
+      <c r="T20" s="55" t="n">
+        <v>15</v>
+      </c>
+      <c r="U20" s="55" t="n">
+        <v>9</v>
+      </c>
+      <c r="V20" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="W20" s="151" t="s">
+        <v>360</v>
+      </c>
       <c r="X20" s="155"/>
       <c r="Y20" s="155"/>
-      <c r="Z20" s="153"/>
-      <c r="AA20" s="80"/>
-      <c r="AB20" s="80"/>
+      <c r="Z20" s="153" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA20" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="80" t="n">
+        <v>0</v>
+      </c>
       <c r="AC20" s="155"/>
       <c r="AD20" s="155"/>
     </row>
     <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="55"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="151"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="151"/>
-      <c r="G21" s="151"/>
-      <c r="H21" s="138"/>
-      <c r="I21" s="151"/>
-      <c r="J21" s="152"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="153"/>
-      <c r="M21" s="153"/>
-      <c r="N21" s="153"/>
-      <c r="O21" s="153"/>
-      <c r="P21" s="154"/>
-      <c r="Q21" s="154"/>
-      <c r="R21" s="154"/>
-      <c r="S21" s="55"/>
-      <c r="T21" s="55"/>
-      <c r="U21" s="55"/>
-      <c r="V21" s="55"/>
-      <c r="W21" s="151"/>
+      <c r="A21" s="55" t="s">
+        <v>704</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>705</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>706</v>
+      </c>
+      <c r="D21" s="151" t="s">
+        <v>705</v>
+      </c>
+      <c r="E21" s="151" t="s">
+        <v>653</v>
+      </c>
+      <c r="F21" s="151" t="s">
+        <v>584</v>
+      </c>
+      <c r="G21" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="H21" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="151" t="s">
+        <v>654</v>
+      </c>
+      <c r="J21" s="152" t="s">
+        <v>655</v>
+      </c>
+      <c r="K21" s="55" t="n">
+        <v>4</v>
+      </c>
+      <c r="L21" s="153" t="n">
+        <v>7</v>
+      </c>
+      <c r="M21" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R21" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" s="55" t="n">
+        <v>20</v>
+      </c>
+      <c r="T21" s="55" t="n">
+        <v>15</v>
+      </c>
+      <c r="U21" s="55" t="n">
+        <v>9</v>
+      </c>
+      <c r="V21" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="W21" s="151" t="s">
+        <v>360</v>
+      </c>
       <c r="X21" s="155"/>
       <c r="Y21" s="155"/>
-      <c r="Z21" s="153"/>
-      <c r="AA21" s="80"/>
-      <c r="AB21" s="80"/>
+      <c r="Z21" s="153" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA21" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="80" t="n">
+        <v>0</v>
+      </c>
       <c r="AC21" s="155"/>
       <c r="AD21" s="155"/>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="55"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="151"/>
-      <c r="J22" s="152"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="153"/>
-      <c r="M22" s="153"/>
-      <c r="N22" s="153"/>
-      <c r="O22" s="153"/>
-      <c r="P22" s="154"/>
-      <c r="Q22" s="154"/>
-      <c r="R22" s="154"/>
-      <c r="S22" s="55"/>
-      <c r="T22" s="55"/>
-      <c r="U22" s="55"/>
-      <c r="V22" s="55"/>
-      <c r="W22" s="151"/>
+      <c r="A22" s="55" t="s">
+        <v>707</v>
+      </c>
+      <c r="B22" s="55" t="s">
+        <v>708</v>
+      </c>
+      <c r="C22" s="55" t="s">
+        <v>709</v>
+      </c>
+      <c r="D22" s="151" t="s">
+        <v>708</v>
+      </c>
+      <c r="E22" s="151" t="s">
+        <v>653</v>
+      </c>
+      <c r="F22" s="151" t="s">
+        <v>584</v>
+      </c>
+      <c r="G22" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="H22" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="151" t="s">
+        <v>654</v>
+      </c>
+      <c r="J22" s="152" t="s">
+        <v>655</v>
+      </c>
+      <c r="K22" s="55" t="n">
+        <v>4</v>
+      </c>
+      <c r="L22" s="153" t="n">
+        <v>7</v>
+      </c>
+      <c r="M22" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" s="55" t="n">
+        <v>20</v>
+      </c>
+      <c r="T22" s="55" t="n">
+        <v>15</v>
+      </c>
+      <c r="U22" s="55" t="n">
+        <v>9</v>
+      </c>
+      <c r="V22" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="W22" s="151" t="s">
+        <v>360</v>
+      </c>
       <c r="X22" s="155"/>
       <c r="Y22" s="155"/>
-      <c r="Z22" s="153"/>
-      <c r="AA22" s="80"/>
-      <c r="AB22" s="80"/>
+      <c r="Z22" s="153" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA22" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="80" t="n">
+        <v>0</v>
+      </c>
       <c r="AC22" s="155"/>
       <c r="AD22" s="155"/>
     </row>
     <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="55"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="151"/>
-      <c r="G23" s="151"/>
-      <c r="H23" s="138"/>
-      <c r="I23" s="151"/>
-      <c r="J23" s="152"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="153"/>
-      <c r="M23" s="153"/>
-      <c r="N23" s="153"/>
-      <c r="O23" s="153"/>
-      <c r="P23" s="154"/>
-      <c r="Q23" s="154"/>
-      <c r="R23" s="154"/>
-      <c r="S23" s="55"/>
-      <c r="T23" s="55"/>
-      <c r="U23" s="55"/>
-      <c r="V23" s="55"/>
-      <c r="W23" s="151"/>
+      <c r="A23" s="55" t="s">
+        <v>710</v>
+      </c>
+      <c r="B23" s="55" t="s">
+        <v>711</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>712</v>
+      </c>
+      <c r="D23" s="151" t="s">
+        <v>711</v>
+      </c>
+      <c r="E23" s="151" t="s">
+        <v>653</v>
+      </c>
+      <c r="F23" s="151" t="s">
+        <v>584</v>
+      </c>
+      <c r="G23" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="151" t="s">
+        <v>654</v>
+      </c>
+      <c r="J23" s="152" t="s">
+        <v>655</v>
+      </c>
+      <c r="K23" s="55" t="n">
+        <v>4</v>
+      </c>
+      <c r="L23" s="153" t="n">
+        <v>7</v>
+      </c>
+      <c r="M23" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" s="55" t="n">
+        <v>20</v>
+      </c>
+      <c r="T23" s="55" t="n">
+        <v>15</v>
+      </c>
+      <c r="U23" s="55" t="n">
+        <v>9</v>
+      </c>
+      <c r="V23" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="W23" s="151" t="s">
+        <v>366</v>
+      </c>
       <c r="X23" s="155"/>
       <c r="Y23" s="155"/>
-      <c r="Z23" s="153"/>
-      <c r="AA23" s="80"/>
-      <c r="AB23" s="80"/>
+      <c r="Z23" s="153" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA23" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="80" t="n">
+        <v>0</v>
+      </c>
       <c r="AC23" s="155"/>
       <c r="AD23" s="155"/>
     </row>
     <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="55"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="151"/>
-      <c r="E24" s="151"/>
-      <c r="F24" s="151"/>
-      <c r="G24" s="151"/>
-      <c r="H24" s="138"/>
-      <c r="I24" s="151"/>
-      <c r="J24" s="152"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="153"/>
-      <c r="M24" s="153"/>
-      <c r="N24" s="153"/>
-      <c r="O24" s="153"/>
-      <c r="P24" s="154"/>
-      <c r="Q24" s="154"/>
-      <c r="R24" s="154"/>
-      <c r="S24" s="55"/>
-      <c r="T24" s="55"/>
-      <c r="U24" s="55"/>
-      <c r="V24" s="55"/>
-      <c r="W24" s="151"/>
-      <c r="X24" s="155"/>
+      <c r="A24" s="55" t="s">
+        <v>713</v>
+      </c>
+      <c r="B24" s="55" t="s">
+        <v>714</v>
+      </c>
+      <c r="C24" s="55" t="s">
+        <v>715</v>
+      </c>
+      <c r="D24" s="151" t="s">
+        <v>714</v>
+      </c>
+      <c r="E24" s="151" t="s">
+        <v>653</v>
+      </c>
+      <c r="F24" s="151" t="s">
+        <v>584</v>
+      </c>
+      <c r="G24" s="151" t="s">
+        <v>145</v>
+      </c>
+      <c r="H24" s="138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="151" t="s">
+        <v>654</v>
+      </c>
+      <c r="J24" s="152" t="s">
+        <v>655</v>
+      </c>
+      <c r="K24" s="55" t="n">
+        <v>4</v>
+      </c>
+      <c r="L24" s="153" t="n">
+        <v>7</v>
+      </c>
+      <c r="M24" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" s="153" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" s="154" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" s="55" t="n">
+        <v>20</v>
+      </c>
+      <c r="T24" s="55" t="n">
+        <v>15</v>
+      </c>
+      <c r="U24" s="55" t="n">
+        <v>9</v>
+      </c>
+      <c r="V24" s="55" t="n">
+        <v>1</v>
+      </c>
+      <c r="W24" s="151" t="s">
+        <v>366</v>
+      </c>
+      <c r="X24" s="155" t="s">
+        <v>484</v>
+      </c>
       <c r="Y24" s="155"/>
-      <c r="Z24" s="153"/>
-      <c r="AA24" s="80"/>
-      <c r="AB24" s="80"/>
+      <c r="Z24" s="153" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA24" s="80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="80" t="n">
+        <v>0</v>
+      </c>
       <c r="AC24" s="155"/>
       <c r="AD24" s="155"/>
     </row>
@@ -11935,39 +12803,39 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="1" sqref="A10:A356 B9"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.9387755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="70.3469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.4081632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" s="64" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>674</v>
+        <v>716</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>675</v>
+        <v>717</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>676</v>
+        <v>718</v>
       </c>
       <c r="B2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>677</v>
+        <v>719</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>678</v>
+        <v>720</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12010,13 +12878,21 @@
         <v>368</v>
       </c>
     </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>360</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A4:A8" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A4:A9" type="list">
       <formula1>'Analysis Services'!$A$4:$A$28</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B4:B8" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B4:B9" type="list">
       <formula1>Methods!$A$4:$A$29</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -12036,36 +12912,36 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="1" sqref="A10:A356 C21"/>
+      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.6887755102041"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.1173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.7295918367347"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.5510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
-        <v>674</v>
+        <v>716</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>679</v>
+        <v>721</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>680</v>
+        <v>722</v>
       </c>
       <c r="B2" s="7"/>
     </row>
     <row r="3" customFormat="false" ht="29.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="156" t="s">
-        <v>677</v>
+        <v>719</v>
       </c>
       <c r="B3" s="156" t="s">
         <v>536</v>
@@ -12081,18 +12957,18 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>650</v>
+        <v>656</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>457</v>
+        <v>472</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12100,12 +12976,12 @@
         <v>656</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>457</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>472</v>
@@ -12113,31 +12989,31 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>659</v>
+        <v>650</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>670</v>
+        <v>650</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>457</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>650</v>
+        <v>659</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>488</v>
@@ -12148,16 +13024,97 @@
         <v>659</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
+        <v>670</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="11" t="s">
+        <v>674</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="11" t="s">
+        <v>674</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>488</v>
       </c>
     </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="11" t="s">
+        <v>680</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="11" t="s">
+        <v>680</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="11" t="s">
+        <v>680</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>488</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A3:B14"/>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A4:A13" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A4:A23" type="list">
       <formula1>'Analysis Services'!$A$4:$A$34</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B4:B13" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B4:B23" type="list">
       <formula1>Instruments!$B$4:$B$37</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -12169,6 +13126,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Pàgina &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12180,22 +13138,22 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="1" sqref="A10:A356 E13"/>
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.1683673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.6479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.7602040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="35.6989795918367"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.4285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="33.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.0765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.3469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.8775510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.5459183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.6275510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="37.0255102040816"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>674</v>
+        <v>716</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>594</v>
@@ -12212,13 +13170,13 @@
     </row>
     <row r="2" s="34" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>681</v>
+        <v>723</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>682</v>
+        <v>724</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>599</v>
@@ -12252,34 +13210,34 @@
   <dimension ref="1:15"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="1" sqref="A10:A356 C22"/>
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.0561224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.4081632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="66.7857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.5255102040816"/>
-    <col collapsed="false" hidden="false" max="973" min="5" style="0" width="33.4489795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="974" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.4081632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.3061224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.9234693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="63.6071428571429"/>
+    <col collapsed="false" hidden="false" max="973" min="5" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="974" style="0" width="21.2908163265306"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="true" ht="24.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="55" t="s">
-        <v>674</v>
+        <v>716</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>683</v>
+        <v>725</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>684</v>
+        <v>726</v>
       </c>
       <c r="AMJ1" s="55"/>
     </row>
     <row r="2" s="34" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>685</v>
+        <v>727</v>
       </c>
       <c r="C2" s="14"/>
       <c r="AMJ2" s="46"/>
@@ -12289,10 +13247,10 @@
         <v>167</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>686</v>
+        <v>728</v>
       </c>
       <c r="C3" s="157" t="s">
-        <v>687</v>
+        <v>729</v>
       </c>
       <c r="AMJ3" s="2"/>
     </row>
@@ -12389,37 +13347,37 @@
   <dimension ref="A1:Y14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O18" activeCellId="1" sqref="A10:A356 O18"/>
+      <selection pane="topLeft" activeCell="O18" activeCellId="0" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="132.362244897959"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.8877551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.4081632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="103.933673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.8571428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="46.4081632653061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.1479591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.5459183673469"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="60.9642857142857"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="57.5255102040816"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="36.8877551020408"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="36.6275510204082"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="54.6071428571429"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="63.6071428571429"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="45.0969387755102"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="62.6785714285714"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="49.5867346938776"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="51.969387755102"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="46.1479591836735"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="62.1479591836735"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="55.5459183673469"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="9.52040816326531"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="45.3571428571429"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="40.0663265306122"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="55.1377551020408"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="9.52040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="146.520408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.7295918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.3061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="115.051020408163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.4183673469388"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="51.3061224489796"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="51.0459183673469"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="51.4387755102041"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="67.4438775510204"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="63.6071428571429"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="40.7295918367347"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="40.4591836734694"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="60.4336734693878"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="70.3469387755102"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="49.8469387755102"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="69.2857142857143"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="54.8775510204082"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="57.5255102040816"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="51.0459183673469"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="68.765306122449"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="61.3571428571429"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="10.4489795918367"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="50.2551020408163"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="44.4285714285714"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="60.9642857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="10.4489795918367"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12916,35 +13874,35 @@
   <dimension ref="1:8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="1" sqref="A10:A356 B12"/>
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.4081632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="37.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.3469387755102"/>
-    <col collapsed="false" hidden="false" max="997" min="5" style="0" width="33.4489795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="998" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.5051020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="41.7857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.4489795918367"/>
+    <col collapsed="false" hidden="false" max="997" min="5" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="998" style="0" width="21.2908163265306"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="true" ht="24.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="55" t="s">
-        <v>674</v>
+        <v>716</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>688</v>
+        <v>730</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>689</v>
+        <v>731</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>690</v>
+        <v>732</v>
       </c>
     </row>
     <row r="2" s="34" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>691</v>
+        <v>733</v>
       </c>
       <c r="B2" s="74"/>
       <c r="C2" s="14"/>
@@ -12953,16 +13911,16 @@
     </row>
     <row r="3" s="6" customFormat="true" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>692</v>
+        <v>734</v>
       </c>
       <c r="B3" s="76" t="s">
-        <v>693</v>
+        <v>735</v>
       </c>
       <c r="C3" s="76" t="s">
-        <v>694</v>
+        <v>736</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>695</v>
+        <v>737</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13023,18 +13981,18 @@
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="1" sqref="A10:A356 B8"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="69.1581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.6989795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="112.270408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.0663265306123"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.0561224489796"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.2908163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="33.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="76.4336734693878"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="67.1785714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="124.301020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.3469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="46.4081632653061"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.4081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="37.0255102040816"/>
   </cols>
   <sheetData>
     <row r="1" s="38" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13048,10 +14006,10 @@
         <v>164</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>696</v>
+        <v>738</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>697</v>
+        <v>739</v>
       </c>
       <c r="F1" s="38" t="s">
         <v>511</v>
@@ -13059,7 +14017,7 @@
     </row>
     <row r="2" s="34" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>698</v>
+        <v>740</v>
       </c>
       <c r="C2" s="7"/>
     </row>
@@ -13074,10 +14032,10 @@
         <v>42</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>699</v>
+        <v>741</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>700</v>
+        <v>742</v>
       </c>
       <c r="F3" s="47" t="s">
         <v>511</v>
@@ -13086,37 +14044,37 @@
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="159"/>
       <c r="B4" s="36" t="s">
-        <v>701</v>
+        <v>743</v>
       </c>
       <c r="C4" s="160" t="s">
-        <v>702</v>
+        <v>744</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>703</v>
+        <v>745</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="159"/>
       <c r="B5" s="36" t="s">
-        <v>704</v>
+        <v>746</v>
       </c>
       <c r="C5" s="160" t="s">
-        <v>705</v>
+        <v>747</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>706</v>
+        <v>748</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="159"/>
       <c r="B6" s="36" t="s">
-        <v>707</v>
+        <v>749</v>
       </c>
       <c r="C6" s="160" t="s">
-        <v>708</v>
+        <v>750</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>709</v>
+        <v>751</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13164,42 +14122,42 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="1" sqref="A10:A356 B17"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="92.0357142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="114.122448979592"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="121.122448979592"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="33.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="101.821428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="126.290816326531"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="134.081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="37.0255102040816"/>
   </cols>
   <sheetData>
     <row r="1" s="38" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="38" t="s">
-        <v>710</v>
+        <v>752</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>711</v>
+        <v>753</v>
       </c>
     </row>
     <row r="2" s="34" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>712</v>
+        <v>754</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" s="47" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="47" t="s">
-        <v>710</v>
+        <v>752</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>713</v>
+        <v>755</v>
       </c>
     </row>
     <row r="4" s="38" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="159" t="s">
-        <v>701</v>
+        <v>743</v>
       </c>
       <c r="B4" s="161" t="s">
         <v>650</v>
@@ -13207,7 +14165,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="159" t="s">
-        <v>701</v>
+        <v>743</v>
       </c>
       <c r="B5" s="161" t="s">
         <v>656</v>
@@ -13215,7 +14173,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="159" t="s">
-        <v>701</v>
+        <v>743</v>
       </c>
       <c r="B6" s="161" t="s">
         <v>659</v>
@@ -13223,7 +14181,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="159" t="s">
-        <v>704</v>
+        <v>746</v>
       </c>
       <c r="B7" s="161" t="s">
         <v>650</v>
@@ -13231,7 +14189,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="159" t="s">
-        <v>704</v>
+        <v>746</v>
       </c>
       <c r="B8" s="161" t="s">
         <v>656</v>
@@ -13239,7 +14197,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="159" t="s">
-        <v>704</v>
+        <v>746</v>
       </c>
       <c r="B9" s="161" t="s">
         <v>659</v>
@@ -13247,7 +14205,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="159" t="s">
-        <v>707</v>
+        <v>749</v>
       </c>
       <c r="B10" s="161" t="s">
         <v>656</v>
@@ -13255,7 +14213,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="159" t="s">
-        <v>707</v>
+        <v>749</v>
       </c>
       <c r="B11" s="161" t="s">
         <v>650</v>
@@ -13263,7 +14221,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="159" t="s">
-        <v>707</v>
+        <v>749</v>
       </c>
       <c r="B12" s="161" t="s">
         <v>659</v>
@@ -13345,18 +14303,18 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="1" sqref="A10:A356 D4"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="57.5255102040816"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.9489795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.0459183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="82.7755102040816"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="40.7295918367347"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.4081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="33.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="63.6071428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.0561224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="56.4642857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="91.6428571428571"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="45.0969387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="51.3061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="37.0255102040816"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="15.05" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13370,21 +14328,21 @@
         <v>340</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>714</v>
+        <v>756</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>715</v>
+        <v>757</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>716</v>
+        <v>758</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>717</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" s="34" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>718</v>
+        <v>760</v>
       </c>
       <c r="D2" s="7"/>
     </row>
@@ -13399,16 +14357,16 @@
         <v>349</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>719</v>
+        <v>761</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>720</v>
+        <v>762</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>721</v>
+        <v>763</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>722</v>
+        <v>764</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -13686,22 +14644,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:5"/>
+  <dimension ref="1:6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="1" sqref="A10:A356 C21"/>
+      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.0051020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="145.591836734694"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="40.8673469387755"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="63.0765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="60.1683673469388"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="54.8775510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="33.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.1581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0561224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="91.8010204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="45.2244897959184"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="69.8163265306122"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="66.515306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="60.6989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="37.0255102040816"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13721,7 +14679,7 @@
         <v>346</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>723</v>
+        <v>765</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>511</v>
@@ -13734,7 +14692,7 @@
     </row>
     <row r="2" s="34" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>724</v>
+        <v>766</v>
       </c>
       <c r="C2" s="7"/>
       <c r="AMI2" s="46"/>
@@ -13742,7 +14700,7 @@
     </row>
     <row r="3" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>725</v>
+        <v>767</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>228</v>
@@ -13757,24 +14715,24 @@
         <v>348</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>726</v>
+        <v>768</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>511</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>727</v>
+        <v>769</v>
       </c>
       <c r="AMI3" s="2"/>
       <c r="AMJ3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="64" t="s">
-        <v>728</v>
+        <v>770</v>
       </c>
       <c r="B4" s="82"/>
       <c r="C4" s="0" t="s">
-        <v>729</v>
+        <v>771</v>
       </c>
       <c r="D4" s="82" t="s">
         <v>324</v>
@@ -13787,11 +14745,11 @@
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="64" t="s">
-        <v>730</v>
+        <v>772</v>
       </c>
       <c r="B5" s="82"/>
       <c r="C5" s="0" t="s">
-        <v>731</v>
+        <v>773</v>
       </c>
       <c r="D5" s="82" t="s">
         <v>316</v>
@@ -13801,6 +14759,12 @@
       <c r="H5" s="78" t="n">
         <v>0</v>
       </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>774</v>
+      </c>
+      <c r="B6" s="82"/>
     </row>
   </sheetData>
   <dataValidations count="6">
@@ -13808,7 +14772,7 @@
       <formula1>Constants!$C$22:$C$33</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Select a valid entry from the selection list" errorTitle="Invalid Client" operator="equal" prompt="Leave this field blank if it is a general 'lab' template that can be used by all clients.  The Client list used in the selection list is maintained on the 'Clients' sheet" promptTitle="Select a Client if the Template belongs to a specific Client" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B4:B5" type="list">
+    <dataValidation allowBlank="true" error="Select a valid entry from the selection list" errorTitle="Invalid Client" operator="equal" prompt="Leave this field blank if it is a general 'lab' template that can be used by all clients.  The Client list used in the selection list is maintained on the 'Clients' sheet" promptTitle="Select a Client if the Template belongs to a specific Client" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B4:B6" type="list">
       <formula1>Clients!$A$4:$A$81</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -13850,153 +14814,153 @@
   <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="1" sqref="A10:A356 C13"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="66.515306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.4081632653061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="63.6071428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="33.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="73.6581632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.2244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="70.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="37.0255102040816"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>732</v>
+        <v>775</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>733</v>
+        <v>776</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>734</v>
+        <v>777</v>
       </c>
     </row>
     <row r="2" s="34" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>735</v>
+        <v>778</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>736</v>
+        <v>779</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>737</v>
+        <v>780</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>738</v>
+        <v>781</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="82" t="s">
-        <v>728</v>
+        <v>770</v>
       </c>
       <c r="B4" s="82" t="s">
         <v>662</v>
       </c>
       <c r="C4" s="82" t="s">
-        <v>739</v>
+        <v>782</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="82" t="s">
-        <v>728</v>
+        <v>770</v>
       </c>
       <c r="B5" s="82" t="s">
         <v>665</v>
       </c>
       <c r="C5" s="82" t="s">
-        <v>739</v>
+        <v>782</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="82" t="s">
-        <v>728</v>
+        <v>770</v>
       </c>
       <c r="B6" s="161" t="s">
         <v>650</v>
       </c>
       <c r="C6" s="82" t="s">
-        <v>740</v>
+        <v>783</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="82" t="s">
-        <v>728</v>
+        <v>770</v>
       </c>
       <c r="B7" s="161" t="s">
         <v>656</v>
       </c>
       <c r="C7" s="82" t="s">
-        <v>740</v>
+        <v>783</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="82" t="s">
-        <v>728</v>
+        <v>770</v>
       </c>
       <c r="B8" s="161" t="s">
         <v>659</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>740</v>
+        <v>783</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="82" t="s">
-        <v>730</v>
+        <v>772</v>
       </c>
       <c r="B9" s="161" t="s">
         <v>650</v>
       </c>
       <c r="C9" s="82" t="s">
-        <v>740</v>
+        <v>783</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="82" t="s">
-        <v>730</v>
+        <v>772</v>
       </c>
       <c r="B10" s="161" t="s">
         <v>656</v>
       </c>
       <c r="C10" s="82" t="s">
-        <v>740</v>
+        <v>783</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="82" t="s">
-        <v>730</v>
+        <v>772</v>
       </c>
       <c r="B11" s="161" t="s">
         <v>659</v>
       </c>
       <c r="C11" s="82" t="s">
-        <v>740</v>
+        <v>783</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="82" t="s">
-        <v>730</v>
+        <v>772</v>
       </c>
       <c r="B12" s="161" t="s">
         <v>662</v>
       </c>
       <c r="C12" s="82" t="s">
-        <v>739</v>
+        <v>782</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="82" t="s">
-        <v>730</v>
+        <v>772</v>
       </c>
       <c r="B13" s="161" t="s">
         <v>665</v>
       </c>
       <c r="C13" s="82" t="s">
-        <v>739</v>
+        <v>782</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14354,59 +15318,59 @@
   <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="A10:A356 D17"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="58.0561224489796"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="50.2551020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="50.1173469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="56.4642857142857"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="76.0357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="33.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="64.1275510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.5459183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.4081632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="62.5459183673469"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="84.1020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="37.0255102040816"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>732</v>
+        <v>775</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>741</v>
+        <v>784</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>742</v>
+        <v>785</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>743</v>
+        <v>786</v>
       </c>
     </row>
     <row r="2" s="34" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>744</v>
+        <v>787</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>736</v>
+        <v>779</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>738</v>
+        <v>781</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>745</v>
+        <v>788</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>746</v>
+        <v>789</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="82" t="s">
-        <v>728</v>
+        <v>770</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>739</v>
+        <v>782</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>298</v>
@@ -14417,10 +15381,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="82" t="s">
-        <v>728</v>
+        <v>770</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>740</v>
+        <v>783</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>245</v>
@@ -14431,10 +15395,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="82" t="s">
-        <v>730</v>
+        <v>772</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>740</v>
+        <v>783</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>298</v>
@@ -14445,10 +15409,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="82" t="s">
-        <v>730</v>
+        <v>772</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>739</v>
+        <v>782</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>298</v>
@@ -14911,16 +15875,16 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="1" sqref="A10:A356 G4"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="76.4336734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="96.1428571428571"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="40.9948979591837"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="45.3571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="33.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="84.4948979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="106.44387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="45.3571428571429"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="50.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="37.0255102040816"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14934,47 +15898,47 @@
         <v>308</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>747</v>
+        <v>790</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>748</v>
+        <v>791</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>749</v>
+        <v>792</v>
       </c>
     </row>
     <row r="2" s="34" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>750</v>
+        <v>793</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>751</v>
+        <v>794</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>752</v>
+        <v>795</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>753</v>
+        <v>796</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>754</v>
+        <v>797</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>755</v>
+        <v>798</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="64" t="s">
-        <v>756</v>
+        <v>799</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>757</v>
+        <v>800</v>
       </c>
       <c r="C4" s="78" t="n">
         <v>0</v>
@@ -15049,63 +16013,63 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D13" activeCellId="1" sqref="A10:A356 D13"/>
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="69.8163265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="127.602040816327"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="33.4489795918367"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="20.7602040816327"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.4489795918367"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="76.7040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="33.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="77.3571428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="141.229591836735"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="22.8775510204082"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="84.9030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="37.0255102040816"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>758</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>714</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>759</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>715</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="2" s="34" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>760</v>
+        <v>803</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>751</v>
+        <v>794</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>719</v>
+        <v>761</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>761</v>
+        <v>804</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>720</v>
+        <v>762</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>721</v>
+        <v>763</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="82" t="s">
-        <v>756</v>
+        <v>799</v>
       </c>
       <c r="B4" s="161" t="s">
         <v>650</v>
@@ -15123,7 +16087,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="82" t="s">
-        <v>756</v>
+        <v>799</v>
       </c>
       <c r="B5" s="161" t="s">
         <v>656</v>
@@ -15310,72 +16274,73 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A10:A356 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="83.1836734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.3877551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="76.8265306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="82.2448979591837"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="93.484693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.2908163265306"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="34.3877551020408"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="60.8265306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="40.0663265306122"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="45.0969387755102"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="45.3571428571429"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="41.7857142857143"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="40.8673469387755"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="46.5459183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="92.0357142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.9489795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="85.0255102040816"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="90.9744897959184"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="103.540816326531"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.4081632653061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.9489795918367"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="67.3061224489796"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="44.4285714285714"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="49.8469387755102"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="50.2551020408163"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="46.1479591836735"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="45.2244897959184"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="51.4387755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.52040816326531"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>762</v>
+        <v>805</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>164</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>763</v>
+        <v>806</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>758</v>
+        <v>801</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>764</v>
+        <v>807</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>747</v>
+        <v>790</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>308</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>765</v>
+        <v>808</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>766</v>
+        <v>809</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>749</v>
+        <v>792</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>767</v>
+        <v>810</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>768</v>
+        <v>811</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>769</v>
+        <v>812</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>770</v>
+        <v>813</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>771</v>
+        <v>814</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>511</v>
@@ -15383,13 +16348,13 @@
     </row>
     <row r="2" s="34" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>772</v>
+        <v>815</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>773</v>
+        <v>816</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>42</v>
@@ -15398,40 +16363,40 @@
         <v>421</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>774</v>
+        <v>817</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>775</v>
+        <v>818</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>747</v>
+        <v>790</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>308</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>776</v>
+        <v>819</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>777</v>
+        <v>820</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>778</v>
+        <v>821</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>779</v>
+        <v>822</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>780</v>
+        <v>823</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>781</v>
+        <v>824</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>782</v>
+        <v>825</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>783</v>
+        <v>826</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>511</v>
@@ -15456,16 +16421,16 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="1" sqref="A10:A356 D17"/>
+      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.8469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="93.8928571428571"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="61.2244897959184"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="46.9387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="33.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.1377551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="103.933673469388"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.8367346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.969387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="37.0255102040816"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15631,56 +16596,57 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A10:A356"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="147.709183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.5459183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="24.3367346938775"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.4489795918367"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.3877551020408"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="163.571428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.3571428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.969387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.9489795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.52040816326531"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="22.6" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>784</v>
+        <v>827</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>785</v>
+        <v>828</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>759</v>
+        <v>802</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>715</v>
+        <v>757</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>716</v>
+        <v>758</v>
       </c>
     </row>
     <row r="2" s="34" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>786</v>
+        <v>829</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>773</v>
+        <v>816</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>719</v>
+        <v>761</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>761</v>
+        <v>804</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>720</v>
+        <v>762</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>721</v>
+        <v>763</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15740,70 +16706,71 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="1" sqref="A10:A356 A9"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="76.0357142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.6479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="56.4642857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="75.1071428571429"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="33.4489795918367"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.3877551020408"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="29.8877551020408"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="42.0561224489796"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="34.3877551020408"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="45.0969387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="34.1173469387755"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="122.183673469388"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="28.4285714285714"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="84.1020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.3469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="62.5459183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="83.1836734693878"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.9489795918367"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.0663265306122"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.4081632653061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="37.9489795918367"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="49.8469387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="37.6887755102041"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="135.142857142857"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="31.3469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.52040816326531"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="25.45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>784</v>
+        <v>827</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>762</v>
+        <v>805</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>787</v>
+        <v>830</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>785</v>
+        <v>828</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>761</v>
+        <v>804</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>788</v>
+        <v>831</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>789</v>
+        <v>832</v>
       </c>
       <c r="H1" s="0" t="s">
         <v>503</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>790</v>
+        <v>833</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>791</v>
+        <v>834</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>792</v>
+        <v>835</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>793</v>
+        <v>836</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>794</v>
+        <v>837</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>795</v>
+        <v>838</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15811,31 +16778,31 @@
         <v>33</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>762</v>
+        <v>805</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>796</v>
+        <v>839</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>737</v>
+        <v>780</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>761</v>
+        <v>804</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>797</v>
+        <v>840</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>789</v>
+        <v>832</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>503</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>790</v>
+        <v>833</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>791</v>
+        <v>834</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15891,22 +16858,22 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A10:A356"/>
+      <selection pane="topLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="116.372448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.6479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.7602040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.5255102040816"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.4285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="33.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="128.801020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.3469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.8775510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="63.6071428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.6275510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="37.0255102040816"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>798</v>
+        <v>841</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>594</v>
@@ -15926,7 +16893,7 @@
     </row>
     <row r="2" s="34" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>799</v>
+        <v>842</v>
       </c>
       <c r="C2" s="7"/>
     </row>
@@ -15969,14 +16936,14 @@
   <dimension ref="A1:C65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B17" activeCellId="1" sqref="A10:A356 B17"/>
+      <selection pane="topLeft" activeCell="B17" activeCellId="0" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="84.4948979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="163.571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="33.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="93.484693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="181.168367346939"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="37.0255102040816"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15989,7 +16956,7 @@
     </row>
     <row r="2" s="34" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>800</v>
+        <v>843</v>
       </c>
       <c r="C2" s="7"/>
     </row>
@@ -16003,26 +16970,26 @@
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="64" t="s">
-        <v>801</v>
+        <v>844</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>802</v>
+        <v>845</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="64" t="s">
-        <v>803</v>
+        <v>846</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>804</v>
+        <v>847</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="64" t="s">
-        <v>805</v>
+        <v>848</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>806</v>
+        <v>849</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -16045,65 +17012,66 @@
   <dimension ref="1:3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="1" sqref="A10:A356 E4"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.4285714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.1173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.1377551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="49.0663265306123"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="46.1479591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="46.9387755102041"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="42.0561224489796"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.5867346938776"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.7857142857143"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="37.9489795918367"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="44.8265306122449"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="45.0969387755102"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="62.5459183673469"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.0663265306123"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.6887755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="60.9642857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.3469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.0459183673469"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="51.969387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.4081632653061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="54.8775510204082"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.4285714285714"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="42.0561224489796"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="49.5867346938776"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="49.8469387755102"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="69.1581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.52040816326531"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="64" t="s">
-        <v>762</v>
+        <v>805</v>
       </c>
       <c r="B1" s="64" t="s">
         <v>223</v>
       </c>
       <c r="C1" s="64" t="s">
-        <v>807</v>
+        <v>850</v>
       </c>
       <c r="D1" s="64" t="s">
-        <v>808</v>
+        <v>851</v>
       </c>
       <c r="E1" s="64" t="s">
-        <v>767</v>
+        <v>810</v>
       </c>
       <c r="F1" s="64" t="s">
-        <v>768</v>
+        <v>811</v>
       </c>
       <c r="G1" s="64" t="s">
-        <v>770</v>
+        <v>813</v>
       </c>
       <c r="H1" s="64" t="s">
-        <v>771</v>
+        <v>814</v>
       </c>
       <c r="I1" s="64" t="s">
-        <v>809</v>
+        <v>852</v>
       </c>
       <c r="J1" s="64" t="s">
         <v>339</v>
       </c>
       <c r="K1" s="64" t="s">
-        <v>810</v>
+        <v>853</v>
       </c>
       <c r="L1" s="64" t="s">
-        <v>811</v>
+        <v>854</v>
       </c>
       <c r="M1" s="64" t="s">
-        <v>812</v>
+        <v>855</v>
       </c>
       <c r="N1" s="64" t="s">
         <v>511</v>
@@ -16111,49 +17079,49 @@
     </row>
     <row r="2" s="34" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>813</v>
+        <v>856</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="162" t="s">
-        <v>814</v>
+        <v>857</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>286</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>815</v>
+        <v>858</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>816</v>
+        <v>859</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>779</v>
+        <v>822</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>780</v>
+        <v>823</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>782</v>
+        <v>825</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>783</v>
+        <v>826</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>817</v>
+        <v>860</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>339</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>818</v>
+        <v>861</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>819</v>
+        <v>862</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>820</v>
+        <v>863</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>511</v>
@@ -16180,61 +17148,63 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="A10:A356 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="60.6989795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.0663265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.1173469387755"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="70.3469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="68.765306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="34.6479591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="56.734693877551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.8469387755102"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="46.9387755102041"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="67.1785714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.6887755102041"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="77.8877551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="76.0357142857143"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="38.3469387755102"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="62.8061224489796"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="55.1377551020408"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="9.52040816326531"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="51.969387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.52040816326531"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.9" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="64" t="s">
-        <v>762</v>
+        <v>805</v>
       </c>
       <c r="B1" s="64" t="s">
-        <v>821</v>
+        <v>864</v>
       </c>
       <c r="C1" s="64" t="s">
         <v>223</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>822</v>
+        <v>865</v>
       </c>
       <c r="E1" s="64" t="s">
-        <v>823</v>
+        <v>866</v>
       </c>
       <c r="F1" s="64" t="s">
-        <v>824</v>
+        <v>867</v>
       </c>
       <c r="G1" s="64" t="s">
-        <v>723</v>
+        <v>765</v>
       </c>
       <c r="H1" s="64" t="s">
-        <v>825</v>
+        <v>868</v>
       </c>
       <c r="I1" s="64" t="s">
-        <v>826</v>
+        <v>869</v>
       </c>
       <c r="J1" s="64" t="s">
-        <v>827</v>
+        <v>870</v>
       </c>
       <c r="K1" s="64" t="s">
         <v>611</v>
       </c>
       <c r="L1" s="64" t="s">
-        <v>768</v>
+        <v>811</v>
       </c>
       <c r="M1" s="64" t="s">
-        <v>828</v>
+        <v>871</v>
       </c>
       <c r="N1" s="64" t="s">
         <v>511</v>
@@ -16242,49 +17212,49 @@
     </row>
     <row r="2" s="34" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>829</v>
+        <v>872</v>
       </c>
       <c r="B2" s="7"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>830</v>
+        <v>873</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>814</v>
+        <v>857</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>286</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>831</v>
+        <v>874</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>832</v>
+        <v>875</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>833</v>
+        <v>876</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>834</v>
+        <v>877</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>835</v>
+        <v>878</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>836</v>
+        <v>879</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>837</v>
+        <v>880</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>838</v>
+        <v>881</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>780</v>
+        <v>823</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>828</v>
+        <v>871</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>511</v>
@@ -16309,54 +17279,55 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A10:A356"/>
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="76.0357142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.6479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="75.1071428571429"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="33.4489795918367"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="34.3877551020408"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="29.8877551020408"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="42.0561224489796"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="34.3877551020408"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="45.0969387755102"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="34.1173469387755"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="122.183673469388"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="84.1020408163265"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.3469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="83.1836734693878"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="37.9489795918367"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.0663265306122"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="46.4081632653061"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="37.9489795918367"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="49.8469387755102"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="37.6887755102041"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="135.142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.52040816326531"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21.65" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>839</v>
+        <v>882</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>762</v>
+        <v>805</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>785</v>
+        <v>828</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>352</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>761</v>
+        <v>804</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>840</v>
+        <v>883</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>788</v>
+        <v>831</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>789</v>
+        <v>832</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>503</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>790</v>
+        <v>833</v>
       </c>
       <c r="K1" s="0" t="s">
         <v>618</v>
@@ -16373,7 +17344,7 @@
     </row>
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>713</v>
+        <v>755</v>
       </c>
       <c r="N2" s="0" t="n">
         <v>0</v>
@@ -16384,40 +17355,40 @@
         <v>18</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>762</v>
+        <v>805</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>737</v>
+        <v>780</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>352</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>761</v>
+        <v>804</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>841</v>
+        <v>884</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>797</v>
+        <v>840</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>789</v>
+        <v>832</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>503</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>790</v>
+        <v>833</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>842</v>
+        <v>885</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>843</v>
+        <v>886</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>844</v>
+        <v>887</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16528,22 +17499,22 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="1" sqref="A10:A356 B3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="116.372448979592"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.6479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.7602040816327"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.5255102040816"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.4285714285714"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="33.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="128.801020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.3469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.8775510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="63.6071428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.6275510204082"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="37.0255102040816"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="26.4" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>845</v>
+        <v>888</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>594</v>
@@ -16563,13 +17534,13 @@
     </row>
     <row r="2" s="34" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>846</v>
+        <v>889</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>847</v>
+        <v>890</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>599</v>
@@ -16606,15 +17577,15 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="1" sqref="A10:A356 C4"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.25"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.5765306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="36.3673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="33.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.8265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.4081632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="40.1989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="37.0255102040816"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16625,12 +17596,12 @@
         <v>164</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>679</v>
+        <v>721</v>
       </c>
     </row>
     <row r="2" s="34" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>848</v>
+        <v>891</v>
       </c>
       <c r="C2" s="7"/>
     </row>
@@ -16678,36 +17649,36 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="1" sqref="A10:A356 B5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.1173469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="69.8163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="33.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.4081632653061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.3571428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="37.0255102040816"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>849</v>
+        <v>892</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>714</v>
+        <v>756</v>
       </c>
     </row>
     <row r="2" s="34" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>850</v>
+        <v>893</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>851</v>
+        <v>894</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>737</v>
+        <v>780</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16750,18 +17721,17 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="1" sqref="A10:A356 F4"/>
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="62.1479591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="168.336734693878"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="33.0663265306122"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="49.0663265306123"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="23.4081632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="11" width="32.7959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="12.6989795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="68.765306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="186.448979591837"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="36.6275510204082"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="54.3469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="25.7857142857143"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="11" width="36.2295918367347"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16852,63 +17822,63 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A10:A356"/>
+      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="93.484693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="63.0765306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.8265306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="42.4489795918367"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="40.8673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="33.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="103.540816326531"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="69.8163265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.5867346938776"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="46.9387755102041"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="45.2244897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="37.0255102040816"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>849</v>
+        <v>892</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>852</v>
+        <v>895</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>563</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>853</v>
+        <v>896</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>854</v>
+        <v>897</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>855</v>
+        <v>898</v>
       </c>
     </row>
     <row r="2" s="34" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>856</v>
+        <v>899</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>857</v>
+        <v>900</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>858</v>
+        <v>901</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>419</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>859</v>
+        <v>902</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>860</v>
+        <v>903</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>861</v>
+        <v>904</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17119,18 +18089,18 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="1" sqref="A10:A356 B11"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="132.362244897959"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.0663265306123"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="100.765306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="84.9030612244898"/>
-    <col collapsed="false" hidden="false" max="1023" min="6" style="0" width="33.4489795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="19.3061224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="146.520408163265"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.3469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="111.474489795918"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="93.8928571428571"/>
+    <col collapsed="false" hidden="false" max="1023" min="6" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="21.2908163265306"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17146,7 +18116,7 @@
     </row>
     <row r="2" s="6" customFormat="true" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
-        <v>862</v>
+        <v>905</v>
       </c>
       <c r="C2" s="165"/>
     </row>
@@ -17163,10 +18133,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>863</v>
+        <v>906</v>
       </c>
       <c r="B4" s="166" t="s">
-        <v>864</v>
+        <v>907</v>
       </c>
       <c r="C4" s="167" t="n">
         <v>0</v>
@@ -17174,10 +18144,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>865</v>
+        <v>908</v>
       </c>
       <c r="B5" s="166" t="s">
-        <v>866</v>
+        <v>909</v>
       </c>
       <c r="C5" s="167" t="n">
         <v>0</v>
@@ -17185,21 +18155,21 @@
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>867</v>
+        <v>910</v>
       </c>
       <c r="B6" s="166" t="s">
-        <v>867</v>
+        <v>910</v>
       </c>
       <c r="C6" s="167" t="s">
-        <v>868</v>
+        <v>911</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>869</v>
+        <v>912</v>
       </c>
       <c r="B7" s="166" t="s">
-        <v>870</v>
+        <v>913</v>
       </c>
       <c r="C7" s="168" t="n">
         <v>1</v>
@@ -17207,10 +18177,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>871</v>
+        <v>914</v>
       </c>
       <c r="B8" s="166" t="s">
-        <v>872</v>
+        <v>915</v>
       </c>
       <c r="C8" s="168" t="n">
         <v>1</v>
@@ -17218,10 +18188,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>873</v>
+        <v>916</v>
       </c>
       <c r="B9" s="166" t="s">
-        <v>874</v>
+        <v>917</v>
       </c>
       <c r="C9" s="167" t="n">
         <v>15</v>
@@ -17232,7 +18202,7 @@
         <v>178</v>
       </c>
       <c r="B10" s="166" t="s">
-        <v>875</v>
+        <v>918</v>
       </c>
       <c r="C10" s="167" t="n">
         <v>14</v>
@@ -17240,10 +18210,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>876</v>
+        <v>919</v>
       </c>
       <c r="B11" s="166" t="s">
-        <v>877</v>
+        <v>920</v>
       </c>
       <c r="C11" s="167" t="n">
         <v>5</v>
@@ -17251,10 +18221,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>878</v>
+        <v>921</v>
       </c>
       <c r="B12" s="166" t="s">
-        <v>879</v>
+        <v>922</v>
       </c>
       <c r="C12" s="167" t="n">
         <v>5</v>
@@ -17262,10 +18232,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>880</v>
+        <v>923</v>
       </c>
       <c r="B13" s="166" t="s">
-        <v>881</v>
+        <v>924</v>
       </c>
       <c r="C13" s="167" t="n">
         <v>4</v>
@@ -17273,19 +18243,19 @@
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>882</v>
+        <v>925</v>
       </c>
       <c r="B14" s="166" t="s">
-        <v>883</v>
+        <v>926</v>
       </c>
       <c r="C14" s="167"/>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>884</v>
+        <v>927</v>
       </c>
       <c r="B15" s="166" t="s">
-        <v>885</v>
+        <v>928</v>
       </c>
       <c r="C15" s="168" t="n">
         <v>0</v>
@@ -17293,10 +18263,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>886</v>
+        <v>929</v>
       </c>
       <c r="B16" s="166" t="s">
-        <v>887</v>
+        <v>930</v>
       </c>
       <c r="C16" s="168" t="n">
         <v>1</v>
@@ -17304,31 +18274,31 @@
     </row>
     <row r="17" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>888</v>
+        <v>931</v>
       </c>
       <c r="B17" s="166" t="s">
-        <v>889</v>
+        <v>932</v>
       </c>
       <c r="C17" s="169"/>
     </row>
     <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>890</v>
+        <v>933</v>
       </c>
       <c r="B18" s="166" t="s">
-        <v>891</v>
+        <v>934</v>
       </c>
       <c r="C18" s="170" t="s">
-        <v>892</v>
+        <v>935</v>
       </c>
       <c r="D18" s="171"/>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>893</v>
+        <v>936</v>
       </c>
       <c r="B19" s="166" t="s">
-        <v>894</v>
+        <v>937</v>
       </c>
       <c r="C19" s="169" t="s">
         <v>654</v>
@@ -17337,10 +18307,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>895</v>
+        <v>938</v>
       </c>
       <c r="B20" s="166" t="s">
-        <v>896</v>
+        <v>939</v>
       </c>
       <c r="C20" s="169" t="s">
         <v>654</v>
@@ -17348,10 +18318,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>897</v>
+        <v>940</v>
       </c>
       <c r="B21" s="166" t="s">
-        <v>898</v>
+        <v>941</v>
       </c>
       <c r="C21" s="170" t="n">
         <v>30</v>
@@ -17359,10 +18329,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>899</v>
+        <v>942</v>
       </c>
       <c r="B22" s="166" t="s">
-        <v>900</v>
+        <v>943</v>
       </c>
       <c r="C22" s="170" t="n">
         <v>0</v>
@@ -17370,10 +18340,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>901</v>
+        <v>944</v>
       </c>
       <c r="B23" s="166" t="s">
-        <v>902</v>
+        <v>945</v>
       </c>
       <c r="C23" s="170" t="n">
         <v>0</v>
@@ -17381,33 +18351,33 @@
     </row>
     <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>903</v>
+        <v>946</v>
       </c>
       <c r="B24" s="166" t="s">
-        <v>904</v>
+        <v>947</v>
       </c>
       <c r="C24" s="169" t="s">
-        <v>905</v>
+        <v>948</v>
       </c>
       <c r="D24" s="172"/>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>906</v>
+        <v>949</v>
       </c>
       <c r="B25" s="166" t="s">
-        <v>907</v>
+        <v>950</v>
       </c>
       <c r="C25" s="169" t="s">
-        <v>908</v>
+        <v>951</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>909</v>
+        <v>952</v>
       </c>
       <c r="B26" s="166" t="s">
-        <v>910</v>
+        <v>953</v>
       </c>
       <c r="C26" s="168" t="n">
         <v>1</v>
@@ -17415,21 +18385,21 @@
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>911</v>
+        <v>954</v>
       </c>
       <c r="B27" s="166" t="s">
-        <v>912</v>
+        <v>955</v>
       </c>
       <c r="C27" s="167" t="s">
-        <v>913</v>
+        <v>956</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>914</v>
+        <v>957</v>
       </c>
       <c r="B28" s="166" t="s">
-        <v>915</v>
+        <v>958</v>
       </c>
       <c r="C28" s="167" t="n">
         <v>2</v>
@@ -17437,10 +18407,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>916</v>
+        <v>959</v>
       </c>
       <c r="B29" s="166" t="s">
-        <v>917</v>
+        <v>960</v>
       </c>
       <c r="C29" s="168" t="n">
         <v>0</v>
@@ -17448,10 +18418,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>918</v>
+        <v>961</v>
       </c>
       <c r="B30" s="166" t="s">
-        <v>919</v>
+        <v>962</v>
       </c>
       <c r="C30" s="167"/>
     </row>
@@ -17518,7 +18488,7 @@
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="The analysis to be used for determining moisture. Please select a valid entry from the drop-down menu" promptTitle="Analysis keyword" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D18" type="list">
-      <formula1>'analysis serviCES'</formula1>
+      <formula1>'analysis services'</formula1>
       <formula2>0</formula2>
     </dataValidation>
     <dataValidation allowBlank="false" error="Please select a valid entry from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Please select a valid option from the list" promptTitle="File attachments Required, Permitted or Not?" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C19:C20" type="list">
@@ -17575,20 +18545,20 @@
   <dimension ref="A1:L200"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A10:A356 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.8673469387755"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.4285714285714"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="40.8673469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.4285714285714"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.7602040816327"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="34.3877551020408"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="26.969387755102"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="40.8673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="33.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.2244897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.0663265306123"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="45.2244897959184"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.3469387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.8775510204082"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="37.9489795918367"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.8877551020408"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="45.2244897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="37.0255102040816"/>
   </cols>
   <sheetData>
     <row r="1" s="75" customFormat="true" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17599,28 +18569,28 @@
         <v>121</v>
       </c>
       <c r="C1" s="76" t="s">
-        <v>920</v>
+        <v>963</v>
       </c>
       <c r="D1" s="76" t="s">
-        <v>921</v>
+        <v>964</v>
       </c>
       <c r="E1" s="76" t="s">
-        <v>922</v>
+        <v>965</v>
       </c>
       <c r="F1" s="75" t="s">
-        <v>923</v>
+        <v>966</v>
       </c>
       <c r="G1" s="174" t="s">
-        <v>924</v>
+        <v>967</v>
       </c>
       <c r="H1" s="76" t="s">
-        <v>925</v>
+        <v>968</v>
       </c>
       <c r="I1" s="76" t="s">
-        <v>926</v>
+        <v>969</v>
       </c>
       <c r="J1" s="76" t="s">
-        <v>927</v>
+        <v>970</v>
       </c>
       <c r="K1" s="76" t="s">
         <v>631</v>
@@ -17629,37 +18599,37 @@
     </row>
     <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="33" t="s">
-        <v>789</v>
+        <v>832</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>147</v>
       </c>
       <c r="C2" s="166" t="s">
-        <v>892</v>
+        <v>935</v>
       </c>
       <c r="D2" s="166" t="s">
-        <v>928</v>
+        <v>971</v>
       </c>
       <c r="E2" s="175" t="s">
-        <v>929</v>
+        <v>972</v>
       </c>
       <c r="F2" s="166" t="s">
-        <v>930</v>
+        <v>973</v>
       </c>
       <c r="G2" s="166" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="166" t="s">
-        <v>931</v>
+        <v>974</v>
       </c>
       <c r="I2" s="166" t="s">
         <v>668</v>
       </c>
       <c r="J2" s="166" t="s">
-        <v>932</v>
+        <v>975</v>
       </c>
       <c r="K2" s="166" t="s">
-        <v>933</v>
+        <v>976</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17667,19 +18637,19 @@
         <v>156</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>934</v>
+        <v>977</v>
       </c>
       <c r="C3" s="166" t="s">
-        <v>935</v>
+        <v>978</v>
       </c>
       <c r="D3" s="166" t="s">
         <v>654</v>
       </c>
       <c r="E3" s="175" t="s">
-        <v>908</v>
+        <v>951</v>
       </c>
       <c r="F3" s="166" t="s">
-        <v>936</v>
+        <v>979</v>
       </c>
       <c r="G3" s="166" t="n">
         <v>1</v>
@@ -17691,7 +18661,7 @@
         <v>24</v>
       </c>
       <c r="J3" s="166" t="s">
-        <v>937</v>
+        <v>708</v>
       </c>
       <c r="K3" s="166" t="s">
         <v>653</v>
@@ -17705,52 +18675,52 @@
         <v>155</v>
       </c>
       <c r="C4" s="166" t="s">
-        <v>938</v>
+        <v>980</v>
       </c>
       <c r="D4" s="166" t="s">
-        <v>939</v>
+        <v>981</v>
       </c>
       <c r="F4" s="166" t="s">
-        <v>905</v>
+        <v>948</v>
       </c>
       <c r="G4" s="175"/>
       <c r="H4" s="166" t="s">
-        <v>940</v>
+        <v>982</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="166" t="s">
-        <v>941</v>
+        <v>983</v>
       </c>
       <c r="B5" s="166" t="s">
-        <v>942</v>
+        <v>984</v>
       </c>
       <c r="G5" s="175"/>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="33" t="s">
-        <v>943</v>
+        <v>985</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>944</v>
+        <v>986</v>
       </c>
       <c r="G6" s="175"/>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="166" t="s">
-        <v>945</v>
+        <v>987</v>
       </c>
       <c r="B7" s="166" t="s">
-        <v>946</v>
+        <v>988</v>
       </c>
       <c r="G7" s="175"/>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="33" t="s">
-        <v>947</v>
+        <v>989</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>948</v>
+        <v>990</v>
       </c>
       <c r="G8" s="175"/>
     </row>
@@ -17803,51 +18773,51 @@
     </row>
     <row r="21" s="179" customFormat="true" ht="69.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="75" t="s">
-        <v>949</v>
+        <v>991</v>
       </c>
       <c r="B21" s="76" t="s">
-        <v>867</v>
+        <v>910</v>
       </c>
       <c r="C21" s="75" t="s">
-        <v>950</v>
+        <v>992</v>
       </c>
       <c r="D21" s="75" t="s">
-        <v>951</v>
+        <v>993</v>
       </c>
       <c r="E21" s="178" t="s">
-        <v>952</v>
+        <v>994</v>
       </c>
       <c r="F21" s="75" t="s">
-        <v>953</v>
+        <v>995</v>
       </c>
       <c r="G21" s="75" t="s">
-        <v>954</v>
+        <v>996</v>
       </c>
       <c r="H21" s="75" t="s">
-        <v>955</v>
+        <v>997</v>
       </c>
       <c r="I21" s="75" t="s">
-        <v>956</v>
+        <v>998</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="180" t="s">
-        <v>957</v>
+        <v>999</v>
       </c>
       <c r="B22" s="166" t="s">
-        <v>958</v>
+        <v>1000</v>
       </c>
       <c r="C22" s="166" t="s">
-        <v>740</v>
+        <v>783</v>
       </c>
       <c r="D22" s="166" t="s">
-        <v>747</v>
+        <v>790</v>
       </c>
       <c r="E22" s="175" t="s">
-        <v>959</v>
+        <v>1001</v>
       </c>
       <c r="F22" s="166" t="s">
-        <v>960</v>
+        <v>1002</v>
       </c>
       <c r="G22" s="166" t="s">
         <v>573</v>
@@ -17861,970 +18831,970 @@
     </row>
     <row r="23" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B23" s="166" t="s">
-        <v>961</v>
+        <v>1003</v>
       </c>
       <c r="C23" s="166" t="s">
-        <v>739</v>
+        <v>782</v>
       </c>
       <c r="D23" s="166" t="s">
-        <v>962</v>
+        <v>1004</v>
       </c>
       <c r="E23" s="175" t="s">
-        <v>963</v>
+        <v>1005</v>
       </c>
       <c r="F23" s="166" t="s">
-        <v>964</v>
+        <v>1006</v>
       </c>
       <c r="G23" s="166" t="s">
-        <v>965</v>
+        <v>1007</v>
       </c>
       <c r="H23" s="166" t="s">
-        <v>965</v>
+        <v>1007</v>
       </c>
       <c r="I23" s="166" t="s">
-        <v>966</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B24" s="166" t="s">
-        <v>967</v>
+        <v>1009</v>
       </c>
       <c r="C24" s="166" t="s">
-        <v>968</v>
+        <v>1010</v>
       </c>
       <c r="D24" s="166" t="s">
-        <v>847</v>
+        <v>890</v>
       </c>
       <c r="F24" s="166" t="s">
-        <v>969</v>
+        <v>1011</v>
       </c>
       <c r="G24" s="166" t="s">
-        <v>970</v>
+        <v>1012</v>
       </c>
       <c r="H24" s="166" t="s">
-        <v>970</v>
+        <v>1012</v>
       </c>
       <c r="I24" s="166" t="s">
-        <v>971</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B25" s="166" t="s">
-        <v>972</v>
+        <v>1014</v>
       </c>
       <c r="C25" s="166" t="s">
-        <v>973</v>
+        <v>1015</v>
       </c>
       <c r="D25" s="166" t="s">
-        <v>974</v>
+        <v>1016</v>
       </c>
       <c r="H25" s="166" t="s">
-        <v>975</v>
+        <v>1017</v>
       </c>
       <c r="I25" s="166" t="s">
-        <v>976</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B26" s="166" t="s">
-        <v>977</v>
+        <v>1019</v>
       </c>
       <c r="C26" s="166" t="s">
-        <v>978</v>
+        <v>1020</v>
       </c>
       <c r="H26" s="166" t="s">
-        <v>979</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B27" s="166" t="s">
-        <v>980</v>
+        <v>1022</v>
       </c>
       <c r="C27" s="166" t="s">
-        <v>981</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B28" s="166" t="s">
-        <v>982</v>
+        <v>1024</v>
       </c>
       <c r="C28" s="166" t="s">
-        <v>983</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B29" s="166" t="s">
-        <v>984</v>
+        <v>1026</v>
       </c>
       <c r="C29" s="166" t="s">
-        <v>985</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B30" s="166" t="s">
-        <v>986</v>
+        <v>1028</v>
       </c>
       <c r="C30" s="166" t="s">
-        <v>987</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B31" s="166" t="s">
-        <v>988</v>
+        <v>1030</v>
       </c>
       <c r="C31" s="166" t="s">
-        <v>989</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="166" t="s">
-        <v>990</v>
+        <v>1032</v>
       </c>
       <c r="C32" s="166" t="s">
-        <v>991</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B33" s="166" t="s">
-        <v>992</v>
+        <v>1034</v>
       </c>
       <c r="C33" s="166" t="s">
-        <v>993</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B34" s="166" t="s">
-        <v>994</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="166" t="s">
-        <v>995</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B36" s="166" t="s">
-        <v>996</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B37" s="166" t="s">
-        <v>997</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B38" s="166" t="s">
-        <v>998</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B39" s="166" t="s">
-        <v>999</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B40" s="166" t="s">
-        <v>1000</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B41" s="166" t="s">
-        <v>1001</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B42" s="166" t="s">
-        <v>1002</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="166" t="s">
-        <v>1003</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B44" s="166" t="s">
-        <v>1004</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B45" s="166" t="s">
-        <v>1005</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B46" s="166" t="s">
-        <v>1006</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B47" s="166" t="s">
-        <v>1007</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B48" s="166" t="s">
-        <v>1008</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B49" s="166" t="s">
-        <v>1009</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B50" s="166" t="s">
-        <v>1010</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B51" s="166" t="s">
-        <v>1011</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B52" s="166" t="s">
-        <v>1012</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B53" s="166" t="s">
-        <v>1013</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B54" s="166" t="s">
-        <v>1014</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B55" s="166" t="s">
-        <v>1015</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B56" s="166" t="s">
-        <v>1016</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B57" s="166" t="s">
-        <v>1017</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B58" s="166" t="s">
-        <v>1018</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B59" s="166" t="s">
-        <v>1019</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B60" s="166" t="s">
-        <v>1020</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B61" s="166" t="s">
-        <v>1021</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B62" s="166" t="s">
-        <v>1022</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B63" s="166" t="s">
-        <v>1023</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B64" s="166" t="s">
-        <v>1024</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B65" s="166" t="s">
-        <v>1025</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B66" s="166" t="s">
-        <v>1026</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B67" s="166" t="s">
-        <v>1027</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B68" s="166" t="s">
-        <v>1028</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B69" s="166" t="s">
-        <v>1029</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B70" s="166" t="s">
-        <v>868</v>
+        <v>911</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B71" s="166" t="s">
-        <v>1030</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B72" s="166" t="s">
-        <v>1031</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B73" s="166" t="s">
-        <v>1032</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B74" s="166" t="s">
-        <v>1033</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B75" s="166" t="s">
-        <v>1034</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B76" s="166" t="s">
-        <v>1035</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B77" s="166" t="s">
-        <v>1036</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B78" s="166" t="s">
-        <v>1037</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B79" s="166" t="s">
-        <v>1038</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B80" s="166" t="s">
-        <v>1039</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B81" s="166" t="s">
-        <v>1040</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B82" s="166" t="s">
-        <v>1041</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B83" s="166" t="s">
-        <v>1042</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B84" s="166" t="s">
-        <v>1043</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B85" s="166" t="s">
-        <v>1044</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B86" s="166" t="s">
-        <v>1045</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B87" s="166" t="s">
-        <v>1046</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B88" s="166" t="s">
-        <v>1047</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B89" s="166" t="s">
-        <v>1048</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B90" s="166" t="s">
-        <v>1049</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B91" s="166" t="s">
-        <v>1050</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B92" s="166" t="s">
-        <v>1051</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B93" s="166" t="s">
-        <v>1052</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B94" s="166" t="s">
-        <v>1053</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B95" s="166" t="s">
-        <v>1054</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B96" s="166" t="s">
-        <v>1055</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B97" s="166" t="s">
-        <v>1056</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B98" s="166" t="s">
-        <v>1057</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B99" s="166" t="s">
-        <v>1058</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B100" s="166" t="s">
-        <v>1059</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B101" s="166" t="s">
-        <v>1060</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B102" s="166" t="s">
-        <v>1061</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B103" s="166" t="s">
-        <v>1062</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B104" s="166" t="s">
-        <v>1063</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B105" s="166" t="s">
-        <v>1064</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B106" s="166" t="s">
-        <v>1065</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B107" s="166" t="s">
-        <v>1066</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B108" s="166" t="s">
-        <v>1067</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B109" s="166" t="s">
-        <v>1068</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B110" s="166" t="s">
-        <v>1069</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B111" s="166" t="s">
-        <v>1070</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B112" s="166" t="s">
-        <v>1071</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B113" s="166" t="s">
-        <v>1072</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B114" s="166" t="s">
-        <v>1073</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B115" s="166" t="s">
-        <v>1074</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B116" s="166" t="s">
-        <v>1075</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B117" s="166" t="s">
-        <v>1076</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B118" s="166" t="s">
-        <v>1077</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B119" s="166" t="s">
-        <v>1078</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B120" s="166" t="s">
-        <v>1079</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B121" s="166" t="s">
-        <v>1080</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B122" s="166" t="s">
-        <v>1081</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B123" s="166" t="s">
-        <v>1082</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B124" s="166" t="s">
-        <v>1083</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B125" s="166" t="s">
-        <v>1084</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B126" s="166" t="s">
-        <v>1085</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B127" s="166" t="s">
-        <v>1086</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B128" s="166" t="s">
-        <v>1087</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B129" s="166" t="s">
-        <v>1088</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B130" s="166" t="s">
-        <v>1089</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B131" s="166" t="s">
-        <v>1090</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B132" s="166" t="s">
-        <v>1091</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B133" s="166" t="s">
-        <v>1092</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B134" s="166" t="s">
-        <v>1093</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B135" s="166" t="s">
-        <v>1094</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B136" s="166" t="s">
-        <v>1095</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B137" s="166" t="s">
-        <v>1096</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B138" s="166" t="s">
-        <v>1097</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B139" s="166" t="s">
-        <v>1098</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B140" s="166" t="s">
-        <v>1099</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B141" s="166" t="s">
-        <v>1100</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B142" s="166" t="s">
-        <v>1101</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B143" s="166" t="s">
-        <v>1102</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B144" s="166" t="s">
-        <v>1103</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B145" s="166" t="s">
-        <v>1104</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B146" s="166" t="s">
-        <v>1105</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B147" s="166" t="s">
-        <v>1106</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B148" s="166" t="s">
-        <v>1107</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B149" s="166" t="s">
-        <v>1108</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B150" s="166" t="s">
-        <v>1109</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B151" s="166" t="s">
-        <v>1110</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B152" s="166" t="s">
-        <v>1111</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B153" s="166" t="s">
-        <v>1112</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B154" s="166" t="s">
-        <v>1113</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B155" s="166" t="s">
-        <v>1114</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B156" s="166" t="s">
-        <v>1115</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B157" s="166" t="s">
-        <v>1116</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B158" s="166" t="s">
-        <v>1117</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B159" s="166" t="s">
-        <v>1118</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B160" s="166" t="s">
-        <v>1119</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B161" s="166" t="s">
-        <v>1120</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B162" s="166" t="s">
-        <v>1121</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B163" s="166" t="s">
-        <v>1122</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B164" s="166" t="s">
-        <v>1123</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B165" s="166" t="s">
-        <v>1124</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B166" s="166" t="s">
-        <v>1125</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B167" s="166" t="s">
-        <v>1126</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B168" s="166" t="s">
-        <v>1127</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B169" s="166" t="s">
-        <v>1128</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B170" s="166" t="s">
-        <v>1129</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B171" s="166" t="s">
-        <v>1130</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B172" s="166" t="s">
-        <v>1131</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B173" s="166" t="s">
-        <v>1132</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B174" s="166" t="s">
-        <v>1133</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B175" s="166" t="s">
-        <v>1134</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B176" s="166" t="s">
-        <v>1135</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B177" s="166" t="s">
-        <v>1136</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B178" s="166" t="s">
-        <v>1137</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B179" s="166" t="s">
-        <v>1138</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B180" s="166" t="s">
-        <v>1139</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B181" s="166" t="s">
-        <v>1140</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B182" s="166" t="s">
-        <v>1141</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B183" s="166" t="s">
-        <v>1142</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B184" s="166" t="s">
-        <v>1143</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B185" s="166" t="s">
-        <v>1144</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B186" s="166" t="s">
-        <v>1145</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B187" s="166" t="s">
-        <v>1146</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B188" s="166" t="s">
-        <v>1147</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B189" s="166" t="s">
-        <v>1148</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B190" s="166" t="s">
-        <v>1149</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B191" s="166" t="s">
-        <v>1150</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B192" s="166" t="s">
-        <v>1151</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B193" s="166" t="s">
-        <v>1152</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B194" s="166" t="s">
-        <v>1153</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B195" s="166" t="s">
-        <v>1154</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B196" s="166" t="s">
-        <v>1155</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B197" s="166" t="s">
-        <v>1156</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B198" s="166" t="s">
-        <v>1157</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B199" s="166" t="s">
-        <v>1158</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B200" s="166" t="s">
-        <v>1159</v>
+        <v>1201</v>
       </c>
     </row>
   </sheetData>
@@ -18846,19 +19816,19 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C20" activeCellId="1" sqref="A10:A356 C20"/>
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.6989795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="75.2448979591837"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.3469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="46.1479591836735"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="62.1479591836735"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="90.1836734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="11" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.9489795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="67.1785714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="83.3061224489796"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="60.1683673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.0459183673469"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="68.765306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="99.7040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="11" width="40.8673469387755"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.4" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19023,35 +19993,35 @@
   <dimension ref="1:8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H19" activeCellId="1" sqref="A10:A356 H19"/>
+      <selection pane="topLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="67.1785714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.1173469387755"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="77.3571428571429"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="75.2448979591837"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="73.6581632653061"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="50.2551020408163"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="83.1836734693878"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="46.5459183673469"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="36.6275510204082"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="40.4591836734694"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="34.3877551020408"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="46.5459183673469"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="41.7857142857143"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="33.4489795918367"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="34.3877551020408"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="22.8775510204082"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="41.7857142857143"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="42.4489795918367"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="34.3877551020408"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="34.6479591836735"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="30.280612244898"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="42.4489795918367"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="45.3571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="30.280612244898"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="74.3163265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.6887755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="85.6938775510204"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="83.3061224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="81.4642857142857"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="55.5459183673469"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="92.0357142857143"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="51.4387755102041"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="40.4591836734694"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="44.8265306122449"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="37.9489795918367"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="51.4387755102041"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="46.1479591836735"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="37.9489795918367"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="25.25"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="46.1479591836735"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="46.9387755102041"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="37.9489795918367"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="38.3469387755102"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="33.4489795918367"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="46.9387755102041"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="50.2551020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="33.4489795918367"/>
   </cols>
   <sheetData>
     <row r="1" s="38" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19417,30 +20387,30 @@
   <dimension ref="1:10"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C22" activeCellId="1" sqref="A10:A356 C22"/>
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.3571428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="36.8877551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="45.0969387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="38.3469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="46.4081632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="40.9948979591837"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="63.6071428571429"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.1173469387755"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="66.7857142857143"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="54.3469387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="45.7551020408163"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="51.969387755102"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="93.0969387755102"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="86.2244897959184"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="93.0969387755102"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="76.8265306122449"/>
-    <col collapsed="false" hidden="false" max="26" min="17" style="0" width="30.280612244898"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="36.6275510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="33.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.2551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.7295918367347"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.8469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.4489795918367"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.3061224489796"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="45.3571428571429"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="70.3469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="55.4081632653061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="73.9234693877551"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="60.1683673469388"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="50.6479591836735"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="57.5255102040816"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="103.142857142857"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="95.4744897959184"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="103.142857142857"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="85.0255102040816"/>
+    <col collapsed="false" hidden="false" max="26" min="17" style="0" width="33.4489795918367"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="40.4591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="37.0255102040816"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">

--- a/Lims-CRMC V1.xlsx
+++ b/Lims-CRMC V1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="24"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="45"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" state="visible" r:id="rId2"/>
@@ -72,7 +72,10 @@
     <sheet name="Constants" sheetId="62" state="visible" r:id="rId63"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="true" localSheetId="34" name="_xlnm._FilterDatabase" vbProcedure="false">'Analysis Services'!$A$3:$AD$24</definedName>
     <definedName function="false" hidden="true" localSheetId="36" name="_xlnm._FilterDatabase" vbProcedure="false">'AnalysisService Instruments'!$A$3:$B$14</definedName>
+    <definedName function="false" hidden="true" localSheetId="44" name="_xlnm._FilterDatabase" vbProcedure="false">'AR Template Analyses'!$A$3:$C$76</definedName>
+    <definedName function="false" hidden="false" localSheetId="36" name="_xlnm._FilterDatabase" vbProcedure="false">'AnalysisService Instruments'!$A$3:$B$14</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -196,7 +199,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="1202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2296" uniqueCount="1205">
   <si>
     <t>Instructions</t>
   </si>
@@ -2148,6 +2151,69 @@
     <t>Default Preservation</t>
   </si>
   <si>
+    <t>Aluminium</t>
+  </si>
+  <si>
+    <t>Al</t>
+  </si>
+  <si>
+    <t>Analyse de l'Aluminium</t>
+  </si>
+  <si>
+    <t>lab</t>
+  </si>
+  <si>
+    <t>Permitted</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>Arsenic</t>
+  </si>
+  <si>
+    <t>As</t>
+  </si>
+  <si>
+    <t>Analyse de l'Arsenic</t>
+  </si>
+  <si>
+    <t>Carbone</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Analyse du Carbone</t>
+  </si>
+  <si>
+    <t>Cobalt</t>
+  </si>
+  <si>
+    <t>Co</t>
+  </si>
+  <si>
+    <t>Analyse du Cobalt</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>Cr</t>
+  </si>
+  <si>
+    <t>Analyse du Chrome</t>
+  </si>
+  <si>
+    <t>Cuivre</t>
+  </si>
+  <si>
+    <t>Cu</t>
+  </si>
+  <si>
+    <t>Analyse du Cuivre</t>
+  </si>
+  <si>
     <t>Fer</t>
   </si>
   <si>
@@ -2157,22 +2223,40 @@
     <t>Analyse du Fer</t>
   </si>
   <si>
-    <t>lab</t>
-  </si>
-  <si>
-    <t>Permitted</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>Chrome</t>
-  </si>
-  <si>
-    <t>Cr</t>
-  </si>
-  <si>
-    <t>Analyse du Chrome</t>
+    <t>Manganèse</t>
+  </si>
+  <si>
+    <t>Mn</t>
+  </si>
+  <si>
+    <t>Analyse du Manganèse</t>
+  </si>
+  <si>
+    <t>Molybdène</t>
+  </si>
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
+    <t>Analyse du Molybdène</t>
+  </si>
+  <si>
+    <t>Azote</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Analyse de l'azote</t>
+  </si>
+  <si>
+    <t>Niobium</t>
+  </si>
+  <si>
+    <t>Nb</t>
+  </si>
+  <si>
+    <t>Analyse du Niobium</t>
   </si>
   <si>
     <t>Nickel</t>
@@ -2184,13 +2268,25 @@
     <t>Analyse du Nickel</t>
   </si>
   <si>
-    <t>Carbone</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Analyse du Carbone</t>
+    <t>Phosphore</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Analyse du Phosphore</t>
+  </si>
+  <si>
+    <t>Plomb</t>
+  </si>
+  <si>
+    <t>Pb</t>
+  </si>
+  <si>
+    <t>Analyse du Plomb</t>
+  </si>
+  <si>
+    <t>ppm</t>
   </si>
   <si>
     <t>Soufre </t>
@@ -2199,88 +2295,13 @@
     <t>Analyse du Soufre</t>
   </si>
   <si>
-    <t>Azote</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Analyse de l'azote</t>
-  </si>
-  <si>
-    <t>Plomb</t>
-  </si>
-  <si>
-    <t>Pb</t>
-  </si>
-  <si>
-    <t>Analyse du Plomb</t>
-  </si>
-  <si>
-    <t>ppm</t>
-  </si>
-  <si>
-    <t>Aluminium</t>
-  </si>
-  <si>
-    <t>Al</t>
-  </si>
-  <si>
-    <t>Analyse de l'Aluminium</t>
-  </si>
-  <si>
-    <t>Cobalt</t>
-  </si>
-  <si>
-    <t>Co</t>
-  </si>
-  <si>
-    <t>Analyse du Cobalt</t>
-  </si>
-  <si>
-    <t>Cuivre</t>
-  </si>
-  <si>
-    <t>Cu</t>
-  </si>
-  <si>
-    <t>Analyse du Cuivre</t>
-  </si>
-  <si>
-    <t>Manganèse</t>
-  </si>
-  <si>
-    <t>Mn</t>
-  </si>
-  <si>
-    <t>Analyse du Manganèse</t>
-  </si>
-  <si>
-    <t>Molybdène</t>
-  </si>
-  <si>
-    <t>Mo</t>
-  </si>
-  <si>
-    <t>Analyse du Molybdène</t>
-  </si>
-  <si>
-    <t>Niobium</t>
-  </si>
-  <si>
-    <t>Nb</t>
-  </si>
-  <si>
-    <t>Analyse du Niobium</t>
-  </si>
-  <si>
-    <t>Phosphore</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Analyse du Phosphore</t>
+    <t>Antimoine</t>
+  </si>
+  <si>
+    <t>Sb</t>
+  </si>
+  <si>
+    <t>Analayse de l'antimoine</t>
   </si>
   <si>
     <t>Silicium</t>
@@ -2328,24 +2349,6 @@
     <t>Analyse du Tungstène</t>
   </si>
   <si>
-    <t>Arsenic</t>
-  </si>
-  <si>
-    <t>As</t>
-  </si>
-  <si>
-    <t>Analyse de l'Arsenic</t>
-  </si>
-  <si>
-    <t>Antimoine</t>
-  </si>
-  <si>
-    <t>Sb</t>
-  </si>
-  <si>
-    <t>Analayse de l'antimoine</t>
-  </si>
-  <si>
     <t>Service_title</t>
   </si>
   <si>
@@ -2508,7 +2511,7 @@
     <t>Report as dry matter?</t>
   </si>
   <si>
-    <t>Analyse acier allié Massif + C/S</t>
+    <t>Analyse acier allié massif + C/S</t>
   </si>
   <si>
     <t>Routine de base avec analyse des éléments courant par spectro 4460 sur massif + C/S sur copeaux</t>
@@ -2520,7 +2523,16 @@
     <t>Routine de base avec analyse des éléments courant par ICP-SEO + C/S sur copeaux</t>
   </si>
   <si>
-    <t>Analyse acier inox Massif + C/S</t>
+    <t>Analyse acier inox massif + C/S</t>
+  </si>
+  <si>
+    <t>Routine de base avec analyse des éléments courant par Fx + 4460 massif + C/S sur copeaux </t>
+  </si>
+  <si>
+    <t>Analyse acier inox copeaux + C/S</t>
+  </si>
+  <si>
+    <t>Routine de base avec analyse des éléments courant par ICP-SEO + C/S sur copeaux </t>
   </si>
   <si>
     <t>ARTemplate</t>
@@ -4116,7 +4128,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="182">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4765,6 +4777,10 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4917,6 +4933,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -4930,8 +4954,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.1173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="27.9081632653061"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1023" min="2" style="0" width="9.52040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="30.8163265306122"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="32.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5000,9 +5025,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="103.540816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="117.423469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="114.515306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="129.989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="40.8673469387755"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="19.8" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5059,9 +5084,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="137.260204081633"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="155.112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="151.938775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="171.770408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="40.8673469387755"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5137,12 +5162,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="156.438775510204"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="115.311224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="94.9438775510204"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="101.163265306122"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="101.821428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="173.229591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="127.602040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="105.132653061224"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="112.005102040816"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="112.801020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="40.8673469387755"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="19.8" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5479,18 +5504,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="105.132653061224"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.1479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.6479591836735"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="151.020408163265"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="61.3571428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="74.7142857142857"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="104.071428571429"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="50.1173469387755"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="56.4642857142857"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="56.0663265306122"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="135.142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="40.8673469387755"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="116.372448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.0459183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.3469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="167.147959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="67.9744897959184"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="82.7755102040816"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="115.311224489796"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="55.4081632653061"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="62.5459183673469"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="62.1479591836735"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="149.561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="45.2244897959184"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5693,10 +5718,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="86.2244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="45.3571428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="54.3469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="54.8775510204082"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="95.4744897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="11" width="50.2551020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="60.1683673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="60.6989795918367"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="9.52040816326531"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5766,11 +5792,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="152.209183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="101.821428571429"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="81.4642857142857"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="90.1836734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="168.602040816327"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="112.801020408163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="90.1836734693878"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="99.7040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="40.8673469387755"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5932,9 +5958,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.015306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="90.1836734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.4642857142857"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="99.7040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="40.8673469387755"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6018,15 +6044,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.1428571428571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.5969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="16.6734693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.2244897959184"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="16.8010204081633"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.4234693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="23.0408163265306"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="21.0051020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="24.7295918367347"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.8775510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.7755102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.3877551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="28.9591836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.5102040816327"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.1173469387755"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.3877551020408"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="23.1479591836735"/>
+    <col collapsed="false" hidden="false" max="1023" min="9" style="0" width="9.52040816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="27.3775510204082"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="true" ht="13.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6353,15 +6380,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="56.734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="73.9234693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="113.454081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="75.1071428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="78.6836734693878"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="76.0357142857143"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="61.3571428571429"/>
-    <col collapsed="false" hidden="false" max="1018" min="9" style="0" width="37.0255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="24.7295918367347"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="62.8061224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="81.7244897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="125.622448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="83.1836734693878"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="87.0051020408163"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="84.1020408163265"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="67.9744897959184"/>
+    <col collapsed="false" hidden="false" max="1018" min="9" style="0" width="40.8673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="27.3775510204082"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6574,11 +6601,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.3775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7091836734694"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.6581632653061"/>
-    <col collapsed="false" hidden="false" max="1018" min="4" style="0" width="37.0255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="21.2908163265306"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.9489795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.7602040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="81.4642857142857"/>
+    <col collapsed="false" hidden="false" max="1018" min="4" style="0" width="40.8673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="1019" style="0" width="23.4081632653061"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6672,11 +6699,10 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="69.8163265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="34.3877551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.7295918367347"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="38.3469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="12.6989795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.3571428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.9489795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="27.3775510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.4489795918367"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6908,12 +6934,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="69.4234693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="258.132653061224"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="113.454081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="83" width="73.6581632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="116.892857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="76.8265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="285.892857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="125.622448979592"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="83" width="81.4642857142857"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="129.331632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="40.8673469387755"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7055,9 +7081,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="113.454081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="76.0357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="125.622448979592"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="84.1020408163265"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="40.8673469387755"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7148,11 +7174,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.2295918367347"/>
-    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="42.0561224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="69.1581632653061"/>
-    <col collapsed="false" hidden="false" max="21" min="6" style="0" width="42.0561224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="9.52040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.3469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="0" width="46.4081632653061"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="76.4336734693878"/>
+    <col collapsed="false" hidden="false" max="21" min="6" style="0" width="46.4081632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="10.4489795918367"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7381,13 +7407,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.9183673469388"/>
-    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="34.1173469387755"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="51.4387755102041"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="44.8265306122449"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="41.3877551020408"/>
-    <col collapsed="false" hidden="false" max="21" min="10" style="0" width="34.1173469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.2857142857143"/>
+    <col collapsed="false" hidden="false" max="6" min="2" style="0" width="37.6887755102041"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="56.9948979591837"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="49.5867346938776"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="45.7551020408163"/>
+    <col collapsed="false" hidden="false" max="21" min="10" style="0" width="37.6887755102041"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="40.8673469387755"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7645,9 +7671,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="99.7040816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="130.260204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="33.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="110.413265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="144.132653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="37.0255102040816"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.4" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -7742,7 +7768,7 @@
   </sheetPr>
   <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="0" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -7750,28 +7776,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.9489795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.1785714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="122.183673469388"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="76.8265306122449"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="28.8265306122449"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="24.0663265306122"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="50.1173469387755"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="51.0459183673469"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="40.0663265306122"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="96.265306122449"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="90.4540816326531"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="67.1785714285714"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="86.8826530612245"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="37.0255102040816"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="94.015306122449"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="101.423469387755"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="71.1428571428571"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="94.9438775510204"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="101.423469387755"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="83.1836734693878"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="100.765306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.0561224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="21.1581632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="135.142857142857"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="85.0255102040816"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.8673469387755"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.7091836734694"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="55.4081632653061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="56.4642857142857"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="44.4285714285714"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="106.581632653061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="100.234693877551"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="74.3163265306122"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="96.1428571428571"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="40.8673469387755"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="104.071428571429"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="112.270408163265"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="78.6836734693878"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="105.132653061224"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="112.270408163265"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="92.0357142857143"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="111.474489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="40.8673469387755"/>
   </cols>
   <sheetData>
     <row r="1" s="90" customFormat="true" ht="26.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8600,19 +8626,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="98.2448979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="112.270408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="76.0357142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="74.3163265306122"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="61.2244897959184"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="77.3571428571429"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="187.510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="153"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="148.632653061224"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="91.3826530612245"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="114.122448979592"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="177.331632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="33.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="108.69387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="124.301020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="84.1020408163265"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="82.2448979591837"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="67.8367346938776"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="85.6938775510204"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="207.607142857143"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="169.397959183673"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="164.5"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="101.163265306122"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="126.290816326531"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="196.377551020408"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="37.0255102040816"/>
   </cols>
   <sheetData>
     <row r="1" s="90" customFormat="true" ht="20.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -8799,18 +8825,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.8775510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.0969387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.8469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.6785714285714"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="61.2244897959184"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="116.892857142857"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="125.622448979592"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="132.362244897959"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="122.183673469388"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="106.321428571429"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="163.448979591837"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="33.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.9744897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.8469387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.75"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="33.8571428571429"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="67.8367346938776"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="129.331632653061"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="139.112244897959"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="146.520408163265"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="135.142857142857"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="117.683673469388"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="181.030612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="37.0255102040816"/>
   </cols>
   <sheetData>
     <row r="1" s="90" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9004,19 +9030,19 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="84.4948979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="60.1683673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="85.0255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="112.923469387755"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="77.3571428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="62.5459183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="93.484693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="66.515306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="94.015306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="124.964285714286"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="85.6938775510204"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="69.1581632653061"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="12.6989795918367"/>
   </cols>
   <sheetData>
     <row r="1" s="90" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9121,17 +9147,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.7295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.9489795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.3061224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55.4081632653061"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.0459183673469"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="69.4234693877551"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="76.7040816326531"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="103.142857142857"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="136.602040816327"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="74.3163265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="33.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.0969387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.0561224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="74.4540816326531"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="61.2244897959184"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="56.4642857142857"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="76.8265306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="84.9030612244898"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="114.122448979592"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="151.280612244898"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="82.2448979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="37.0255102040816"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -9633,8 +9659,9 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="151.280612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="145.729591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="167.418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="161.321428571429"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="9.52040816326531"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10026,17 +10053,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="63.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="110.94387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="83.1836734693878"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="45.2244897959184"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="50.2551020408163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="33.4489795918367"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="90.9744897959184"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="63.6071428571429"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="69.1581632653061"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.4081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="33.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="69.8163265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="122.852040816327"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="92.0357142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="50.1173469387755"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="55.5459183673469"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="100.765306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="70.3469387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="76.4336734693878"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.7857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="37.0255102040816"/>
   </cols>
   <sheetData>
     <row r="1" s="90" customFormat="true" ht="14.9" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10211,16 +10238,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="78.6836734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="100.234693877551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="90.9744897959184"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="45.2244897959184"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="50.2551020408163"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="67.4438775510204"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="63.6071428571429"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="51.0459183673469"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="126.821428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="33.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="87.0051020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="110.94387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="100.765306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="50.1173469387755"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="55.5459183673469"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="74.7142857142857"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="70.3469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="56.4642857142857"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="140.433673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="37.0255102040816"/>
   </cols>
   <sheetData>
     <row r="1" s="90" customFormat="true" ht="14.9" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10313,10 +10340,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="133.301020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="149.561224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="94.9438775510204"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="147.571428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="165.561224489796"/>
+    <col collapsed="false" hidden="false" max="5" min="3" style="0" width="105.132653061224"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="40.8673469387755"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10416,10 +10443,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="77.3571428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="215.147959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="217.397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="12.6989795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="85.6938775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="238.163265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="240.673469387755"/>
   </cols>
   <sheetData>
     <row r="1" s="140" customFormat="true" ht="14.15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10488,10 +10514,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="113.454081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="31.3469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.6275510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="125.622448979592"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="34.6479591836735"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="40.8673469387755"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10605,42 +10631,42 @@
   <dimension ref="A1:AE65536"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="0" topLeftCell="W1" activePane="topRight" state="frozen"/>
+      <pane xSplit="2" ySplit="0" topLeftCell="AA1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="X33" activeCellId="0" sqref="X33"/>
+      <selection pane="topRight" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.9489795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.1479591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.8877551020408"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="16.6683673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="26.969387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="43.0357142857143"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="17.6938775510204"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="36.7908163265306"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.8775510204082"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="25.7857142857143"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="33.4489795918367"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="83" width="40.8673469387755"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="83" width="29.8877551020408"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="83" width="46.1479591836735"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="83" width="55.015306122449"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="18.7704081632653"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="21.2908163265306"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="46.5459183673469"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="15.8673469387755"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="27.3775510204082"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="13.6275510204082"/>
-    <col collapsed="false" hidden="false" max="23" min="22" style="0" width="60.9642857142857"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="42.4489795918367"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="60.6989795918367"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="67.8367346938776"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="40.8673469387755"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="37.0255102040816"/>
-    <col collapsed="false" hidden="false" max="30" min="29" style="0" width="46.9387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="31" style="0" width="33.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3367346938775"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.7295918367347"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="18.3877551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.8877551020408"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="47.6071428571429"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="40.5969387755102"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="25.25"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="28.4285714285714"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="83" width="45.2244897959184"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="83" width="33.0663265306122"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="83" width="51.0459183673469"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="83" width="60.8265306122449"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="20.7602040816327"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="23.4081632653061"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="51.4387755102041"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="17.4489795918367"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="30.280612244898"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="15.0765306122449"/>
+    <col collapsed="false" hidden="false" max="23" min="22" style="0" width="67.4438775510204"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="46.9387755102041"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="67.1785714285714"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="75.1071428571429"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="45.2244897959184"/>
+    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="40.8673469387755"/>
+    <col collapsed="false" hidden="false" max="30" min="29" style="0" width="51.969387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="31" style="0" width="37.0255102040816"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="true" ht="24.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -10856,7 +10882,7 @@
       <c r="B4" s="55" t="s">
         <v>651</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="0" t="s">
         <v>652</v>
       </c>
       <c r="D4" s="151" t="s">
@@ -11001,7 +11027,7 @@
         <v>1</v>
       </c>
       <c r="W5" s="151" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="X5" s="155"/>
       <c r="Y5" s="155"/>
@@ -11024,7 +11050,7 @@
       <c r="B6" s="55" t="s">
         <v>660</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="0" t="s">
         <v>661</v>
       </c>
       <c r="D6" s="151" t="s">
@@ -11034,10 +11060,10 @@
         <v>653</v>
       </c>
       <c r="F6" s="151" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G6" s="151" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="H6" s="138" t="n">
         <v>0</v>
@@ -11085,9 +11111,11 @@
         <v>1</v>
       </c>
       <c r="W6" s="151" t="s">
-        <v>360</v>
-      </c>
-      <c r="X6" s="155"/>
+        <v>362</v>
+      </c>
+      <c r="X6" s="155" t="s">
+        <v>481</v>
+      </c>
       <c r="Y6" s="155"/>
       <c r="Z6" s="153" t="n">
         <v>5</v>
@@ -11108,7 +11136,7 @@
       <c r="B7" s="55" t="s">
         <v>663</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="55" t="s">
         <v>664</v>
       </c>
       <c r="D7" s="151" t="s">
@@ -11118,10 +11146,10 @@
         <v>653</v>
       </c>
       <c r="F7" s="151" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G7" s="151" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="H7" s="138" t="n">
         <v>0</v>
@@ -11169,11 +11197,9 @@
         <v>1</v>
       </c>
       <c r="W7" s="151" t="s">
-        <v>362</v>
-      </c>
-      <c r="X7" s="155" t="s">
-        <v>481</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="X7" s="155"/>
       <c r="Y7" s="155"/>
       <c r="Z7" s="153" t="n">
         <v>5</v>
@@ -11192,22 +11218,22 @@
         <v>665</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="0" t="s">
         <v>666</v>
       </c>
+      <c r="C8" s="55" t="s">
+        <v>667</v>
+      </c>
       <c r="D8" s="151" t="s">
-        <v>24</v>
+        <v>666</v>
       </c>
       <c r="E8" s="151" t="s">
         <v>653</v>
       </c>
       <c r="F8" s="151" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G8" s="151" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="H8" s="138" t="n">
         <v>0</v>
@@ -11254,10 +11280,10 @@
       <c r="V8" s="55" t="n">
         <v>1</v>
       </c>
-      <c r="W8" s="151"/>
-      <c r="X8" s="155" t="s">
-        <v>481</v>
-      </c>
+      <c r="W8" s="151" t="s">
+        <v>360</v>
+      </c>
+      <c r="X8" s="155"/>
       <c r="Y8" s="155"/>
       <c r="Z8" s="153" t="n">
         <v>5</v>
@@ -11273,25 +11299,25 @@
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="55" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B9" s="55" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C9" s="0" t="s">
+        <v>670</v>
+      </c>
+      <c r="D9" s="151" t="s">
         <v>669</v>
-      </c>
-      <c r="D9" s="151" t="s">
-        <v>668</v>
       </c>
       <c r="E9" s="151" t="s">
         <v>653</v>
       </c>
       <c r="F9" s="151" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G9" s="151" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="H9" s="138" t="n">
         <v>0</v>
@@ -11339,11 +11365,9 @@
         <v>1</v>
       </c>
       <c r="W9" s="151" t="s">
-        <v>364</v>
-      </c>
-      <c r="X9" s="155" t="s">
-        <v>478</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="X9" s="155"/>
       <c r="Y9" s="155"/>
       <c r="Z9" s="153" t="n">
         <v>5</v>
@@ -11359,22 +11383,22 @@
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="55" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>671</v>
-      </c>
-      <c r="C10" s="0" t="s">
         <v>672</v>
       </c>
+      <c r="C10" s="55" t="s">
+        <v>673</v>
+      </c>
       <c r="D10" s="151" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E10" s="151" t="s">
         <v>653</v>
       </c>
       <c r="F10" s="151" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="G10" s="151" t="s">
         <v>145</v>
@@ -11386,10 +11410,10 @@
         <v>654</v>
       </c>
       <c r="J10" s="152" t="s">
-        <v>673</v>
+        <v>655</v>
       </c>
       <c r="K10" s="55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L10" s="153" t="n">
         <v>7</v>
@@ -11425,11 +11449,9 @@
         <v>1</v>
       </c>
       <c r="W10" s="151" t="s">
-        <v>366</v>
-      </c>
-      <c r="X10" s="155" t="s">
-        <v>484</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="X10" s="155"/>
       <c r="Y10" s="155"/>
       <c r="Z10" s="153" t="n">
         <v>5</v>
@@ -11534,7 +11556,7 @@
       <c r="B12" s="55" t="s">
         <v>678</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="0" t="s">
         <v>679</v>
       </c>
       <c r="D12" s="151" t="s">
@@ -11628,10 +11650,10 @@
         <v>653</v>
       </c>
       <c r="F13" s="151" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G13" s="151" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="H13" s="138" t="n">
         <v>0</v>
@@ -11679,9 +11701,11 @@
         <v>1</v>
       </c>
       <c r="W13" s="151" t="s">
-        <v>360</v>
-      </c>
-      <c r="X13" s="155"/>
+        <v>364</v>
+      </c>
+      <c r="X13" s="155" t="s">
+        <v>478</v>
+      </c>
       <c r="Y13" s="155"/>
       <c r="Z13" s="153" t="n">
         <v>5</v>
@@ -11786,7 +11810,7 @@
       <c r="B15" s="55" t="s">
         <v>687</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="55" t="s">
         <v>688</v>
       </c>
       <c r="D15" s="151" t="s">
@@ -11964,7 +11988,7 @@
         <v>653</v>
       </c>
       <c r="F17" s="151" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="G17" s="151" t="s">
         <v>145</v>
@@ -11976,10 +12000,10 @@
         <v>654</v>
       </c>
       <c r="J17" s="152" t="s">
-        <v>655</v>
+        <v>695</v>
       </c>
       <c r="K17" s="55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L17" s="153" t="n">
         <v>7</v>
@@ -12015,9 +12039,11 @@
         <v>1</v>
       </c>
       <c r="W17" s="151" t="s">
-        <v>360</v>
-      </c>
-      <c r="X17" s="155"/>
+        <v>366</v>
+      </c>
+      <c r="X17" s="155" t="s">
+        <v>484</v>
+      </c>
       <c r="Y17" s="155"/>
       <c r="Z17" s="153" t="n">
         <v>5</v>
@@ -12033,25 +12059,25 @@
     </row>
     <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="55" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B18" s="55" t="s">
-        <v>696</v>
+        <v>24</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>697</v>
       </c>
       <c r="D18" s="151" t="s">
-        <v>696</v>
+        <v>24</v>
       </c>
       <c r="E18" s="151" t="s">
         <v>653</v>
       </c>
       <c r="F18" s="151" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G18" s="151" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="H18" s="138" t="n">
         <v>0</v>
@@ -12098,10 +12124,10 @@
       <c r="V18" s="55" t="n">
         <v>1</v>
       </c>
-      <c r="W18" s="151" t="s">
-        <v>360</v>
-      </c>
-      <c r="X18" s="155"/>
+      <c r="W18" s="151"/>
+      <c r="X18" s="155" t="s">
+        <v>481</v>
+      </c>
       <c r="Y18" s="155"/>
       <c r="Z18" s="153" t="n">
         <v>5</v>
@@ -12116,13 +12142,13 @@
       <c r="AD18" s="155"/>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="55" t="s">
         <v>698</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="55" t="s">
         <v>699</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="55" t="s">
         <v>700</v>
       </c>
       <c r="D19" s="151" t="s">
@@ -12183,9 +12209,11 @@
         <v>1</v>
       </c>
       <c r="W19" s="151" t="s">
-        <v>360</v>
-      </c>
-      <c r="X19" s="155"/>
+        <v>366</v>
+      </c>
+      <c r="X19" s="155" t="s">
+        <v>484</v>
+      </c>
       <c r="Y19" s="155"/>
       <c r="Z19" s="153" t="n">
         <v>5</v>
@@ -12206,7 +12234,7 @@
       <c r="B20" s="55" t="s">
         <v>702</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="0" t="s">
         <v>703</v>
       </c>
       <c r="D20" s="151" t="s">
@@ -12284,13 +12312,13 @@
       <c r="AD20" s="155"/>
     </row>
     <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="11" t="s">
         <v>704</v>
       </c>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="11" t="s">
         <v>705</v>
       </c>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="0" t="s">
         <v>706</v>
       </c>
       <c r="D21" s="151" t="s">
@@ -12519,7 +12547,7 @@
         <v>1</v>
       </c>
       <c r="W23" s="151" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="X23" s="155"/>
       <c r="Y23" s="155"/>
@@ -12603,11 +12631,9 @@
         <v>1</v>
       </c>
       <c r="W24" s="151" t="s">
-        <v>366</v>
-      </c>
-      <c r="X24" s="155" t="s">
-        <v>484</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="X24" s="155"/>
       <c r="Y24" s="155"/>
       <c r="Z24" s="153" t="n">
         <v>5</v>
@@ -12719,6 +12745,7 @@
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <autoFilter ref="A3:AD24"/>
   <mergeCells count="1">
     <mergeCell ref="P2:R2"/>
   </mergeCells>
@@ -12795,6 +12822,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12811,9 +12839,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="29.4081632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="30.8061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="33.9795918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="12.6989795918367"/>
   </cols>
   <sheetData>
     <row r="1" s="64" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12840,7 +12868,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>360</v>
@@ -12848,7 +12876,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>670</v>
+        <v>692</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>360</v>
@@ -12856,7 +12884,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>650</v>
+        <v>671</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>368</v>
@@ -12864,7 +12892,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>368</v>
@@ -12872,7 +12900,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>659</v>
+        <v>686</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>368</v>
@@ -12880,7 +12908,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>710</v>
+        <v>656</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>360</v>
@@ -12920,9 +12948,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.7295918367347"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.5510204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="35.0459183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="25.9183673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="12.6989795918367"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12949,7 +12977,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="11" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>472</v>
@@ -12957,7 +12985,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>457</v>
@@ -12965,7 +12993,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="11" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>472</v>
@@ -12973,7 +13001,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="11" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>488</v>
@@ -12981,7 +13009,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="s">
-        <v>650</v>
+        <v>671</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>472</v>
@@ -12989,7 +13017,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>650</v>
+        <v>671</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>457</v>
@@ -12997,7 +13025,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="11" t="s">
-        <v>650</v>
+        <v>671</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>488</v>
@@ -13005,7 +13033,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>659</v>
+        <v>686</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>472</v>
@@ -13013,7 +13041,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>659</v>
+        <v>686</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>488</v>
@@ -13021,7 +13049,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>659</v>
+        <v>686</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>457</v>
@@ -13029,7 +13057,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>670</v>
+        <v>692</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>457</v>
@@ -13037,7 +13065,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
-        <v>670</v>
+        <v>692</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>472</v>
@@ -13045,7 +13073,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>674</v>
+        <v>650</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>457</v>
@@ -13053,7 +13081,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>674</v>
+        <v>650</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>472</v>
@@ -13061,7 +13089,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>457</v>
@@ -13069,7 +13097,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>472</v>
@@ -13077,7 +13105,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>488</v>
@@ -13085,7 +13113,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>457</v>
@@ -13093,7 +13121,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>472</v>
@@ -13101,7 +13129,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="11" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>488</v>
@@ -13143,12 +13171,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.0765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.3469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.8775510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="39.5459183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.6275510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.3877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.4489795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.25"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="43.6377551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="40.8673469387755"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13215,12 +13243,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.4081632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.3061224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="73.9234693877551"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="63.6071428571429"/>
-    <col collapsed="false" hidden="false" max="973" min="5" style="0" width="37.0255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="974" style="0" width="21.2908163265306"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.3061224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="56.734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="81.7244897959184"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="70.3469387755102"/>
+    <col collapsed="false" hidden="false" max="973" min="5" style="0" width="40.8673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="974" style="0" width="23.4081632653061"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="true" ht="24.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13352,32 +13380,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="146.520408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.7295918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.3061224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="115.051020408163"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.4183673469388"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="51.3061224489796"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="51.0459183673469"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="51.4387755102041"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="67.4438775510204"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="63.6071428571429"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="40.7295918367347"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="40.4591836734694"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="60.4336734693878"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="70.3469387755102"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="49.8469387755102"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="69.2857142857143"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="54.8775510204082"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="57.5255102040816"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="51.0459183673469"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="68.765306122449"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="61.3571428571429"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="10.4489795918367"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="50.2551020408163"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="44.4285714285714"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="60.9642857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="10.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="162.25"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.0969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="56.734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="127.341836734694"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="41.3877551020408"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="56.734693877551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="56.4642857142857"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="56.9948979591837"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="74.7142857142857"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="70.3469387755102"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="45.0969387755102"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="44.8265306122449"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="66.7857142857143"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="77.8877551020408"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="55.1377551020408"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="76.7040816326531"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="60.6989795918367"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="63.6071428571429"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="56.4642857142857"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="76.0357142857143"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="67.9744897959184"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="11.5"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="55.5459183673469"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="49.0663265306123"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="67.4438775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="26" style="0" width="11.5"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13879,11 +13907,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.5051020408163"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="41.7857142857143"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.4489795918367"/>
-    <col collapsed="false" hidden="false" max="997" min="5" style="0" width="37.0255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="998" style="0" width="21.2908163265306"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="48.1275510204082"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="46.1479591836735"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="46.9387755102041"/>
+    <col collapsed="false" hidden="false" max="997" min="5" style="0" width="40.8673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="998" style="0" width="23.4081632653061"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="true" ht="24.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13986,13 +14014,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="76.4336734693878"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="67.1785714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="124.301020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.3469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="46.4081632653061"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.4081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="84.4948979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.3163265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="137.530612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="60.1683673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.3061224489796"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.7857142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="40.8673469387755"/>
   </cols>
   <sheetData>
     <row r="1" s="38" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14127,10 +14155,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="101.821428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="126.290816326531"/>
-    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="134.081632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="112.801020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="139.780612244898"/>
+    <col collapsed="false" hidden="false" max="6" min="3" style="0" width="148.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="40.8673469387755"/>
   </cols>
   <sheetData>
     <row r="1" s="38" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14160,7 +14188,7 @@
         <v>743</v>
       </c>
       <c r="B4" s="161" t="s">
-        <v>650</v>
+        <v>671</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14168,7 +14196,7 @@
         <v>743</v>
       </c>
       <c r="B5" s="161" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14176,7 +14204,7 @@
         <v>743</v>
       </c>
       <c r="B6" s="161" t="s">
-        <v>659</v>
+        <v>686</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14184,7 +14212,7 @@
         <v>746</v>
       </c>
       <c r="B7" s="161" t="s">
-        <v>650</v>
+        <v>671</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14192,7 +14220,7 @@
         <v>746</v>
       </c>
       <c r="B8" s="161" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14200,7 +14228,7 @@
         <v>746</v>
       </c>
       <c r="B9" s="161" t="s">
-        <v>659</v>
+        <v>686</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14208,7 +14236,7 @@
         <v>749</v>
       </c>
       <c r="B10" s="161" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14216,7 +14244,7 @@
         <v>749</v>
       </c>
       <c r="B11" s="161" t="s">
-        <v>650</v>
+        <v>671</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14224,7 +14252,7 @@
         <v>749</v>
       </c>
       <c r="B12" s="161" t="s">
-        <v>659</v>
+        <v>686</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14308,13 +14336,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="63.6071428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.0561224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="56.4642857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="91.6428571428571"/>
-    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="45.0969387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="51.3061224489796"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="70.3469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="46.4081632653061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="62.5459183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="101.423469387755"/>
+    <col collapsed="false" hidden="false" max="7" min="5" style="0" width="49.8469387755102"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="56.734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="40.8673469387755"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="15.05" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14644,22 +14672,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:6"/>
+  <dimension ref="1:22"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C5" activeCellId="0" sqref="C5"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.1581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.0561224489796"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="91.8010204081633"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="45.2244897959184"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="69.8163265306122"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="66.515306122449"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="60.6989795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="44.4285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="18.7704081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="101.55612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="19.734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.6275510204082"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.9897959183673"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="53.6020408163265"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="22.5357142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="40.8673469387755"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14760,11 +14791,142 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>774</v>
       </c>
       <c r="B6" s="82"/>
+      <c r="C6" s="162" t="s">
+        <v>775</v>
+      </c>
+      <c r="D6" s="82" t="s">
+        <v>327</v>
+      </c>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="H6" s="78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>776</v>
+      </c>
+      <c r="B7" s="82"/>
+      <c r="C7" s="162" t="s">
+        <v>777</v>
+      </c>
+      <c r="D7" s="82" t="s">
+        <v>320</v>
+      </c>
+      <c r="E7" s="82"/>
+      <c r="F7" s="82"/>
+      <c r="H7" s="78"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="82"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="H8" s="78"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="H9" s="78"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="H10" s="78"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="H11" s="78"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="H12" s="78"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="H13" s="78"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="H14" s="78"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="H15" s="78"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="H16" s="78"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="H17" s="78"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="H18" s="78"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="H19" s="78"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="82"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="H20" s="78"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="82"/>
+      <c r="D21" s="82"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="H21" s="78"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="H22" s="78"/>
     </row>
   </sheetData>
   <dataValidations count="6">
@@ -14772,23 +14934,23 @@
       <formula1>Constants!$C$22:$C$33</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Select a valid entry from the selection list" errorTitle="Invalid Client" operator="equal" prompt="Leave this field blank if it is a general 'lab' template that can be used by all clients.  The Client list used in the selection list is maintained on the 'Clients' sheet" promptTitle="Select a Client if the Template belongs to a specific Client" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B4:B6" type="list">
+    <dataValidation allowBlank="true" error="Select a valid entry from the selection list" errorTitle="Invalid Client" operator="equal" prompt="Leave this field blank if it is a general 'lab' template that can be used by all clients.  The Client list used in the selection list is maintained on the 'Clients' sheet" promptTitle="Select a Client if the Template belongs to a specific Client" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B4:B22" type="list">
       <formula1>Clients!$A$4:$A$81</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Please select a valid entry from the selection list" errorTitle="Invalid Sample Type" operator="equal" prompt="Select a valid Sample Type from the selection list.  The Sample Types available for selection are maintained on the &quot;Sample Types&quot;  sheet" promptTitle="Select a valid Sample Type" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D4:D5" type="list">
+    <dataValidation allowBlank="true" error="Please select a valid entry from the selection list" errorTitle="Invalid Sample Type" operator="equal" prompt="Select a valid Sample Type from the selection list.  The Sample Types available for selection are maintained on the &quot;Sample Types&quot;  sheet" promptTitle="Select a valid Sample Type" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D4:D22" type="list">
       <formula1>'Sample Types'!$A$4:$A$205</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Please select a valid entry from the selection list" errorTitle="Invalid Sample Point" operator="equal" prompt="Select a valid Sample Point from the selection list.  The Sample Points available for selection are maintained on the &quot;Sample Points&quot;  sheet" promptTitle="Select a valid Sample Point" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E4:E5" type="list">
+    <dataValidation allowBlank="true" error="Please select a valid entry from the selection list" errorTitle="Invalid Sample Point" operator="equal" prompt="Select a valid Sample Point from the selection list.  The Sample Points available for selection are maintained on the &quot;Sample Points&quot;  sheet" promptTitle="Select a valid Sample Point" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E4:E22" type="list">
       <formula1>'Sample Points'!$B$4:$B$247</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" error="Please select a valid entry from the selection list" errorTitle="Invalid  Analysis Profile" operator="equal" prompt="Select a valid Analysis Profile from the selection list.  The  Analysis Profiles available for selection are maintained on the &quot; Analysis Profiles&quot;  sheet" promptTitle="Select a valid Analysis Profile" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F4:F5" type="list">
+    <dataValidation allowBlank="true" error="Please select a valid entry from the selection list" errorTitle="Invalid  Analysis Profile" operator="equal" prompt="Select a valid Analysis Profile from the selection list.  The  Analysis Profiles available for selection are maintained on the &quot; Analysis Profiles&quot;  sheet" promptTitle="Select a valid Analysis Profile" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F4:F22" type="list">
       <formula1>'Analysis Profiles'!$B$4:$B$248</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="false" error="Select 1 (true) or 0 (false)  from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (true) or 0 (false)  from the drop-down menu" promptTitle="Can the result be expressed as % dry matter?" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H4:H5" type="list">
+    <dataValidation allowBlank="false" error="Select 1 (true) or 0 (false)  from the drop-down menu" errorTitle="Invalid entry" operator="equal" prompt="Select 1 (true) or 0 (false)  from the drop-down menu" promptTitle="Can the result be expressed as % dry matter?" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H4:H22" type="list">
       <formula1>Constants!$G$2:$G$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -14813,44 +14975,46 @@
   </sheetPr>
   <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="E28" activeCellId="0" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="73.6581632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.2244897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="70.3469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.3010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.5510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.0051020408163"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="40.8673469387755"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
     </row>
     <row r="2" s="34" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14858,10 +15022,10 @@
         <v>770</v>
       </c>
       <c r="B4" s="82" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C4" s="82" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14869,10 +15033,10 @@
         <v>770</v>
       </c>
       <c r="B5" s="82" t="s">
-        <v>665</v>
+        <v>696</v>
       </c>
       <c r="C5" s="82" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14880,10 +15044,10 @@
         <v>770</v>
       </c>
       <c r="B6" s="161" t="s">
-        <v>650</v>
+        <v>671</v>
       </c>
       <c r="C6" s="82" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14891,10 +15055,10 @@
         <v>770</v>
       </c>
       <c r="B7" s="161" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="C7" s="82" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14902,10 +15066,10 @@
         <v>770</v>
       </c>
       <c r="B8" s="161" t="s">
-        <v>659</v>
+        <v>686</v>
       </c>
       <c r="C8" s="82" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14913,10 +15077,10 @@
         <v>772</v>
       </c>
       <c r="B9" s="161" t="s">
-        <v>650</v>
+        <v>671</v>
       </c>
       <c r="C9" s="82" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14924,10 +15088,10 @@
         <v>772</v>
       </c>
       <c r="B10" s="161" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="C10" s="82" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14935,10 +15099,10 @@
         <v>772</v>
       </c>
       <c r="B11" s="161" t="s">
-        <v>659</v>
+        <v>686</v>
       </c>
       <c r="C11" s="82" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14946,10 +15110,10 @@
         <v>772</v>
       </c>
       <c r="B12" s="161" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C12" s="82" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14957,61 +15121,121 @@
         <v>772</v>
       </c>
       <c r="B13" s="161" t="s">
+        <v>696</v>
+      </c>
+      <c r="C13" s="82" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="82" t="s">
+        <v>774</v>
+      </c>
+      <c r="B14" s="161" t="s">
+        <v>671</v>
+      </c>
+      <c r="C14" s="82" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="82" t="s">
+        <v>774</v>
+      </c>
+      <c r="B15" s="161" t="s">
         <v>665</v>
       </c>
-      <c r="C13" s="82" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="82"/>
-      <c r="B14" s="161"/>
-      <c r="C14" s="82"/>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="82"/>
-      <c r="B15" s="161"/>
-      <c r="C15" s="82"/>
+      <c r="C15" s="82" t="s">
+        <v>786</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="82"/>
-      <c r="B16" s="161"/>
-      <c r="C16" s="82"/>
+      <c r="A16" s="82" t="s">
+        <v>774</v>
+      </c>
+      <c r="B16" s="161" t="s">
+        <v>686</v>
+      </c>
+      <c r="C16" s="82" t="s">
+        <v>786</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="82"/>
-      <c r="B17" s="161"/>
-      <c r="C17" s="82"/>
+      <c r="A17" s="82" t="s">
+        <v>774</v>
+      </c>
+      <c r="B17" s="161" t="s">
+        <v>659</v>
+      </c>
+      <c r="C17" s="82" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="82"/>
-      <c r="B18" s="161"/>
-      <c r="C18" s="82"/>
+      <c r="A18" s="82" t="s">
+        <v>774</v>
+      </c>
+      <c r="B18" s="161" t="s">
+        <v>696</v>
+      </c>
+      <c r="C18" s="82" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="82"/>
-      <c r="B19" s="161"/>
-      <c r="C19" s="82"/>
+      <c r="A19" s="82" t="s">
+        <v>776</v>
+      </c>
+      <c r="B19" s="161" t="s">
+        <v>671</v>
+      </c>
+      <c r="C19" s="82" t="s">
+        <v>786</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="82"/>
-      <c r="B20" s="161"/>
-      <c r="C20" s="82"/>
+      <c r="A20" s="82" t="s">
+        <v>776</v>
+      </c>
+      <c r="B20" s="161" t="s">
+        <v>665</v>
+      </c>
+      <c r="C20" s="82" t="s">
+        <v>786</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="82"/>
-      <c r="B21" s="161"/>
-      <c r="C21" s="82"/>
+      <c r="A21" s="82" t="s">
+        <v>776</v>
+      </c>
+      <c r="B21" s="161" t="s">
+        <v>686</v>
+      </c>
+      <c r="C21" s="82" t="s">
+        <v>786</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="82"/>
-      <c r="B22" s="161"/>
-      <c r="C22" s="82"/>
+      <c r="A22" s="82" t="s">
+        <v>776</v>
+      </c>
+      <c r="B22" s="161" t="s">
+        <v>659</v>
+      </c>
+      <c r="C22" s="82" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="82"/>
-      <c r="B23" s="161"/>
-      <c r="C23" s="82"/>
+      <c r="A23" s="82" t="s">
+        <v>776</v>
+      </c>
+      <c r="B23" s="161" t="s">
+        <v>696</v>
+      </c>
+      <c r="C23" s="82" t="s">
+        <v>785</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="82"/>
@@ -15279,6 +15503,7 @@
       <c r="C76" s="82"/>
     </row>
   </sheetData>
+  <autoFilter ref="A3:C76"/>
   <dataValidations count="4">
     <dataValidation allowBlank="false" error="Select a valid Analysis Service from the selection list" errorTitle="Invalid entry" operator="equal" prompt="From the selection list. Populate the selection list on the 'Analysis Services' sheet" promptTitle="Select a valid Analysis Service" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B6:B76" type="list">
       <formula1>'Analysis Services'!$A$4:$A$101</formula1>
@@ -15307,6 +15532,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -15317,52 +15543,51 @@
   </sheetPr>
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="64.1275510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.5459183673469"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.4081632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="62.5459183673469"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="84.1020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.4285714285714"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="16.0357142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="19.8622448979592"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="93.0969387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="40.8673469387755"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
     </row>
     <row r="2" s="34" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>789</v>
+        <v>792</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15370,7 +15595,7 @@
         <v>770</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="C4" s="11" t="s">
         <v>298</v>
@@ -15384,7 +15609,7 @@
         <v>770</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>245</v>
@@ -15398,7 +15623,7 @@
         <v>772</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>298</v>
@@ -15412,7 +15637,7 @@
         <v>772</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>298</v>
@@ -15422,28 +15647,60 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="82"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
+      <c r="A8" s="82" t="s">
+        <v>774</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>785</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="82"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
+      <c r="A9" s="82" t="s">
+        <v>774</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>786</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="82"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
+      <c r="A10" s="82" t="s">
+        <v>776</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>786</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="82"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
+      <c r="A11" s="82" t="s">
+        <v>776</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>785</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="82"/>
@@ -15836,8 +16093,12 @@
       <c r="D76" s="11"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation allowBlank="false" error="Select a valid entry from the drop down list." errorTitle="Invalid Analysis Service" operator="equal" prompt="Select an Analysis Request Template  from the list. Maintain the list on the 'AR Templates' sheet" promptTitle="Select a valid AR Template" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A4:A76" type="list">
+  <dataValidations count="5">
+    <dataValidation allowBlank="false" error="Select a valid entry from the drop down list." errorTitle="Invalid Analysis Service" operator="equal" prompt="Select an Analysis Request Template  from the list. Maintain the list on the 'AR Templates' sheet" promptTitle="Select a valid AR Template" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A4:A5" type="list">
+      <formula1>'AR Templates'!$A$4:$A$291</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="false" error="Select a valid entry from the drop down list." errorTitle="Invalid Analysis Service" operator="equal" prompt="Select an Analysis Request Template  from the list. Maintain the list on the 'AR Templates' sheet" promptTitle="Select a valid AR Template" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A6:A76" type="list">
       <formula1>'AR Templates'!$A$4:$A$291</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -15880,11 +16141,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="84.4948979591837"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="106.44387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="45.3571428571429"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="50.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="93.484693877551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="117.954081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="50.2551020408163"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="55.5459183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="40.8673469387755"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15898,47 +16159,47 @@
         <v>308</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
     </row>
     <row r="2" s="34" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>796</v>
+        <v>799</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="64" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="C4" s="78" t="n">
         <v>0</v>
@@ -16018,24 +16279,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="77.3571428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="141.229591836735"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.0255102040816"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="22.8775510204082"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.0255102040816"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="84.9030612244898"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="85.6938775510204"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="156.438775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.8673469387755"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="25.25"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="40.8673469387755"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="93.8928571428571"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="40.8673469387755"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>756</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>757</v>
@@ -16046,19 +16307,19 @@
     </row>
     <row r="2" s="34" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>761</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>762</v>
@@ -16069,10 +16330,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="82" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="B4" s="161" t="s">
-        <v>650</v>
+        <v>671</v>
       </c>
       <c r="C4" s="64" t="n">
         <v>90</v>
@@ -16087,10 +16348,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="82" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="B5" s="161" t="s">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="C5" s="64" t="n">
         <v>30</v>
@@ -16279,68 +16540,68 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="92.0357142857143"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.9489795918367"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="85.0255102040816"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="90.9744897959184"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="103.540816326531"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="23.4081632653061"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="37.9489795918367"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="67.3061224489796"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="44.4285714285714"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="49.8469387755102"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="50.2551020408163"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="46.1479591836735"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="45.2244897959184"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="51.4387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="9.52040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="101.821428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.0561224489796"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="94.015306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="100.765306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="114.515306122449"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.7857142857143"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="42.0561224489796"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="74.4540816326531"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="49.0663265306123"/>
+    <col collapsed="false" hidden="false" max="11" min="10" style="0" width="55.1377551020408"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="55.5459183673469"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="51.0459183673469"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="50.1173469387755"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="56.9948979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="16" style="0" width="10.4489795918367"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>164</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>308</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="M1" s="5" t="s">
-        <v>812</v>
+        <v>815</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>511</v>
@@ -16348,13 +16609,13 @@
     </row>
     <row r="2" s="34" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>42</v>
@@ -16363,40 +16624,40 @@
         <v>421</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>308</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="N3" s="6" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="P3" s="6" t="s">
         <v>511</v>
@@ -16426,11 +16687,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.1377551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="103.933673469388"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.8367346938776"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="51.969387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="60.9642857142857"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="115.051020408163"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="75.1071428571429"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="57.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="40.8673469387755"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16601,23 +16862,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="163.571428571429"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="61.3571428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.969387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="37.0255102040816"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.9489795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="9.52040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="181.168367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="67.9744897959184"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="29.8877551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="40.8673469387755"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="42.0561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.4489795918367"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="22.6" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>757</v>
@@ -16628,19 +16889,19 @@
     </row>
     <row r="2" s="34" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>761</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>762</v>
@@ -16711,66 +16972,66 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="84.1020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.3469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="62.5459183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="83.1836734693878"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="37.0255102040816"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.9489795918367"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="33.0663265306122"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="46.4081632653061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="37.9489795918367"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="49.8469387755102"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="37.6887755102041"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="135.142857142857"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="31.3469387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.52040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="93.0969387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.4489795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="69.1581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="92.0357142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="40.8673469387755"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="42.0561224489796"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="36.6275510204082"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="51.3061224489796"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="42.0561224489796"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="55.1377551020408"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="41.7857142857143"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="149.561224489796"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="34.6479591836735"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.4489795918367"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="25.45" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="H1" s="0" t="s">
         <v>503</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
     </row>
     <row r="3" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16778,31 +17039,31 @@
         <v>33</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>503</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>834</v>
+        <v>837</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16863,17 +17124,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="128.801020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.3469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.8775510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="63.6071428571429"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.6275510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="142.551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.4489795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.25"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="70.3469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="40.8673469387755"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>594</v>
@@ -16893,7 +17154,7 @@
     </row>
     <row r="2" s="34" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="C2" s="7"/>
     </row>
@@ -16941,9 +17202,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="93.484693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="181.168367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="103.540816326531"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="200.607142857143"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="40.8673469387755"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16956,7 +17217,7 @@
     </row>
     <row r="2" s="34" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="C2" s="7"/>
     </row>
@@ -16970,26 +17231,26 @@
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="64" t="s">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>845</v>
+        <v>848</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="64" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>847</v>
+        <v>850</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="64" t="s">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>849</v>
+        <v>852</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -17017,61 +17278,61 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="49.0663265306123"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.6887755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="60.9642857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="54.3469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.0459183673469"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="51.969387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="46.4081632653061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="54.8775510204082"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="28.4285714285714"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="42.0561224489796"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="49.5867346938776"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="49.8469387755102"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="69.1581632653061"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.52040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.3469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.7857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="67.4438775510204"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="60.1683673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="56.4642857142857"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="57.5255102040816"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="51.3061224489796"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="60.6989795918367"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="31.3469387755102"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="46.4081632653061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="54.8775510204082"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="55.1377551020408"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="76.4336734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.4489795918367"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="64" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="B1" s="64" t="s">
         <v>223</v>
       </c>
       <c r="C1" s="64" t="s">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="D1" s="64" t="s">
-        <v>851</v>
+        <v>854</v>
       </c>
       <c r="E1" s="64" t="s">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="F1" s="64" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="G1" s="64" t="s">
-        <v>813</v>
+        <v>816</v>
       </c>
       <c r="H1" s="64" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="I1" s="64" t="s">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="J1" s="64" t="s">
         <v>339</v>
       </c>
       <c r="K1" s="64" t="s">
-        <v>853</v>
+        <v>856</v>
       </c>
       <c r="L1" s="64" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="M1" s="64" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="N1" s="64" t="s">
         <v>511</v>
@@ -17079,55 +17340,55 @@
     </row>
     <row r="2" s="34" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="162" t="s">
-        <v>857</v>
+      <c r="A3" s="163" t="s">
+        <v>860</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>286</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>339</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="AMI3" s="162"/>
-      <c r="AMJ3" s="162"/>
+      <c r="AMI3" s="163"/>
+      <c r="AMJ3" s="163"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -17153,58 +17414,58 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="67.1785714285714"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="44.4285714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="37.6887755102041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="77.8877551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="76.0357142857143"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="38.3469387755102"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="62.8061224489796"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="55.1377551020408"/>
-    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="9.52040816326531"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="51.969387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="9.52040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="74.3163265306122"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.0663265306123"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.7857142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="86.2244897959184"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="84.1020408163265"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="42.4489795918367"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="69.4234693877551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="60.9642857142857"/>
+    <col collapsed="false" hidden="false" max="11" min="9" style="0" width="10.4489795918367"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="57.5255102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="0" width="10.4489795918367"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.9" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="64" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="B1" s="64" t="s">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="C1" s="64" t="s">
         <v>223</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="E1" s="64" t="s">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="F1" s="64" t="s">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="G1" s="64" t="s">
         <v>765</v>
       </c>
       <c r="H1" s="64" t="s">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="I1" s="64" t="s">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="J1" s="64" t="s">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="K1" s="64" t="s">
         <v>611</v>
       </c>
       <c r="L1" s="64" t="s">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="M1" s="64" t="s">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="N1" s="64" t="s">
         <v>511</v>
@@ -17212,49 +17473,49 @@
     </row>
     <row r="2" s="34" customFormat="true" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="B2" s="7"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>286</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>877</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>879</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>880</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>881</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>882</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>883</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>884</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>874</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>875</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>876</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>877</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>878</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>879</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>880</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>881</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>871</v>
       </c>
       <c r="N3" s="6" t="s">
         <v>511</v>
@@ -17284,50 +17545,50 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="84.1020408163265"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.3469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="83.1836734693878"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="37.0255102040816"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="37.9489795918367"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="33.0663265306122"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="46.4081632653061"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="37.9489795918367"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="49.8469387755102"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="37.6887755102041"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="135.142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.52040816326531"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="93.0969387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.4489795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="92.0357142857143"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="40.8673469387755"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="42.0561224489796"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="36.6275510204082"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="51.3061224489796"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="42.0561224489796"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="55.1377551020408"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="41.7857142857143"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="149.561224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="10.4489795918367"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="21.65" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>882</v>
+        <v>885</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>352</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>883</v>
+        <v>886</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="I1" s="0" t="s">
         <v>503</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="K1" s="0" t="s">
         <v>618</v>
@@ -17355,40 +17616,40 @@
         <v>18</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>352</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>884</v>
+        <v>887</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>503</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17504,17 +17765,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="128.801020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.3469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="22.8775510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="63.6071428571429"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="13.6275510204082"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="142.551020408163"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.4489795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.25"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="70.3469387755102"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="15.0765306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="40.8673469387755"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="26.4" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>594</v>
@@ -17534,13 +17795,13 @@
     </row>
     <row r="2" s="34" customFormat="true" ht="24.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>599</v>
@@ -17582,10 +17843,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.8265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.4081632653061"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="40.1989795918367"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="41.9183673469388"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.5051020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="44.5663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="40.8673469387755"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17601,7 +17862,7 @@
     </row>
     <row r="2" s="34" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="C2" s="7"/>
     </row>
@@ -17619,7 +17880,7 @@
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="64"/>
       <c r="B4" s="64"/>
-      <c r="C4" s="163"/>
+      <c r="C4" s="164"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -17654,14 +17915,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.4081632653061"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.3571428571429"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="61.2244897959184"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="85.6938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="40.8673469387755"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>756</v>
@@ -17669,24 +17930,24 @@
     </row>
     <row r="2" s="34" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="163"/>
+      <c r="A4" s="164"/>
       <c r="B4" s="82"/>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="163"/>
+      <c r="A5" s="164"/>
       <c r="B5" s="82"/>
     </row>
   </sheetData>
@@ -17726,12 +17987,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="68.765306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="186.448979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="36.6275510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="54.3469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="25.7857142857143"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="11" width="36.2295918367347"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="76.0357142857143"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="206.55612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="40.4591836734694"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="11" width="60.1683673469388"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="11" width="28.4285714285714"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="11" width="40.0663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.52040816326531"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17827,62 +18089,62 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="103.540816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="69.8163265306122"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.5867346938776"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="46.9387755102041"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="45.2244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="114.515306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="77.3571428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.8775510204082"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="0" width="51.969387755102"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="40.8673469387755"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>563</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
     </row>
     <row r="2" s="34" customFormat="true" ht="17.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="C2" s="7"/>
     </row>
     <row r="3" s="6" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>419</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="163"/>
+      <c r="A4" s="164"/>
       <c r="B4" s="8"/>
       <c r="C4" s="82"/>
       <c r="D4" s="82"/>
@@ -17890,7 +18152,7 @@
       <c r="F4" s="82"/>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="163"/>
+      <c r="A5" s="164"/>
       <c r="B5" s="8"/>
       <c r="C5" s="82"/>
       <c r="D5" s="82"/>
@@ -17898,7 +18160,7 @@
       <c r="F5" s="82"/>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="163"/>
+      <c r="A6" s="164"/>
       <c r="B6" s="8"/>
       <c r="C6" s="82"/>
       <c r="D6" s="82"/>
@@ -17906,7 +18168,7 @@
       <c r="F6" s="82"/>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="163"/>
+      <c r="A7" s="164"/>
       <c r="B7" s="8"/>
       <c r="C7" s="82"/>
       <c r="D7" s="82"/>
@@ -17914,7 +18176,7 @@
       <c r="F7" s="82"/>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="163"/>
+      <c r="A8" s="164"/>
       <c r="B8" s="8"/>
       <c r="C8" s="82"/>
       <c r="D8" s="82"/>
@@ -17922,7 +18184,7 @@
       <c r="F8" s="82"/>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="163"/>
+      <c r="A9" s="164"/>
       <c r="B9" s="8"/>
       <c r="C9" s="82"/>
       <c r="D9" s="82"/>
@@ -17930,7 +18192,7 @@
       <c r="F9" s="82"/>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="163"/>
+      <c r="A10" s="164"/>
       <c r="B10" s="8"/>
       <c r="C10" s="82"/>
       <c r="D10" s="82"/>
@@ -17938,7 +18200,7 @@
       <c r="F10" s="82"/>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="163"/>
+      <c r="A11" s="164"/>
       <c r="B11" s="8"/>
       <c r="C11" s="82"/>
       <c r="D11" s="82"/>
@@ -17946,7 +18208,7 @@
       <c r="F11" s="82"/>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="163"/>
+      <c r="A12" s="164"/>
       <c r="B12" s="8"/>
       <c r="C12" s="82"/>
       <c r="D12" s="82"/>
@@ -17954,7 +18216,7 @@
       <c r="F12" s="82"/>
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="163"/>
+      <c r="A13" s="164"/>
       <c r="B13" s="8"/>
       <c r="C13" s="82"/>
       <c r="D13" s="82"/>
@@ -17962,7 +18224,7 @@
       <c r="F13" s="82"/>
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="163"/>
+      <c r="A14" s="164"/>
       <c r="B14" s="8"/>
       <c r="C14" s="82"/>
       <c r="D14" s="82"/>
@@ -17970,7 +18232,7 @@
       <c r="F14" s="82"/>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="163"/>
+      <c r="A15" s="164"/>
       <c r="B15" s="8"/>
       <c r="C15" s="82"/>
       <c r="D15" s="82"/>
@@ -17978,7 +18240,7 @@
       <c r="F15" s="82"/>
     </row>
     <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="163"/>
+      <c r="A16" s="164"/>
       <c r="B16" s="8"/>
       <c r="C16" s="82"/>
       <c r="D16" s="82"/>
@@ -17986,7 +18248,7 @@
       <c r="F16" s="82"/>
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="163"/>
+      <c r="A17" s="164"/>
       <c r="B17" s="8"/>
       <c r="C17" s="82"/>
       <c r="D17" s="82"/>
@@ -17994,7 +18256,7 @@
       <c r="F17" s="82"/>
     </row>
     <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="163"/>
+      <c r="A18" s="164"/>
       <c r="B18" s="8"/>
       <c r="C18" s="82"/>
       <c r="D18" s="82"/>
@@ -18002,7 +18264,7 @@
       <c r="F18" s="82"/>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="163"/>
+      <c r="A19" s="164"/>
       <c r="B19" s="8"/>
       <c r="C19" s="82"/>
       <c r="D19" s="82"/>
@@ -18010,7 +18272,7 @@
       <c r="F19" s="82"/>
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="163"/>
+      <c r="A20" s="164"/>
       <c r="B20" s="8"/>
       <c r="C20" s="82"/>
       <c r="D20" s="82"/>
@@ -18018,7 +18280,7 @@
       <c r="F20" s="82"/>
     </row>
     <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="163"/>
+      <c r="A21" s="164"/>
       <c r="B21" s="8"/>
       <c r="C21" s="82"/>
       <c r="D21" s="82"/>
@@ -18026,7 +18288,7 @@
       <c r="F21" s="82"/>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="163"/>
+      <c r="A22" s="164"/>
       <c r="B22" s="8"/>
       <c r="C22" s="82"/>
       <c r="D22" s="82"/>
@@ -18034,7 +18296,7 @@
       <c r="F22" s="82"/>
     </row>
     <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="163"/>
+      <c r="A23" s="164"/>
       <c r="B23" s="8"/>
       <c r="C23" s="82"/>
       <c r="D23" s="82"/>
@@ -18095,12 +18357,12 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="true" max="1" min="1" style="0" width="0"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="146.520408163265"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="54.3469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="111.474489795918"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="93.8928571428571"/>
-    <col collapsed="false" hidden="false" max="1023" min="6" style="0" width="37.0255102040816"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="21.2908163265306"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="162.25"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="60.1683673469388"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="123.372448979592"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="103.933673469388"/>
+    <col collapsed="false" hidden="false" max="1023" min="6" style="0" width="40.8673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="23.4081632653061"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18110,15 +18372,15 @@
       <c r="B1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="164" t="s">
+      <c r="C1" s="165" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="2" s="6" customFormat="true" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
-        <v>905</v>
-      </c>
-      <c r="C2" s="165"/>
+        <v>908</v>
+      </c>
+      <c r="C2" s="166"/>
     </row>
     <row r="3" s="5" customFormat="true" ht="12.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
@@ -18127,73 +18389,73 @@
       <c r="B3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="164" t="s">
+      <c r="C3" s="165" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>906</v>
-      </c>
-      <c r="B4" s="166" t="s">
-        <v>907</v>
-      </c>
-      <c r="C4" s="167" t="n">
+        <v>909</v>
+      </c>
+      <c r="B4" s="167" t="s">
+        <v>910</v>
+      </c>
+      <c r="C4" s="168" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>908</v>
-      </c>
-      <c r="B5" s="166" t="s">
-        <v>909</v>
-      </c>
-      <c r="C5" s="167" t="n">
+        <v>911</v>
+      </c>
+      <c r="B5" s="167" t="s">
+        <v>912</v>
+      </c>
+      <c r="C5" s="168" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>910</v>
-      </c>
-      <c r="B6" s="166" t="s">
-        <v>910</v>
-      </c>
-      <c r="C6" s="167" t="s">
-        <v>911</v>
+        <v>913</v>
+      </c>
+      <c r="B6" s="167" t="s">
+        <v>913</v>
+      </c>
+      <c r="C6" s="168" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>912</v>
-      </c>
-      <c r="B7" s="166" t="s">
-        <v>913</v>
-      </c>
-      <c r="C7" s="168" t="n">
+        <v>915</v>
+      </c>
+      <c r="B7" s="167" t="s">
+        <v>916</v>
+      </c>
+      <c r="C7" s="169" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>914</v>
-      </c>
-      <c r="B8" s="166" t="s">
-        <v>915</v>
-      </c>
-      <c r="C8" s="168" t="n">
+        <v>917</v>
+      </c>
+      <c r="B8" s="167" t="s">
+        <v>918</v>
+      </c>
+      <c r="C8" s="169" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>916</v>
-      </c>
-      <c r="B9" s="166" t="s">
-        <v>917</v>
-      </c>
-      <c r="C9" s="167" t="n">
+        <v>919</v>
+      </c>
+      <c r="B9" s="167" t="s">
+        <v>920</v>
+      </c>
+      <c r="C9" s="168" t="n">
         <v>15</v>
       </c>
     </row>
@@ -18201,229 +18463,229 @@
       <c r="A10" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B10" s="166" t="s">
-        <v>918</v>
-      </c>
-      <c r="C10" s="167" t="n">
+      <c r="B10" s="167" t="s">
+        <v>921</v>
+      </c>
+      <c r="C10" s="168" t="n">
         <v>14</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>919</v>
-      </c>
-      <c r="B11" s="166" t="s">
-        <v>920</v>
-      </c>
-      <c r="C11" s="167" t="n">
+        <v>922</v>
+      </c>
+      <c r="B11" s="167" t="s">
+        <v>923</v>
+      </c>
+      <c r="C11" s="168" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>921</v>
-      </c>
-      <c r="B12" s="166" t="s">
-        <v>922</v>
-      </c>
-      <c r="C12" s="167" t="n">
+        <v>924</v>
+      </c>
+      <c r="B12" s="167" t="s">
+        <v>925</v>
+      </c>
+      <c r="C12" s="168" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>923</v>
-      </c>
-      <c r="B13" s="166" t="s">
-        <v>924</v>
-      </c>
-      <c r="C13" s="167" t="n">
+        <v>926</v>
+      </c>
+      <c r="B13" s="167" t="s">
+        <v>927</v>
+      </c>
+      <c r="C13" s="168" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>925</v>
-      </c>
-      <c r="B14" s="166" t="s">
-        <v>926</v>
-      </c>
-      <c r="C14" s="167"/>
+        <v>928</v>
+      </c>
+      <c r="B14" s="167" t="s">
+        <v>929</v>
+      </c>
+      <c r="C14" s="168"/>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>927</v>
-      </c>
-      <c r="B15" s="166" t="s">
-        <v>928</v>
-      </c>
-      <c r="C15" s="168" t="n">
+        <v>930</v>
+      </c>
+      <c r="B15" s="167" t="s">
+        <v>931</v>
+      </c>
+      <c r="C15" s="169" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>929</v>
-      </c>
-      <c r="B16" s="166" t="s">
-        <v>930</v>
-      </c>
-      <c r="C16" s="168" t="n">
+        <v>932</v>
+      </c>
+      <c r="B16" s="167" t="s">
+        <v>933</v>
+      </c>
+      <c r="C16" s="169" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>931</v>
-      </c>
-      <c r="B17" s="166" t="s">
-        <v>932</v>
-      </c>
-      <c r="C17" s="169"/>
+        <v>934</v>
+      </c>
+      <c r="B17" s="167" t="s">
+        <v>935</v>
+      </c>
+      <c r="C17" s="170"/>
     </row>
     <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>933</v>
-      </c>
-      <c r="B18" s="166" t="s">
-        <v>934</v>
-      </c>
-      <c r="C18" s="170" t="s">
-        <v>935</v>
-      </c>
-      <c r="D18" s="171"/>
+        <v>936</v>
+      </c>
+      <c r="B18" s="167" t="s">
+        <v>937</v>
+      </c>
+      <c r="C18" s="171" t="s">
+        <v>938</v>
+      </c>
+      <c r="D18" s="172"/>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
-        <v>936</v>
-      </c>
-      <c r="B19" s="166" t="s">
-        <v>937</v>
-      </c>
-      <c r="C19" s="169" t="s">
+        <v>939</v>
+      </c>
+      <c r="B19" s="167" t="s">
+        <v>940</v>
+      </c>
+      <c r="C19" s="170" t="s">
         <v>654</v>
       </c>
-      <c r="D19" s="171"/>
+      <c r="D19" s="172"/>
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="5" t="s">
-        <v>938</v>
-      </c>
-      <c r="B20" s="166" t="s">
-        <v>939</v>
-      </c>
-      <c r="C20" s="169" t="s">
+        <v>941</v>
+      </c>
+      <c r="B20" s="167" t="s">
+        <v>942</v>
+      </c>
+      <c r="C20" s="170" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="5" t="s">
-        <v>940</v>
-      </c>
-      <c r="B21" s="166" t="s">
-        <v>941</v>
-      </c>
-      <c r="C21" s="170" t="n">
+        <v>943</v>
+      </c>
+      <c r="B21" s="167" t="s">
+        <v>944</v>
+      </c>
+      <c r="C21" s="171" t="n">
         <v>30</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="5" t="s">
-        <v>942</v>
-      </c>
-      <c r="B22" s="166" t="s">
-        <v>943</v>
-      </c>
-      <c r="C22" s="170" t="n">
+        <v>945</v>
+      </c>
+      <c r="B22" s="167" t="s">
+        <v>946</v>
+      </c>
+      <c r="C22" s="171" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="5" t="s">
-        <v>944</v>
-      </c>
-      <c r="B23" s="166" t="s">
-        <v>945</v>
-      </c>
-      <c r="C23" s="170" t="n">
+        <v>947</v>
+      </c>
+      <c r="B23" s="167" t="s">
+        <v>948</v>
+      </c>
+      <c r="C23" s="171" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="B24" s="166" t="s">
-        <v>947</v>
-      </c>
-      <c r="C24" s="169" t="s">
-        <v>948</v>
-      </c>
-      <c r="D24" s="172"/>
+        <v>949</v>
+      </c>
+      <c r="B24" s="167" t="s">
+        <v>950</v>
+      </c>
+      <c r="C24" s="170" t="s">
+        <v>951</v>
+      </c>
+      <c r="D24" s="173"/>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="5" t="s">
-        <v>949</v>
-      </c>
-      <c r="B25" s="166" t="s">
-        <v>950</v>
-      </c>
-      <c r="C25" s="169" t="s">
-        <v>951</v>
+        <v>952</v>
+      </c>
+      <c r="B25" s="167" t="s">
+        <v>953</v>
+      </c>
+      <c r="C25" s="170" t="s">
+        <v>954</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="5" t="s">
-        <v>952</v>
-      </c>
-      <c r="B26" s="166" t="s">
-        <v>953</v>
-      </c>
-      <c r="C26" s="168" t="n">
+        <v>955</v>
+      </c>
+      <c r="B26" s="167" t="s">
+        <v>956</v>
+      </c>
+      <c r="C26" s="169" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>954</v>
-      </c>
-      <c r="B27" s="166" t="s">
-        <v>955</v>
-      </c>
-      <c r="C27" s="167" t="s">
-        <v>956</v>
+        <v>957</v>
+      </c>
+      <c r="B27" s="167" t="s">
+        <v>958</v>
+      </c>
+      <c r="C27" s="168" t="s">
+        <v>959</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
-        <v>957</v>
-      </c>
-      <c r="B28" s="166" t="s">
-        <v>958</v>
-      </c>
-      <c r="C28" s="167" t="n">
+        <v>960</v>
+      </c>
+      <c r="B28" s="167" t="s">
+        <v>961</v>
+      </c>
+      <c r="C28" s="168" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
-        <v>959</v>
-      </c>
-      <c r="B29" s="166" t="s">
-        <v>960</v>
-      </c>
-      <c r="C29" s="168" t="n">
+        <v>962</v>
+      </c>
+      <c r="B29" s="167" t="s">
+        <v>963</v>
+      </c>
+      <c r="C29" s="169" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>961</v>
-      </c>
-      <c r="B30" s="166" t="s">
-        <v>962</v>
-      </c>
-      <c r="C30" s="167"/>
+        <v>964</v>
+      </c>
+      <c r="B30" s="167" t="s">
+        <v>965</v>
+      </c>
+      <c r="C30" s="168"/>
     </row>
   </sheetData>
   <dataValidations count="24">
@@ -18550,47 +18812,47 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.2244897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.0663265306123"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="45.2244897959184"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.3469387755102"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.8775510204082"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="37.9489795918367"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="29.8877551020408"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="45.2244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.1173469387755"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.3469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="50.1173469387755"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="34.6479591836735"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="25.25"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="42.0561224489796"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="33.0663265306122"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="50.1173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="40.8673469387755"/>
   </cols>
   <sheetData>
     <row r="1" s="75" customFormat="true" ht="44.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="174" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="173" t="s">
+      <c r="B1" s="174" t="s">
         <v>121</v>
       </c>
       <c r="C1" s="76" t="s">
-        <v>963</v>
+        <v>966</v>
       </c>
       <c r="D1" s="76" t="s">
-        <v>964</v>
+        <v>967</v>
       </c>
       <c r="E1" s="76" t="s">
-        <v>965</v>
+        <v>968</v>
       </c>
       <c r="F1" s="75" t="s">
-        <v>966</v>
-      </c>
-      <c r="G1" s="174" t="s">
-        <v>967</v>
+        <v>969</v>
+      </c>
+      <c r="G1" s="175" t="s">
+        <v>970</v>
       </c>
       <c r="H1" s="76" t="s">
-        <v>968</v>
+        <v>971</v>
       </c>
       <c r="I1" s="76" t="s">
-        <v>969</v>
+        <v>972</v>
       </c>
       <c r="J1" s="76" t="s">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="K1" s="76" t="s">
         <v>631</v>
@@ -18599,37 +18861,37 @@
     </row>
     <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="33" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="166" t="s">
-        <v>935</v>
-      </c>
-      <c r="D2" s="166" t="s">
-        <v>971</v>
-      </c>
-      <c r="E2" s="175" t="s">
-        <v>972</v>
-      </c>
-      <c r="F2" s="166" t="s">
-        <v>973</v>
-      </c>
-      <c r="G2" s="166" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="166" t="s">
+      <c r="C2" s="167" t="s">
+        <v>938</v>
+      </c>
+      <c r="D2" s="167" t="s">
         <v>974</v>
       </c>
-      <c r="I2" s="166" t="s">
-        <v>668</v>
-      </c>
-      <c r="J2" s="166" t="s">
+      <c r="E2" s="176" t="s">
         <v>975</v>
       </c>
-      <c r="K2" s="166" t="s">
+      <c r="F2" s="167" t="s">
         <v>976</v>
+      </c>
+      <c r="G2" s="167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="167" t="s">
+        <v>977</v>
+      </c>
+      <c r="I2" s="167" t="s">
+        <v>681</v>
+      </c>
+      <c r="J2" s="167" t="s">
+        <v>978</v>
+      </c>
+      <c r="K2" s="167" t="s">
+        <v>979</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -18637,33 +18899,33 @@
         <v>156</v>
       </c>
       <c r="B3" s="33" t="s">
-        <v>977</v>
-      </c>
-      <c r="C3" s="166" t="s">
-        <v>978</v>
-      </c>
-      <c r="D3" s="166" t="s">
+        <v>980</v>
+      </c>
+      <c r="C3" s="167" t="s">
+        <v>981</v>
+      </c>
+      <c r="D3" s="167" t="s">
         <v>654</v>
       </c>
-      <c r="E3" s="175" t="s">
-        <v>951</v>
-      </c>
-      <c r="F3" s="166" t="s">
-        <v>979</v>
-      </c>
-      <c r="G3" s="166" t="n">
+      <c r="E3" s="176" t="s">
+        <v>954</v>
+      </c>
+      <c r="F3" s="167" t="s">
+        <v>982</v>
+      </c>
+      <c r="G3" s="167" t="n">
         <v>1</v>
       </c>
-      <c r="H3" s="166" t="s">
+      <c r="H3" s="167" t="s">
         <v>236</v>
       </c>
-      <c r="I3" s="166" t="s">
+      <c r="I3" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="166" t="s">
-        <v>708</v>
-      </c>
-      <c r="K3" s="166" t="s">
+      <c r="J3" s="167" t="s">
+        <v>714</v>
+      </c>
+      <c r="K3" s="167" t="s">
         <v>653</v>
       </c>
     </row>
@@ -18674,1127 +18936,1127 @@
       <c r="B4" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="C4" s="166" t="s">
-        <v>980</v>
-      </c>
-      <c r="D4" s="166" t="s">
-        <v>981</v>
-      </c>
-      <c r="F4" s="166" t="s">
-        <v>948</v>
-      </c>
-      <c r="G4" s="175"/>
-      <c r="H4" s="166" t="s">
-        <v>982</v>
+      <c r="C4" s="167" t="s">
+        <v>983</v>
+      </c>
+      <c r="D4" s="167" t="s">
+        <v>984</v>
+      </c>
+      <c r="F4" s="167" t="s">
+        <v>951</v>
+      </c>
+      <c r="G4" s="176"/>
+      <c r="H4" s="167" t="s">
+        <v>985</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="166" t="s">
-        <v>983</v>
-      </c>
-      <c r="B5" s="166" t="s">
-        <v>984</v>
-      </c>
-      <c r="G5" s="175"/>
+      <c r="A5" s="167" t="s">
+        <v>986</v>
+      </c>
+      <c r="B5" s="167" t="s">
+        <v>987</v>
+      </c>
+      <c r="G5" s="176"/>
     </row>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="33" t="s">
-        <v>985</v>
+        <v>988</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>986</v>
-      </c>
-      <c r="G6" s="175"/>
+        <v>989</v>
+      </c>
+      <c r="G6" s="176"/>
     </row>
     <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="166" t="s">
-        <v>987</v>
-      </c>
-      <c r="B7" s="166" t="s">
-        <v>988</v>
-      </c>
-      <c r="G7" s="175"/>
+      <c r="A7" s="167" t="s">
+        <v>990</v>
+      </c>
+      <c r="B7" s="167" t="s">
+        <v>991</v>
+      </c>
+      <c r="G7" s="176"/>
     </row>
     <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="33" t="s">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>990</v>
-      </c>
-      <c r="G8" s="175"/>
+        <v>993</v>
+      </c>
+      <c r="G8" s="176"/>
     </row>
     <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G9" s="175"/>
+      <c r="G9" s="176"/>
     </row>
     <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G10" s="175"/>
+      <c r="G10" s="176"/>
     </row>
     <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G11" s="175"/>
+      <c r="G11" s="176"/>
     </row>
     <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G12" s="175"/>
+      <c r="G12" s="176"/>
     </row>
     <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G13" s="175"/>
+      <c r="G13" s="176"/>
     </row>
     <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G14" s="175"/>
+      <c r="G14" s="176"/>
     </row>
     <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G15" s="175"/>
+      <c r="G15" s="176"/>
     </row>
     <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G16" s="175"/>
+      <c r="G16" s="176"/>
     </row>
     <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G17" s="175"/>
+      <c r="G17" s="176"/>
     </row>
     <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G18" s="175"/>
+      <c r="G18" s="176"/>
     </row>
     <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G19" s="175"/>
+      <c r="G19" s="176"/>
     </row>
     <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="176"/>
-      <c r="B20" s="176"/>
-      <c r="C20" s="176"/>
-      <c r="D20" s="176"/>
-      <c r="E20" s="177"/>
-      <c r="F20" s="176"/>
-      <c r="G20" s="177"/>
-      <c r="H20" s="176"/>
-      <c r="I20" s="176"/>
-      <c r="J20" s="176"/>
-      <c r="K20" s="176"/>
-      <c r="L20" s="176"/>
-    </row>
-    <row r="21" s="179" customFormat="true" ht="69.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="177"/>
+      <c r="B20" s="177"/>
+      <c r="C20" s="177"/>
+      <c r="D20" s="177"/>
+      <c r="E20" s="178"/>
+      <c r="F20" s="177"/>
+      <c r="G20" s="178"/>
+      <c r="H20" s="177"/>
+      <c r="I20" s="177"/>
+      <c r="J20" s="177"/>
+      <c r="K20" s="177"/>
+      <c r="L20" s="177"/>
+    </row>
+    <row r="21" s="180" customFormat="true" ht="69.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="75" t="s">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="B21" s="76" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="C21" s="75" t="s">
-        <v>992</v>
+        <v>995</v>
       </c>
       <c r="D21" s="75" t="s">
-        <v>993</v>
-      </c>
-      <c r="E21" s="178" t="s">
-        <v>994</v>
+        <v>996</v>
+      </c>
+      <c r="E21" s="179" t="s">
+        <v>997</v>
       </c>
       <c r="F21" s="75" t="s">
-        <v>995</v>
+        <v>998</v>
       </c>
       <c r="G21" s="75" t="s">
-        <v>996</v>
+        <v>999</v>
       </c>
       <c r="H21" s="75" t="s">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="I21" s="75" t="s">
-        <v>998</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="180" t="s">
-        <v>999</v>
-      </c>
-      <c r="B22" s="166" t="s">
-        <v>1000</v>
-      </c>
-      <c r="C22" s="166" t="s">
-        <v>783</v>
-      </c>
-      <c r="D22" s="166" t="s">
-        <v>790</v>
-      </c>
-      <c r="E22" s="175" t="s">
-        <v>1001</v>
-      </c>
-      <c r="F22" s="166" t="s">
+      <c r="A22" s="181" t="s">
         <v>1002</v>
       </c>
-      <c r="G22" s="166" t="s">
+      <c r="B22" s="167" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C22" s="167" t="s">
+        <v>786</v>
+      </c>
+      <c r="D22" s="167" t="s">
+        <v>793</v>
+      </c>
+      <c r="E22" s="176" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F22" s="167" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G22" s="167" t="s">
         <v>573</v>
       </c>
-      <c r="H22" s="166" t="s">
+      <c r="H22" s="167" t="s">
         <v>573</v>
       </c>
-      <c r="I22" s="166" t="s">
+      <c r="I22" s="167" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="166" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C23" s="166" t="s">
-        <v>782</v>
-      </c>
-      <c r="D23" s="166" t="s">
-        <v>1004</v>
-      </c>
-      <c r="E23" s="175" t="s">
-        <v>1005</v>
-      </c>
-      <c r="F23" s="166" t="s">
+      <c r="B23" s="167" t="s">
         <v>1006</v>
       </c>
-      <c r="G23" s="166" t="s">
+      <c r="C23" s="167" t="s">
+        <v>785</v>
+      </c>
+      <c r="D23" s="167" t="s">
         <v>1007</v>
       </c>
-      <c r="H23" s="166" t="s">
-        <v>1007</v>
-      </c>
-      <c r="I23" s="166" t="s">
+      <c r="E23" s="176" t="s">
         <v>1008</v>
       </c>
+      <c r="F23" s="167" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G23" s="167" t="s">
+        <v>1010</v>
+      </c>
+      <c r="H23" s="167" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I23" s="167" t="s">
+        <v>1011</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="24.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B24" s="166" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C24" s="166" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D24" s="166" t="s">
-        <v>890</v>
-      </c>
-      <c r="F24" s="166" t="s">
-        <v>1011</v>
-      </c>
-      <c r="G24" s="166" t="s">
+      <c r="B24" s="167" t="s">
         <v>1012</v>
       </c>
-      <c r="H24" s="166" t="s">
-        <v>1012</v>
-      </c>
-      <c r="I24" s="166" t="s">
+      <c r="C24" s="167" t="s">
         <v>1013</v>
       </c>
+      <c r="D24" s="167" t="s">
+        <v>893</v>
+      </c>
+      <c r="F24" s="167" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G24" s="167" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H24" s="167" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I24" s="167" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B25" s="166" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C25" s="166" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D25" s="166" t="s">
-        <v>1016</v>
-      </c>
-      <c r="H25" s="166" t="s">
+      <c r="B25" s="167" t="s">
         <v>1017</v>
       </c>
-      <c r="I25" s="166" t="s">
+      <c r="C25" s="167" t="s">
         <v>1018</v>
       </c>
+      <c r="D25" s="167" t="s">
+        <v>1019</v>
+      </c>
+      <c r="H25" s="167" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I25" s="167" t="s">
+        <v>1021</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B26" s="166" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C26" s="166" t="s">
-        <v>1020</v>
-      </c>
-      <c r="H26" s="166" t="s">
-        <v>1021</v>
+      <c r="B26" s="167" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C26" s="167" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H26" s="167" t="s">
+        <v>1024</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B27" s="166" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C27" s="166" t="s">
-        <v>1023</v>
+      <c r="B27" s="167" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C27" s="167" t="s">
+        <v>1026</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B28" s="166" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C28" s="166" t="s">
-        <v>1025</v>
+      <c r="B28" s="167" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C28" s="167" t="s">
+        <v>1028</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B29" s="166" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C29" s="166" t="s">
-        <v>1027</v>
+      <c r="B29" s="167" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C29" s="167" t="s">
+        <v>1030</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B30" s="166" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C30" s="166" t="s">
-        <v>1029</v>
+      <c r="B30" s="167" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C30" s="167" t="s">
+        <v>1032</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B31" s="166" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C31" s="166" t="s">
-        <v>1031</v>
+      <c r="B31" s="167" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C31" s="167" t="s">
+        <v>1034</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B32" s="166" t="s">
-        <v>1032</v>
-      </c>
-      <c r="C32" s="166" t="s">
-        <v>1033</v>
+      <c r="B32" s="167" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C32" s="167" t="s">
+        <v>1036</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B33" s="166" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C33" s="166" t="s">
-        <v>1035</v>
+      <c r="B33" s="167" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C33" s="167" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="166" t="s">
-        <v>1036</v>
+      <c r="B34" s="167" t="s">
+        <v>1039</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B35" s="166" t="s">
-        <v>1037</v>
+      <c r="B35" s="167" t="s">
+        <v>1040</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="166" t="s">
-        <v>1038</v>
+      <c r="B36" s="167" t="s">
+        <v>1041</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B37" s="166" t="s">
-        <v>1039</v>
+      <c r="B37" s="167" t="s">
+        <v>1042</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B38" s="166" t="s">
-        <v>1040</v>
+      <c r="B38" s="167" t="s">
+        <v>1043</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B39" s="166" t="s">
-        <v>1041</v>
+      <c r="B39" s="167" t="s">
+        <v>1044</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B40" s="166" t="s">
-        <v>1042</v>
+      <c r="B40" s="167" t="s">
+        <v>1045</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B41" s="166" t="s">
-        <v>1043</v>
+      <c r="B41" s="167" t="s">
+        <v>1046</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B42" s="166" t="s">
-        <v>1044</v>
+      <c r="B42" s="167" t="s">
+        <v>1047</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B43" s="166" t="s">
-        <v>1045</v>
+      <c r="B43" s="167" t="s">
+        <v>1048</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B44" s="166" t="s">
-        <v>1046</v>
+      <c r="B44" s="167" t="s">
+        <v>1049</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B45" s="166" t="s">
-        <v>1047</v>
+      <c r="B45" s="167" t="s">
+        <v>1050</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B46" s="166" t="s">
-        <v>1048</v>
+      <c r="B46" s="167" t="s">
+        <v>1051</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B47" s="166" t="s">
-        <v>1049</v>
+      <c r="B47" s="167" t="s">
+        <v>1052</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B48" s="166" t="s">
-        <v>1050</v>
+      <c r="B48" s="167" t="s">
+        <v>1053</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B49" s="166" t="s">
-        <v>1051</v>
+      <c r="B49" s="167" t="s">
+        <v>1054</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B50" s="166" t="s">
-        <v>1052</v>
+      <c r="B50" s="167" t="s">
+        <v>1055</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B51" s="166" t="s">
-        <v>1053</v>
+      <c r="B51" s="167" t="s">
+        <v>1056</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B52" s="166" t="s">
-        <v>1054</v>
+      <c r="B52" s="167" t="s">
+        <v>1057</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B53" s="166" t="s">
-        <v>1055</v>
+      <c r="B53" s="167" t="s">
+        <v>1058</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B54" s="166" t="s">
-        <v>1056</v>
+      <c r="B54" s="167" t="s">
+        <v>1059</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B55" s="166" t="s">
-        <v>1057</v>
+      <c r="B55" s="167" t="s">
+        <v>1060</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B56" s="166" t="s">
-        <v>1058</v>
+      <c r="B56" s="167" t="s">
+        <v>1061</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B57" s="166" t="s">
-        <v>1059</v>
+      <c r="B57" s="167" t="s">
+        <v>1062</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B58" s="166" t="s">
-        <v>1060</v>
+      <c r="B58" s="167" t="s">
+        <v>1063</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B59" s="166" t="s">
-        <v>1061</v>
+      <c r="B59" s="167" t="s">
+        <v>1064</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B60" s="166" t="s">
-        <v>1062</v>
+      <c r="B60" s="167" t="s">
+        <v>1065</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B61" s="166" t="s">
-        <v>1063</v>
+      <c r="B61" s="167" t="s">
+        <v>1066</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B62" s="166" t="s">
-        <v>1064</v>
+      <c r="B62" s="167" t="s">
+        <v>1067</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B63" s="166" t="s">
-        <v>1065</v>
+      <c r="B63" s="167" t="s">
+        <v>1068</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B64" s="166" t="s">
-        <v>1066</v>
+      <c r="B64" s="167" t="s">
+        <v>1069</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B65" s="166" t="s">
-        <v>1067</v>
+      <c r="B65" s="167" t="s">
+        <v>1070</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B66" s="166" t="s">
-        <v>1068</v>
+      <c r="B66" s="167" t="s">
+        <v>1071</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B67" s="166" t="s">
-        <v>1069</v>
+      <c r="B67" s="167" t="s">
+        <v>1072</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B68" s="166" t="s">
-        <v>1070</v>
+      <c r="B68" s="167" t="s">
+        <v>1073</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B69" s="166" t="s">
-        <v>1071</v>
+      <c r="B69" s="167" t="s">
+        <v>1074</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B70" s="166" t="s">
-        <v>911</v>
+      <c r="B70" s="167" t="s">
+        <v>914</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B71" s="166" t="s">
-        <v>1072</v>
+      <c r="B71" s="167" t="s">
+        <v>1075</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B72" s="166" t="s">
-        <v>1073</v>
+      <c r="B72" s="167" t="s">
+        <v>1076</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B73" s="166" t="s">
-        <v>1074</v>
+      <c r="B73" s="167" t="s">
+        <v>1077</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B74" s="166" t="s">
-        <v>1075</v>
+      <c r="B74" s="167" t="s">
+        <v>1078</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B75" s="166" t="s">
-        <v>1076</v>
+      <c r="B75" s="167" t="s">
+        <v>1079</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B76" s="166" t="s">
-        <v>1077</v>
+      <c r="B76" s="167" t="s">
+        <v>1080</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B77" s="166" t="s">
-        <v>1078</v>
+      <c r="B77" s="167" t="s">
+        <v>1081</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B78" s="166" t="s">
-        <v>1079</v>
+      <c r="B78" s="167" t="s">
+        <v>1082</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B79" s="166" t="s">
-        <v>1080</v>
+      <c r="B79" s="167" t="s">
+        <v>1083</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B80" s="166" t="s">
-        <v>1081</v>
+      <c r="B80" s="167" t="s">
+        <v>1084</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B81" s="166" t="s">
-        <v>1082</v>
+      <c r="B81" s="167" t="s">
+        <v>1085</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B82" s="166" t="s">
-        <v>1083</v>
+      <c r="B82" s="167" t="s">
+        <v>1086</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B83" s="166" t="s">
-        <v>1084</v>
+      <c r="B83" s="167" t="s">
+        <v>1087</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B84" s="166" t="s">
-        <v>1085</v>
+      <c r="B84" s="167" t="s">
+        <v>1088</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B85" s="166" t="s">
-        <v>1086</v>
+      <c r="B85" s="167" t="s">
+        <v>1089</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B86" s="166" t="s">
-        <v>1087</v>
+      <c r="B86" s="167" t="s">
+        <v>1090</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B87" s="166" t="s">
-        <v>1088</v>
+      <c r="B87" s="167" t="s">
+        <v>1091</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B88" s="166" t="s">
-        <v>1089</v>
+      <c r="B88" s="167" t="s">
+        <v>1092</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B89" s="166" t="s">
-        <v>1090</v>
+      <c r="B89" s="167" t="s">
+        <v>1093</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B90" s="166" t="s">
-        <v>1091</v>
+      <c r="B90" s="167" t="s">
+        <v>1094</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B91" s="166" t="s">
-        <v>1092</v>
+      <c r="B91" s="167" t="s">
+        <v>1095</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B92" s="166" t="s">
-        <v>1093</v>
+      <c r="B92" s="167" t="s">
+        <v>1096</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B93" s="166" t="s">
-        <v>1094</v>
+      <c r="B93" s="167" t="s">
+        <v>1097</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B94" s="166" t="s">
-        <v>1095</v>
+      <c r="B94" s="167" t="s">
+        <v>1098</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B95" s="166" t="s">
-        <v>1096</v>
+      <c r="B95" s="167" t="s">
+        <v>1099</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B96" s="166" t="s">
-        <v>1097</v>
+      <c r="B96" s="167" t="s">
+        <v>1100</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B97" s="166" t="s">
-        <v>1098</v>
+      <c r="B97" s="167" t="s">
+        <v>1101</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B98" s="166" t="s">
-        <v>1099</v>
+      <c r="B98" s="167" t="s">
+        <v>1102</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B99" s="166" t="s">
-        <v>1100</v>
+      <c r="B99" s="167" t="s">
+        <v>1103</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B100" s="166" t="s">
-        <v>1101</v>
+      <c r="B100" s="167" t="s">
+        <v>1104</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B101" s="166" t="s">
-        <v>1102</v>
+      <c r="B101" s="167" t="s">
+        <v>1105</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B102" s="166" t="s">
-        <v>1103</v>
+      <c r="B102" s="167" t="s">
+        <v>1106</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B103" s="166" t="s">
-        <v>1104</v>
+      <c r="B103" s="167" t="s">
+        <v>1107</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B104" s="166" t="s">
-        <v>1105</v>
+      <c r="B104" s="167" t="s">
+        <v>1108</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B105" s="166" t="s">
-        <v>1106</v>
+      <c r="B105" s="167" t="s">
+        <v>1109</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B106" s="166" t="s">
-        <v>1107</v>
+      <c r="B106" s="167" t="s">
+        <v>1110</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B107" s="166" t="s">
-        <v>1108</v>
+      <c r="B107" s="167" t="s">
+        <v>1111</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B108" s="166" t="s">
-        <v>1109</v>
+      <c r="B108" s="167" t="s">
+        <v>1112</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B109" s="166" t="s">
-        <v>1110</v>
+      <c r="B109" s="167" t="s">
+        <v>1113</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B110" s="166" t="s">
-        <v>1111</v>
+      <c r="B110" s="167" t="s">
+        <v>1114</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B111" s="166" t="s">
-        <v>1112</v>
+      <c r="B111" s="167" t="s">
+        <v>1115</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B112" s="166" t="s">
-        <v>1113</v>
+      <c r="B112" s="167" t="s">
+        <v>1116</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B113" s="166" t="s">
-        <v>1114</v>
+      <c r="B113" s="167" t="s">
+        <v>1117</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B114" s="166" t="s">
-        <v>1115</v>
+      <c r="B114" s="167" t="s">
+        <v>1118</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B115" s="166" t="s">
-        <v>1116</v>
+      <c r="B115" s="167" t="s">
+        <v>1119</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B116" s="166" t="s">
-        <v>1117</v>
+      <c r="B116" s="167" t="s">
+        <v>1120</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B117" s="166" t="s">
-        <v>1118</v>
+      <c r="B117" s="167" t="s">
+        <v>1121</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B118" s="166" t="s">
-        <v>1119</v>
+      <c r="B118" s="167" t="s">
+        <v>1122</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B119" s="166" t="s">
-        <v>1120</v>
+      <c r="B119" s="167" t="s">
+        <v>1123</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B120" s="166" t="s">
-        <v>1121</v>
+      <c r="B120" s="167" t="s">
+        <v>1124</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B121" s="166" t="s">
-        <v>1122</v>
+      <c r="B121" s="167" t="s">
+        <v>1125</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B122" s="166" t="s">
-        <v>1123</v>
+      <c r="B122" s="167" t="s">
+        <v>1126</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B123" s="166" t="s">
-        <v>1124</v>
+      <c r="B123" s="167" t="s">
+        <v>1127</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B124" s="166" t="s">
-        <v>1125</v>
+      <c r="B124" s="167" t="s">
+        <v>1128</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B125" s="166" t="s">
-        <v>1126</v>
+      <c r="B125" s="167" t="s">
+        <v>1129</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B126" s="166" t="s">
-        <v>1127</v>
+      <c r="B126" s="167" t="s">
+        <v>1130</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B127" s="166" t="s">
-        <v>1128</v>
+      <c r="B127" s="167" t="s">
+        <v>1131</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B128" s="166" t="s">
-        <v>1129</v>
+      <c r="B128" s="167" t="s">
+        <v>1132</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B129" s="166" t="s">
-        <v>1130</v>
+      <c r="B129" s="167" t="s">
+        <v>1133</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B130" s="166" t="s">
-        <v>1131</v>
+      <c r="B130" s="167" t="s">
+        <v>1134</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B131" s="166" t="s">
-        <v>1132</v>
+      <c r="B131" s="167" t="s">
+        <v>1135</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B132" s="166" t="s">
-        <v>1133</v>
+      <c r="B132" s="167" t="s">
+        <v>1136</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B133" s="166" t="s">
-        <v>1134</v>
+      <c r="B133" s="167" t="s">
+        <v>1137</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B134" s="166" t="s">
-        <v>1135</v>
+      <c r="B134" s="167" t="s">
+        <v>1138</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B135" s="166" t="s">
-        <v>1136</v>
+      <c r="B135" s="167" t="s">
+        <v>1139</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B136" s="166" t="s">
-        <v>1137</v>
+      <c r="B136" s="167" t="s">
+        <v>1140</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B137" s="166" t="s">
-        <v>1138</v>
+      <c r="B137" s="167" t="s">
+        <v>1141</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B138" s="166" t="s">
-        <v>1139</v>
+      <c r="B138" s="167" t="s">
+        <v>1142</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B139" s="166" t="s">
-        <v>1140</v>
+      <c r="B139" s="167" t="s">
+        <v>1143</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B140" s="166" t="s">
-        <v>1141</v>
+      <c r="B140" s="167" t="s">
+        <v>1144</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B141" s="166" t="s">
-        <v>1142</v>
+      <c r="B141" s="167" t="s">
+        <v>1145</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B142" s="166" t="s">
-        <v>1143</v>
+      <c r="B142" s="167" t="s">
+        <v>1146</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B143" s="166" t="s">
-        <v>1144</v>
+      <c r="B143" s="167" t="s">
+        <v>1147</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B144" s="166" t="s">
-        <v>1145</v>
+      <c r="B144" s="167" t="s">
+        <v>1148</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B145" s="166" t="s">
-        <v>1146</v>
+      <c r="B145" s="167" t="s">
+        <v>1149</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B146" s="166" t="s">
-        <v>1147</v>
+      <c r="B146" s="167" t="s">
+        <v>1150</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B147" s="166" t="s">
-        <v>1148</v>
+      <c r="B147" s="167" t="s">
+        <v>1151</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B148" s="166" t="s">
-        <v>1149</v>
+      <c r="B148" s="167" t="s">
+        <v>1152</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B149" s="166" t="s">
-        <v>1150</v>
+      <c r="B149" s="167" t="s">
+        <v>1153</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B150" s="166" t="s">
-        <v>1151</v>
+      <c r="B150" s="167" t="s">
+        <v>1154</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B151" s="166" t="s">
-        <v>1152</v>
+      <c r="B151" s="167" t="s">
+        <v>1155</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B152" s="166" t="s">
-        <v>1153</v>
+      <c r="B152" s="167" t="s">
+        <v>1156</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B153" s="166" t="s">
-        <v>1154</v>
+      <c r="B153" s="167" t="s">
+        <v>1157</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B154" s="166" t="s">
-        <v>1155</v>
+      <c r="B154" s="167" t="s">
+        <v>1158</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B155" s="166" t="s">
-        <v>1156</v>
+      <c r="B155" s="167" t="s">
+        <v>1159</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B156" s="166" t="s">
-        <v>1157</v>
+      <c r="B156" s="167" t="s">
+        <v>1160</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B157" s="166" t="s">
-        <v>1158</v>
+      <c r="B157" s="167" t="s">
+        <v>1161</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B158" s="166" t="s">
-        <v>1159</v>
+      <c r="B158" s="167" t="s">
+        <v>1162</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B159" s="166" t="s">
-        <v>1160</v>
+      <c r="B159" s="167" t="s">
+        <v>1163</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B160" s="166" t="s">
-        <v>1161</v>
+      <c r="B160" s="167" t="s">
+        <v>1164</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B161" s="166" t="s">
-        <v>1162</v>
+      <c r="B161" s="167" t="s">
+        <v>1165</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B162" s="166" t="s">
-        <v>1163</v>
+      <c r="B162" s="167" t="s">
+        <v>1166</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B163" s="166" t="s">
-        <v>1164</v>
+      <c r="B163" s="167" t="s">
+        <v>1167</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B164" s="166" t="s">
-        <v>1165</v>
+      <c r="B164" s="167" t="s">
+        <v>1168</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B165" s="166" t="s">
-        <v>1166</v>
+      <c r="B165" s="167" t="s">
+        <v>1169</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B166" s="166" t="s">
-        <v>1167</v>
+      <c r="B166" s="167" t="s">
+        <v>1170</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B167" s="166" t="s">
-        <v>1168</v>
+      <c r="B167" s="167" t="s">
+        <v>1171</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B168" s="166" t="s">
-        <v>1169</v>
+      <c r="B168" s="167" t="s">
+        <v>1172</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B169" s="166" t="s">
-        <v>1170</v>
+      <c r="B169" s="167" t="s">
+        <v>1173</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B170" s="166" t="s">
-        <v>1171</v>
+      <c r="B170" s="167" t="s">
+        <v>1174</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B171" s="166" t="s">
-        <v>1172</v>
+      <c r="B171" s="167" t="s">
+        <v>1175</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B172" s="166" t="s">
-        <v>1173</v>
+      <c r="B172" s="167" t="s">
+        <v>1176</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B173" s="166" t="s">
-        <v>1174</v>
+      <c r="B173" s="167" t="s">
+        <v>1177</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B174" s="166" t="s">
-        <v>1175</v>
+      <c r="B174" s="167" t="s">
+        <v>1178</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B175" s="166" t="s">
-        <v>1176</v>
+      <c r="B175" s="167" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B176" s="166" t="s">
-        <v>1177</v>
+      <c r="B176" s="167" t="s">
+        <v>1180</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B177" s="166" t="s">
-        <v>1178</v>
+      <c r="B177" s="167" t="s">
+        <v>1181</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B178" s="166" t="s">
-        <v>1179</v>
+      <c r="B178" s="167" t="s">
+        <v>1182</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B179" s="166" t="s">
-        <v>1180</v>
+      <c r="B179" s="167" t="s">
+        <v>1183</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B180" s="166" t="s">
-        <v>1181</v>
+      <c r="B180" s="167" t="s">
+        <v>1184</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B181" s="166" t="s">
-        <v>1182</v>
+      <c r="B181" s="167" t="s">
+        <v>1185</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B182" s="166" t="s">
-        <v>1183</v>
+      <c r="B182" s="167" t="s">
+        <v>1186</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B183" s="166" t="s">
-        <v>1184</v>
+      <c r="B183" s="167" t="s">
+        <v>1187</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B184" s="166" t="s">
-        <v>1185</v>
+      <c r="B184" s="167" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B185" s="166" t="s">
-        <v>1186</v>
+      <c r="B185" s="167" t="s">
+        <v>1189</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B186" s="166" t="s">
-        <v>1187</v>
+      <c r="B186" s="167" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B187" s="166" t="s">
-        <v>1188</v>
+      <c r="B187" s="167" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B188" s="166" t="s">
-        <v>1189</v>
+      <c r="B188" s="167" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B189" s="166" t="s">
-        <v>1190</v>
+      <c r="B189" s="167" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B190" s="166" t="s">
-        <v>1191</v>
+      <c r="B190" s="167" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B191" s="166" t="s">
-        <v>1192</v>
+      <c r="B191" s="167" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B192" s="166" t="s">
-        <v>1193</v>
+      <c r="B192" s="167" t="s">
+        <v>1196</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B193" s="166" t="s">
-        <v>1194</v>
+      <c r="B193" s="167" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B194" s="166" t="s">
-        <v>1195</v>
+      <c r="B194" s="167" t="s">
+        <v>1198</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B195" s="166" t="s">
-        <v>1196</v>
+      <c r="B195" s="167" t="s">
+        <v>1199</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B196" s="166" t="s">
-        <v>1197</v>
+      <c r="B196" s="167" t="s">
+        <v>1200</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B197" s="166" t="s">
-        <v>1198</v>
+      <c r="B197" s="167" t="s">
+        <v>1201</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B198" s="166" t="s">
-        <v>1199</v>
+      <c r="B198" s="167" t="s">
+        <v>1202</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B199" s="166" t="s">
-        <v>1200</v>
+      <c r="B199" s="167" t="s">
+        <v>1203</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B200" s="166" t="s">
-        <v>1201</v>
+      <c r="B200" s="167" t="s">
+        <v>1204</v>
       </c>
     </row>
   </sheetData>
@@ -19821,14 +20083,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.9489795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="67.1785714285714"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="83.3061224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="60.1683673469388"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.0459183673469"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="68.765306122449"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="99.7040816326531"/>
-    <col collapsed="false" hidden="false" max="1025" min="8" style="11" width="40.8673469387755"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.0561224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="74.3163265306122"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="92.1734693877551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="66.515306122449"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="56.4642857142857"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="76.0357142857143"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="110.413265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="11" width="45.2244897959184"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.4" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19998,30 +20260,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="74.3163265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.6887755102041"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="85.6938775510204"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="83.3061224489796"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="81.4642857142857"/>
-    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="55.5459183673469"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="92.0357142857143"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="51.4387755102041"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="40.4591836734694"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="44.8265306122449"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="37.9489795918367"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="51.4387755102041"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="46.1479591836735"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="37.0255102040816"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="37.9489795918367"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="25.25"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="46.1479591836735"/>
-    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="46.9387755102041"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="37.9489795918367"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="38.3469387755102"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="33.4489795918367"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="46.9387755102041"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="50.2551020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="33.4489795918367"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="82.2448979591837"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.7857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="94.9438775510204"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="92.1734693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="90.1836734693878"/>
+    <col collapsed="false" hidden="false" max="7" min="6" style="0" width="61.3571428571429"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="101.821428571429"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="56.9948979591837"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="44.8265306122449"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="49.5867346938776"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="42.0561224489796"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="56.9948979591837"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="51.0459183673469"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="40.8673469387755"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="42.0561224489796"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="27.9081632653061"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="51.0459183673469"/>
+    <col collapsed="false" hidden="false" max="19" min="19" style="0" width="51.969387755102"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="42.0561224489796"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="42.4489795918367"/>
+    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="51.969387755102"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="55.5459183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="25" style="0" width="37.0255102040816"/>
   </cols>
   <sheetData>
     <row r="1" s="38" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
@@ -20392,25 +20654,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="50.2551020408163"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.7295918367347"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="49.8469387755102"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="42.4489795918367"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="51.3061224489796"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="45.3571428571429"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="70.3469387755102"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="55.4081632653061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="73.9234693877551"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="60.1683673469388"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="50.6479591836735"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="57.5255102040816"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="103.142857142857"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="95.4744897959184"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="103.142857142857"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="85.0255102040816"/>
-    <col collapsed="false" hidden="false" max="26" min="17" style="0" width="33.4489795918367"/>
-    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="40.4591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="55.5459183673469"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="45.0969387755102"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.1377551020408"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="46.9387755102041"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="56.734693877551"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="50.2551020408163"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="77.8877551020408"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="61.2244897959184"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="81.7244897959184"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="66.515306122449"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="56.0663265306122"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="63.6071428571429"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="114.122448979592"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="105.663265306122"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="114.122448979592"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="94.015306122449"/>
+    <col collapsed="false" hidden="false" max="26" min="17" style="0" width="37.0255102040816"/>
+    <col collapsed="false" hidden="false" max="27" min="27" style="0" width="44.8265306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="28" style="0" width="40.8673469387755"/>
   </cols>
   <sheetData>
     <row r="1" s="16" customFormat="true" ht="12.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
